--- a/exports/yield_files/LP HOLL 5.xlsx
+++ b/exports/yield_files/LP HOLL 5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -80,19 +80,13 @@
     <t xml:space="preserve">LP HOLL 5</t>
   </si>
   <si>
-    <t xml:space="preserve">PLY</t>
+    <t xml:space="preserve">CAS</t>
   </si>
   <si>
     <t xml:space="preserve">N19-1503</t>
   </si>
   <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
     <t xml:space="preserve">N19-1506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w</t>
   </si>
   <si>
     <t xml:space="preserve">N19-1512</t>
@@ -147,6 +141,15 @@
   </si>
   <si>
     <t xml:space="preserve">Osage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
   </si>
 </sst>
 </file>
@@ -563,37 +566,23 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P2" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1495.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
       <c r="T2"/>
       <c r="U2" t="n">
-        <v>56.5</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="3">
@@ -613,40 +602,26 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" t="n">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P3" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1495.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
       <c r="T3"/>
       <c r="U3" t="n">
-        <v>56.7</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="4">
@@ -666,40 +641,26 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" t="n">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P4" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1495.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
       <c r="T4"/>
       <c r="U4" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="5">
@@ -719,41 +680,25 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" t="n">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P5" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1495.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
       <c r="T5"/>
-      <c r="U5" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -766,46 +711,32 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" t="n">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1495.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
       <c r="T6"/>
       <c r="U6" t="n">
-        <v>56</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="7">
@@ -819,46 +750,32 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" t="n">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>64.74</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="S7" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
       <c r="T7"/>
       <c r="U7" t="n">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="8">
@@ -872,46 +789,32 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" t="n">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
+      <c r="J8"/>
+      <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>64.74</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1999</v>
-      </c>
-      <c r="S8" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
       <c r="T8"/>
       <c r="U8" t="n">
-        <v>57.1</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="9">
@@ -925,46 +828,32 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" t="n">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
+      <c r="J9"/>
+      <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>64.74</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1999</v>
-      </c>
-      <c r="S9" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="n">
-        <v>55.5</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="10">
@@ -978,44 +867,32 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>60</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
+      <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
-      <c r="O10" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>66.19</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2097.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
       <c r="T10"/>
       <c r="U10" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1029,44 +906,32 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
+      <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-      <c r="O11" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>66.19</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2097.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
       <c r="T11"/>
       <c r="U11" t="n">
-        <v>56</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="12">
@@ -1080,39 +945,33 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
+      <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
-      <c r="O12" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="P12" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>65.6</v>
-      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
-      <c r="U12"/>
+      <c r="U12" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1128,44 +987,28 @@
         <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" t="n">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="P13" t="n">
-        <v>40.46</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>63.45</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1837.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
       <c r="T13"/>
-      <c r="U13" t="n">
-        <v>57.8</v>
-      </c>
+      <c r="U13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1178,46 +1021,32 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" t="n">
-        <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="P14" t="n">
-        <v>40.71</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>63.66</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2008.51</v>
-      </c>
-      <c r="S14" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
       <c r="T14"/>
       <c r="U14" t="n">
-        <v>57.5</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="15">
@@ -1231,46 +1060,32 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" t="n">
-        <v>36</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
+      <c r="J15"/>
+      <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="P15" t="n">
-        <v>40.71</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>63.66</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2008.51</v>
-      </c>
-      <c r="S15" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
       <c r="T15"/>
       <c r="U15" t="n">
-        <v>58.2</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="16">
@@ -1284,46 +1099,32 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" t="n">
-        <v>36</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
+      <c r="J16"/>
+      <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
-      <c r="O16" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="P16" t="n">
-        <v>40.71</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>63.66</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2008.51</v>
-      </c>
-      <c r="S16" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
       <c r="T16"/>
       <c r="U16" t="n">
-        <v>56.9</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="17">
@@ -1337,47 +1138,31 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" t="n">
-        <v>36</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
+      <c r="J17"/>
+      <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="P17" t="n">
-        <v>40.71</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>63.66</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2008.51</v>
-      </c>
-      <c r="S17" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
       <c r="T17"/>
-      <c r="U17" t="n">
-        <v>57.9</v>
-      </c>
+      <c r="U17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1390,44 +1175,32 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
+      <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
-      <c r="O18" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="P18" t="n">
-        <v>41.16</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>64.54</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1829.2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
       <c r="T18"/>
       <c r="U18" t="n">
-        <v>58.2</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="19">
@@ -1441,39 +1214,33 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
       <c r="G19" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
+      <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
-      <c r="O19" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="P19" t="n">
-        <v>41.11</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>64.29</v>
-      </c>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
-      <c r="U19"/>
+      <c r="U19" t="n">
+        <v>53.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1489,42 +1256,30 @@
         <v>27</v>
       </c>
       <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" t="n">
-        <v>34</v>
-      </c>
-      <c r="K20" t="s">
-        <v>26</v>
-      </c>
+      <c r="J20"/>
+      <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
-      <c r="O20" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="P20" t="n">
-        <v>39.19</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>62.22</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2153.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
       <c r="T20"/>
-      <c r="U20"/>
+      <c r="U20" t="n">
+        <v>54.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1540,40 +1295,26 @@
         <v>27</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" t="n">
-        <v>35</v>
-      </c>
-      <c r="K21" t="s">
-        <v>26</v>
-      </c>
+      <c r="J21"/>
+      <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" t="n">
-        <v>22.64</v>
-      </c>
-      <c r="P21" t="n">
-        <v>40.73</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>63.37</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1890.2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
     </row>
@@ -1588,43 +1329,33 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
+      <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="P22" t="n">
-        <v>40.72</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>63.27</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1674.21</v>
-      </c>
-      <c r="S22" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
       <c r="T22"/>
-      <c r="U22"/>
+      <c r="U22" t="n">
+        <v>53.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1637,39 +1368,33 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
-      <c r="K23" t="s">
-        <v>26</v>
-      </c>
+      <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
-      <c r="O23" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>40.52</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>63.82</v>
-      </c>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
-      <c r="U23"/>
+      <c r="U23" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1685,43 +1410,29 @@
         <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" t="n">
-        <v>34</v>
-      </c>
-      <c r="K24" t="s">
-        <v>26</v>
-      </c>
+      <c r="J24"/>
+      <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
-      <c r="O24" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="P24" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2036.9</v>
-      </c>
-      <c r="S24" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
       <c r="T24"/>
       <c r="U24" t="n">
-        <v>57.9</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="25">
@@ -1738,44 +1449,28 @@
         <v>28</v>
       </c>
       <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
         <v>4</v>
       </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
       <c r="G25" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" t="n">
-        <v>38</v>
-      </c>
-      <c r="K25" t="s">
-        <v>26</v>
-      </c>
+      <c r="J25"/>
+      <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="P25" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2227.9</v>
-      </c>
-      <c r="S25" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
       <c r="T25"/>
-      <c r="U25" t="n">
-        <v>57.5</v>
-      </c>
+      <c r="U25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1788,44 +1483,32 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
-      <c r="K26" t="s">
-        <v>26</v>
-      </c>
+      <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
-      <c r="O26" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>42.43</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>63.96</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1939.51</v>
-      </c>
-      <c r="S26" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
       <c r="T26"/>
       <c r="U26" t="n">
-        <v>57.2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -1839,39 +1522,33 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
-      <c r="K27" t="s">
-        <v>26</v>
-      </c>
+      <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
-      <c r="O27" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="P27" t="n">
-        <v>42.67</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>63.69</v>
-      </c>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
-      <c r="U27"/>
+      <c r="U27" t="n">
+        <v>53.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1887,43 +1564,29 @@
         <v>29</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" t="n">
-        <v>33</v>
-      </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
+      <c r="J28"/>
+      <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
-      <c r="O28" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="P28" t="n">
-        <v>40.56</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>62.65</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2119</v>
-      </c>
-      <c r="S28" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
       <c r="T28"/>
       <c r="U28" t="n">
-        <v>57.1</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="29">
@@ -1940,44 +1603,28 @@
         <v>29</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" t="n">
-        <v>34</v>
-      </c>
-      <c r="K29" t="s">
-        <v>24</v>
-      </c>
+      <c r="J29"/>
+      <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
-      <c r="O29" t="n">
-        <v>21.41</v>
-      </c>
-      <c r="P29" t="n">
-        <v>41.43</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>62.84</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2138.11</v>
-      </c>
-      <c r="S29" t="n">
-        <v>11</v>
-      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
       <c r="T29"/>
-      <c r="U29" t="n">
-        <v>56.7</v>
-      </c>
+      <c r="U29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1990,44 +1637,32 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
-      <c r="K30" t="s">
-        <v>24</v>
-      </c>
+      <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
-      <c r="O30" t="n">
-        <v>22.41</v>
-      </c>
-      <c r="P30" t="n">
-        <v>40.58</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>62.99</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2353</v>
-      </c>
-      <c r="S30" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
       <c r="T30"/>
       <c r="U30" t="n">
-        <v>57.4</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="31">
@@ -2041,39 +1676,33 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
-      <c r="K31" t="s">
-        <v>24</v>
-      </c>
+      <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
-      <c r="O31" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="P31" t="n">
-        <v>40.31</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>62.22</v>
-      </c>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
-      <c r="U31"/>
+      <c r="U31" t="n">
+        <v>56.1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2089,43 +1718,29 @@
         <v>30</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" t="n">
-        <v>33</v>
-      </c>
-      <c r="K32" t="s">
-        <v>26</v>
-      </c>
+      <c r="J32"/>
+      <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
-      <c r="O32" t="n">
-        <v>22.34</v>
-      </c>
-      <c r="P32" t="n">
-        <v>40.55</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2183.91</v>
-      </c>
-      <c r="S32" t="n">
-        <v>13</v>
-      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
       <c r="T32"/>
       <c r="U32" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="33">
@@ -2142,44 +1757,28 @@
         <v>30</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" t="n">
-        <v>34</v>
-      </c>
-      <c r="K33" t="s">
-        <v>26</v>
-      </c>
+      <c r="J33"/>
+      <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="P33" t="n">
-        <v>41.09</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>63.52</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2182.7</v>
-      </c>
-      <c r="S33" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
       <c r="T33"/>
-      <c r="U33" t="n">
-        <v>55.8</v>
-      </c>
+      <c r="U33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2192,44 +1791,32 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
         <v>6</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" t="n">
-        <v>51</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34" t="s">
-        <v>26</v>
-      </c>
+      <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
-      <c r="O34" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="P34" t="n">
-        <v>40.41</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>62.95</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2147.8</v>
-      </c>
-      <c r="S34" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
       <c r="T34"/>
       <c r="U34" t="n">
-        <v>55.7</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="35">
@@ -2243,39 +1830,33 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
-      <c r="K35" t="s">
-        <v>26</v>
-      </c>
+      <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
-      <c r="O35" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>40.68</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>62.78</v>
-      </c>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
-      <c r="U35"/>
+      <c r="U35" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2291,43 +1872,29 @@
         <v>31</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36" t="n">
-        <v>33</v>
-      </c>
-      <c r="K36" t="s">
-        <v>26</v>
-      </c>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
-      <c r="O36" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="P36" t="n">
-        <v>40.62</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2087.61</v>
-      </c>
-      <c r="S36" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
       <c r="T36"/>
       <c r="U36" t="n">
-        <v>55.9</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="37">
@@ -2344,44 +1911,28 @@
         <v>31</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37" t="n">
-        <v>34</v>
-      </c>
-      <c r="K37" t="s">
-        <v>26</v>
-      </c>
+      <c r="J37"/>
+      <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="O37" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="P37" t="n">
-        <v>39.98</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>61.88</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2446.1</v>
-      </c>
-      <c r="S37" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
       <c r="T37"/>
-      <c r="U37" t="n">
-        <v>55.9</v>
-      </c>
+      <c r="U37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -2394,44 +1945,32 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
-      <c r="K38" t="s">
-        <v>26</v>
-      </c>
+      <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
-      <c r="O38" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="P38" t="n">
-        <v>40.01</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>62.26</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1990.1</v>
-      </c>
-      <c r="S38" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
       <c r="T38"/>
       <c r="U38" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="39">
@@ -2445,39 +1984,33 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
-      <c r="K39" t="s">
-        <v>26</v>
-      </c>
+      <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
-      <c r="O39" t="n">
-        <v>22.42</v>
-      </c>
-      <c r="P39" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>62.92</v>
-      </c>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
-      <c r="U39"/>
+      <c r="U39" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -2493,43 +2026,29 @@
         <v>32</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" t="n">
-        <v>34</v>
-      </c>
-      <c r="K40" t="s">
-        <v>24</v>
-      </c>
+      <c r="J40"/>
+      <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
-      <c r="O40" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="P40" t="n">
-        <v>42.36</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>65.21</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2284.4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
       <c r="T40"/>
       <c r="U40" t="n">
-        <v>57.8</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="41">
@@ -2546,44 +2065,28 @@
         <v>32</v>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" t="n">
-        <v>35</v>
-      </c>
-      <c r="K41" t="s">
-        <v>24</v>
-      </c>
+      <c r="J41"/>
+      <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41" t="n">
-        <v>23.42</v>
-      </c>
-      <c r="P41" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>65.12</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2176.3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
       <c r="T41"/>
-      <c r="U41" t="n">
-        <v>57.3</v>
-      </c>
+      <c r="U41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -2596,44 +2099,32 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42" t="s">
-        <v>24</v>
-      </c>
+      <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
-      <c r="O42" t="n">
-        <v>23.34</v>
-      </c>
-      <c r="P42" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>65.94</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2066.9</v>
-      </c>
-      <c r="S42" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
       <c r="T42"/>
       <c r="U42" t="n">
-        <v>58.1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -2647,39 +2138,33 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" t="s">
-        <v>24</v>
-      </c>
+      <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
-      <c r="O43" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="P43" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>64.96</v>
-      </c>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
-      <c r="U43"/>
+      <c r="U43" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -2695,43 +2180,29 @@
         <v>33</v>
       </c>
       <c r="E44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" t="n">
-        <v>35</v>
-      </c>
-      <c r="K44" t="s">
-        <v>26</v>
-      </c>
+      <c r="J44"/>
+      <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
-      <c r="O44" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="P44" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>64.05</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2304.6</v>
-      </c>
-      <c r="S44" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
       <c r="T44"/>
       <c r="U44" t="n">
-        <v>57.3</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="45">
@@ -2748,43 +2219,29 @@
         <v>33</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45" t="n">
-        <v>37</v>
-      </c>
-      <c r="K45" t="s">
-        <v>26</v>
-      </c>
+      <c r="J45"/>
+      <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
-      <c r="O45" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="P45" t="n">
-        <v>42.51</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2180</v>
-      </c>
-      <c r="S45" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="n">
-        <v>56.7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
@@ -2798,44 +2255,32 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
-      <c r="K46" t="s">
-        <v>26</v>
-      </c>
+      <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
-      <c r="O46" t="n">
-        <v>22.46</v>
-      </c>
-      <c r="P46" t="n">
-        <v>41.65</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>64.11</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2125.8</v>
-      </c>
-      <c r="S46" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
       <c r="T46"/>
       <c r="U46" t="n">
-        <v>57.7</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="47">
@@ -2849,39 +2294,33 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
-      <c r="K47" t="s">
-        <v>26</v>
-      </c>
+      <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
-      <c r="O47" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="P47" t="n">
-        <v>41.59</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>63.81</v>
-      </c>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
-      <c r="U47"/>
+      <c r="U47" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -2897,43 +2336,29 @@
         <v>34</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48" t="n">
-        <v>43</v>
-      </c>
-      <c r="K48" t="s">
-        <v>24</v>
-      </c>
+      <c r="J48"/>
+      <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
-      <c r="O48" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="P48" t="n">
-        <v>42.11</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>65.32</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2176.5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
       <c r="T48"/>
       <c r="U48" t="n">
-        <v>57.6</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="49">
@@ -2950,44 +2375,28 @@
         <v>34</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49" t="n">
-        <v>42</v>
-      </c>
-      <c r="K49" t="s">
-        <v>24</v>
-      </c>
+      <c r="J49"/>
+      <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="P49" t="n">
-        <v>41.43</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>64.68</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2129.2</v>
-      </c>
-      <c r="S49" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
       <c r="T49"/>
-      <c r="U49" t="n">
-        <v>56.9</v>
-      </c>
+      <c r="U49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -3000,44 +2409,32 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
-      <c r="K50" t="s">
-        <v>24</v>
-      </c>
+      <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
-      <c r="O50" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="P50" t="n">
-        <v>41.42</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>64.79</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2424.1</v>
-      </c>
-      <c r="S50" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
       <c r="T50"/>
       <c r="U50" t="n">
-        <v>57.7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51">
@@ -3051,39 +2448,33 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
-      <c r="K51" t="s">
-        <v>24</v>
-      </c>
+      <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
-      <c r="O51" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="P51" t="n">
-        <v>42.16</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>64.98</v>
-      </c>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
-      <c r="U51"/>
+      <c r="U51" t="n">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -3099,43 +2490,29 @@
         <v>35</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52" t="n">
-        <v>37</v>
-      </c>
-      <c r="K52" t="s">
-        <v>26</v>
-      </c>
+      <c r="J52"/>
+      <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
-      <c r="O52" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="P52" t="n">
-        <v>42.18</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>64.23</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2085.4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
@@ -3152,44 +2529,28 @@
         <v>35</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53" t="n">
-        <v>35</v>
-      </c>
-      <c r="K53" t="s">
-        <v>26</v>
-      </c>
+      <c r="J53"/>
+      <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
-      <c r="O53" t="n">
-        <v>22.23</v>
-      </c>
-      <c r="P53" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>64.16</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2007.5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
       <c r="T53"/>
-      <c r="U53" t="n">
-        <v>57.5</v>
-      </c>
+      <c r="U53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -3202,44 +2563,32 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
-      <c r="K54" t="s">
-        <v>26</v>
-      </c>
+      <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
-      <c r="O54" t="n">
-        <v>22.33</v>
-      </c>
-      <c r="P54" t="n">
-        <v>41.38</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>63.71</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2333.3</v>
-      </c>
-      <c r="S54" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
       <c r="T54"/>
       <c r="U54" t="n">
-        <v>58</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="55">
@@ -3253,39 +2602,33 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
-      <c r="K55" t="s">
-        <v>26</v>
-      </c>
+      <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
-      <c r="O55" t="n">
-        <v>22.23</v>
-      </c>
-      <c r="P55" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>63.53</v>
-      </c>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
-      <c r="U55"/>
+      <c r="U55" t="n">
+        <v>56.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -3301,40 +2644,26 @@
         <v>36</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56" t="n">
-        <v>49</v>
-      </c>
-      <c r="K56" t="s">
-        <v>26</v>
-      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
-      <c r="O56" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="P56" t="n">
-        <v>42.64</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>65.01</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2262.6</v>
-      </c>
-      <c r="S56" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
       <c r="T56"/>
       <c r="U56" t="n">
         <v>56.5</v>
@@ -3354,44 +2683,28 @@
         <v>36</v>
       </c>
       <c r="E57" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57" t="n">
-        <v>48</v>
-      </c>
-      <c r="K57" t="s">
-        <v>26</v>
-      </c>
+      <c r="J57"/>
+      <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
-      <c r="O57" t="n">
-        <v>22.42</v>
-      </c>
-      <c r="P57" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>64.33</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2275.7</v>
-      </c>
-      <c r="S57" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
       <c r="T57"/>
-      <c r="U57" t="n">
-        <v>55.9</v>
-      </c>
+      <c r="U57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -3404,44 +2717,32 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
-      <c r="K58" t="s">
-        <v>26</v>
-      </c>
+      <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
-      <c r="O58" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="P58" t="n">
-        <v>39.14</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>62.47</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2102.5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
       <c r="T58"/>
       <c r="U58" t="n">
-        <v>56</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="59">
@@ -3455,39 +2756,33 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
-      <c r="K59" t="s">
-        <v>26</v>
-      </c>
+      <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
-      <c r="O59" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="P59" t="n">
-        <v>41.59</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>64.26</v>
-      </c>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
       <c r="R59"/>
       <c r="S59"/>
       <c r="T59"/>
-      <c r="U59"/>
+      <c r="U59" t="n">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -3503,43 +2798,29 @@
         <v>37</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60" t="n">
-        <v>44</v>
-      </c>
-      <c r="K60" t="s">
-        <v>24</v>
-      </c>
+      <c r="J60"/>
+      <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
-      <c r="O60" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="P60" t="n">
-        <v>40.99</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>64.24</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2568.1</v>
-      </c>
-      <c r="S60" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
       <c r="T60"/>
       <c r="U60" t="n">
-        <v>57.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="61">
@@ -3556,44 +2837,28 @@
         <v>37</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="J61" t="n">
-        <v>39</v>
-      </c>
-      <c r="K61" t="s">
-        <v>24</v>
-      </c>
+      <c r="J61"/>
+      <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
-      <c r="O61" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="P61" t="n">
-        <v>41.02</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>63.59</v>
-      </c>
-      <c r="R61" t="n">
-        <v>2148.9</v>
-      </c>
-      <c r="S61" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
       <c r="T61"/>
-      <c r="U61" t="n">
-        <v>58</v>
-      </c>
+      <c r="U61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -3606,44 +2871,32 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62" t="s">
-        <v>24</v>
-      </c>
+      <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62"/>
-      <c r="O62" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="P62" t="n">
-        <v>40.82</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>63.45</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2389.4</v>
-      </c>
-      <c r="S62" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
       <c r="T62"/>
       <c r="U62" t="n">
-        <v>57.3</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="63">
@@ -3657,39 +2910,33 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
-      <c r="K63" t="s">
-        <v>24</v>
-      </c>
+      <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63"/>
-      <c r="O63" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="P63" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>64.47</v>
-      </c>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
       <c r="R63"/>
       <c r="S63"/>
       <c r="T63"/>
-      <c r="U63"/>
+      <c r="U63" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -3705,43 +2952,29 @@
         <v>38</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="J64" t="n">
-        <v>46</v>
-      </c>
-      <c r="K64" t="s">
-        <v>26</v>
-      </c>
+      <c r="J64"/>
+      <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
-      <c r="O64" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="P64" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>64.84</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2367.7</v>
-      </c>
-      <c r="S64" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
       <c r="T64"/>
       <c r="U64" t="n">
-        <v>57.9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65">
@@ -3758,44 +2991,28 @@
         <v>38</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="J65" t="n">
-        <v>47</v>
-      </c>
-      <c r="K65" t="s">
-        <v>26</v>
-      </c>
+      <c r="J65"/>
+      <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
-      <c r="O65" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="P65" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>64.06</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2026.9</v>
-      </c>
-      <c r="S65" t="n">
-        <v>16.3</v>
-      </c>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
       <c r="T65"/>
-      <c r="U65" t="n">
-        <v>56.9</v>
-      </c>
+      <c r="U65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -3808,44 +3025,32 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E66" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
-      <c r="K66" t="s">
-        <v>26</v>
-      </c>
+      <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66"/>
-      <c r="O66" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="P66" t="n">
-        <v>41.16</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>64.21</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2066.6</v>
-      </c>
-      <c r="S66" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
       <c r="T66"/>
       <c r="U66" t="n">
-        <v>58.2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
@@ -3859,39 +3064,33 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
-      <c r="K67" t="s">
-        <v>26</v>
-      </c>
+      <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67"/>
-      <c r="O67" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="P67" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>65.03</v>
-      </c>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
       <c r="R67"/>
       <c r="S67"/>
       <c r="T67"/>
-      <c r="U67"/>
+      <c r="U67" t="n">
+        <v>53.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -3907,43 +3106,29 @@
         <v>39</v>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68" t="n">
-        <v>47</v>
-      </c>
-      <c r="K68" t="s">
-        <v>24</v>
-      </c>
+      <c r="J68"/>
+      <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
-      <c r="O68" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="P68" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>64.26</v>
-      </c>
-      <c r="R68" t="n">
-        <v>1966.8</v>
-      </c>
-      <c r="S68" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
       <c r="T68"/>
       <c r="U68" t="n">
-        <v>57.1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
@@ -3960,43 +3145,29 @@
         <v>39</v>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69" t="n">
-        <v>48</v>
-      </c>
-      <c r="K69" t="s">
-        <v>24</v>
-      </c>
+      <c r="J69"/>
+      <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
-      <c r="O69" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="P69" t="n">
-        <v>39.91</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="R69" t="n">
-        <v>2069</v>
-      </c>
-      <c r="S69" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
       <c r="T69"/>
       <c r="U69" t="n">
-        <v>55.6</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="70">
@@ -4013,42 +3184,28 @@
         <v>39</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
-      <c r="K70" t="s">
-        <v>24</v>
-      </c>
+      <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
-      <c r="O70" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="P70" t="n">
-        <v>40.52</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>63.75</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2109.1</v>
-      </c>
-      <c r="S70" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
       <c r="T70"/>
-      <c r="U70" t="n">
-        <v>57.2</v>
-      </c>
+      <c r="U70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -4061,39 +3218,33 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
-      <c r="K71" t="s">
-        <v>24</v>
-      </c>
+      <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
-      <c r="O71" t="n">
-        <v>23.42</v>
-      </c>
-      <c r="P71" t="n">
-        <v>40.34</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>63.76</v>
-      </c>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
       <c r="R71"/>
       <c r="S71"/>
       <c r="T71"/>
-      <c r="U71"/>
+      <c r="U71" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -4109,43 +3260,29 @@
         <v>40</v>
       </c>
       <c r="E72" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" t="n">
-        <v>46</v>
-      </c>
-      <c r="K72" t="s">
-        <v>26</v>
-      </c>
+      <c r="J72"/>
+      <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
-      <c r="O72" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="P72" t="n">
-        <v>40.98</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>63.81</v>
-      </c>
-      <c r="R72" t="n">
-        <v>2190.6</v>
-      </c>
-      <c r="S72" t="n">
-        <v>16</v>
-      </c>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
       <c r="T72"/>
       <c r="U72" t="n">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="73">
@@ -4162,43 +3299,29 @@
         <v>40</v>
       </c>
       <c r="E73" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73" t="n">
-        <v>44</v>
-      </c>
-      <c r="K73" t="s">
-        <v>26</v>
-      </c>
+      <c r="J73"/>
+      <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
-      <c r="O73" t="n">
-        <v>22.41</v>
-      </c>
-      <c r="P73" t="n">
-        <v>40.56</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>62.97</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1979.9</v>
-      </c>
-      <c r="S73" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
       <c r="T73"/>
       <c r="U73" t="n">
-        <v>56.9</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="74">
@@ -4215,42 +3338,28 @@
         <v>40</v>
       </c>
       <c r="E74" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
-      <c r="K74" t="s">
-        <v>26</v>
-      </c>
+      <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
-      <c r="O74" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="P74" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>64.42</v>
-      </c>
-      <c r="R74" t="n">
-        <v>2160.7</v>
-      </c>
-      <c r="S74" t="n">
-        <v>16.1</v>
-      </c>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
       <c r="T74"/>
-      <c r="U74" t="n">
-        <v>56.6</v>
-      </c>
+      <c r="U74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -4263,39 +3372,33 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E75" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
         <v>4</v>
-      </c>
-      <c r="G75" t="n">
-        <v>64</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
-      <c r="K75" t="s">
-        <v>26</v>
-      </c>
+      <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
-      <c r="O75" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="P75" t="n">
-        <v>40.69</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>63.09</v>
-      </c>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
       <c r="R75"/>
       <c r="S75"/>
       <c r="T75"/>
-      <c r="U75"/>
+      <c r="U75" t="n">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -4311,40 +3414,26 @@
         <v>41</v>
       </c>
       <c r="E76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76" t="n">
-        <v>42</v>
-      </c>
-      <c r="K76" t="s">
-        <v>24</v>
-      </c>
+      <c r="J76"/>
+      <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
-      <c r="O76" t="n">
-        <v>22.23</v>
-      </c>
-      <c r="P76" t="n">
-        <v>41.54</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>63.77</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2071.4</v>
-      </c>
-      <c r="S76" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
       <c r="T76"/>
       <c r="U76" t="n">
         <v>55.8</v>
@@ -4364,43 +3453,29 @@
         <v>41</v>
       </c>
       <c r="E77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77" t="n">
-        <v>36</v>
-      </c>
-      <c r="K77" t="s">
-        <v>24</v>
-      </c>
+      <c r="J77"/>
+      <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
-      <c r="O77" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="P77" t="n">
-        <v>42.35</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>64.08</v>
-      </c>
-      <c r="R77" t="n">
-        <v>2081.6</v>
-      </c>
-      <c r="S77" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
       <c r="T77"/>
       <c r="U77" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="78">
@@ -4417,42 +3492,28 @@
         <v>41</v>
       </c>
       <c r="E78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
-      <c r="K78" t="s">
-        <v>24</v>
-      </c>
+      <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
-      <c r="O78" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="P78" t="n">
-        <v>40.98</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>63</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2065.2</v>
-      </c>
-      <c r="S78" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
       <c r="T78"/>
-      <c r="U78" t="n">
-        <v>55.7</v>
-      </c>
+      <c r="U78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -4465,39 +3526,33 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E79" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
-      <c r="K79" t="s">
-        <v>24</v>
-      </c>
+      <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79"/>
-      <c r="O79" t="n">
-        <v>22</v>
-      </c>
-      <c r="P79" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>63.79</v>
-      </c>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
       <c r="R79"/>
       <c r="S79"/>
       <c r="T79"/>
-      <c r="U79"/>
+      <c r="U79" t="n">
+        <v>54.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -4513,43 +3568,29 @@
         <v>42</v>
       </c>
       <c r="E80" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80" t="n">
-        <v>39</v>
-      </c>
-      <c r="K80" t="s">
-        <v>24</v>
-      </c>
+      <c r="J80"/>
+      <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
-      <c r="O80" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="P80" t="n">
-        <v>38.95</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>62.03</v>
-      </c>
-      <c r="R80" t="n">
-        <v>2149.6</v>
-      </c>
-      <c r="S80" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
       <c r="T80"/>
       <c r="U80" t="n">
-        <v>58.1</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="81">
@@ -4566,43 +3607,29 @@
         <v>42</v>
       </c>
       <c r="E81" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="J81" t="n">
-        <v>37</v>
-      </c>
-      <c r="K81" t="s">
-        <v>24</v>
-      </c>
+      <c r="J81"/>
+      <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
-      <c r="O81" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="P81" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="R81" t="n">
-        <v>2044.1</v>
-      </c>
-      <c r="S81" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
       <c r="T81"/>
       <c r="U81" t="n">
-        <v>57.5</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="82">
@@ -4619,139 +3646,133 @@
         <v>42</v>
       </c>
       <c r="E82" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
-      <c r="K82" t="s">
-        <v>24</v>
-      </c>
+      <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82"/>
-      <c r="O82" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="P82" t="n">
-        <v>39.02</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>62.23</v>
-      </c>
-      <c r="R82" t="n">
-        <v>2022.6</v>
-      </c>
-      <c r="S82" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
       <c r="T82"/>
-      <c r="U82" t="n">
-        <v>57.9</v>
-      </c>
+      <c r="U82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C83" t="n">
         <v>2021</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E83" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
-      <c r="J83"/>
+      <c r="J83" t="n">
+        <v>30</v>
+      </c>
       <c r="K83" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>23.13</v>
+        <v>7.11</v>
       </c>
       <c r="P83" t="n">
-        <v>39.76</v>
+        <v>60.91</v>
       </c>
       <c r="Q83" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="R83"/>
-      <c r="S83"/>
+        <v>68.02</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1495.4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T83"/>
-      <c r="U83"/>
+      <c r="U83" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C84" t="n">
         <v>2021</v>
       </c>
       <c r="D84" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E84" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="K84" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>21.84</v>
+        <v>7.11</v>
       </c>
       <c r="P84" t="n">
-        <v>42.74</v>
+        <v>60.91</v>
       </c>
       <c r="Q84" t="n">
-        <v>64.58</v>
+        <v>68.02</v>
       </c>
       <c r="R84" t="n">
-        <v>1858.2</v>
+        <v>1495.4</v>
       </c>
       <c r="S84" t="n">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="T84"/>
       <c r="U84" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="85">
@@ -4759,52 +3780,52 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C85" t="n">
         <v>2021</v>
       </c>
       <c r="D85" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E85" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K85" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>21.5</v>
+        <v>7.11</v>
       </c>
       <c r="P85" t="n">
-        <v>41.68</v>
+        <v>60.91</v>
       </c>
       <c r="Q85" t="n">
-        <v>63.18</v>
+        <v>68.02</v>
       </c>
       <c r="R85" t="n">
-        <v>2137.4</v>
+        <v>1495.4</v>
       </c>
       <c r="S85" t="n">
-        <v>10.6</v>
+        <v>11.9</v>
       </c>
       <c r="T85"/>
       <c r="U85" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="86">
@@ -4812,50 +3833,52 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C86" t="n">
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E86" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
-      <c r="J86"/>
+      <c r="J86" t="n">
+        <v>30</v>
+      </c>
       <c r="K86" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>21.71</v>
+        <v>7.11</v>
       </c>
       <c r="P86" t="n">
-        <v>41.13</v>
+        <v>60.91</v>
       </c>
       <c r="Q86" t="n">
-        <v>62.84</v>
+        <v>68.02</v>
       </c>
       <c r="R86" t="n">
-        <v>2101.6</v>
+        <v>1495.4</v>
       </c>
       <c r="S86" t="n">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="T86"/>
       <c r="U86" t="n">
-        <v>55.7</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="87">
@@ -4863,97 +3886,105 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C87" t="n">
         <v>2021</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E87" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="J87"/>
+      <c r="J87" t="n">
+        <v>30</v>
+      </c>
       <c r="K87" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>21.65</v>
+        <v>7.11</v>
       </c>
       <c r="P87" t="n">
-        <v>41.78</v>
+        <v>60.91</v>
       </c>
       <c r="Q87" t="n">
-        <v>63.43</v>
-      </c>
-      <c r="R87"/>
-      <c r="S87"/>
+        <v>68.02</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1495.4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T87"/>
-      <c r="U87"/>
+      <c r="U87" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C88" t="n">
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E88" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
       <c r="J88" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K88" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
       <c r="O88" t="n">
-        <v>21.15</v>
+        <v>23.5</v>
       </c>
       <c r="P88" t="n">
-        <v>44.18</v>
+        <v>41.24</v>
       </c>
       <c r="Q88" t="n">
-        <v>65.33</v>
+        <v>64.74</v>
       </c>
       <c r="R88" t="n">
-        <v>2061.1</v>
+        <v>1999</v>
       </c>
       <c r="S88" t="n">
-        <v>11.8</v>
+        <v>13.2</v>
       </c>
       <c r="T88"/>
       <c r="U88" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="89">
@@ -4961,52 +3992,52 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C89" t="n">
         <v>2021</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E89" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K89" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
       <c r="O89" t="n">
-        <v>20.88</v>
+        <v>23.5</v>
       </c>
       <c r="P89" t="n">
-        <v>44.29</v>
+        <v>41.24</v>
       </c>
       <c r="Q89" t="n">
-        <v>65.17</v>
+        <v>64.74</v>
       </c>
       <c r="R89" t="n">
-        <v>2453.3</v>
+        <v>1999</v>
       </c>
       <c r="S89" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="T89"/>
       <c r="U89" t="n">
-        <v>56.2</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="90">
@@ -5014,50 +4045,52 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C90" t="n">
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
-      <c r="J90"/>
+      <c r="J90" t="n">
+        <v>31</v>
+      </c>
       <c r="K90" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90"/>
       <c r="O90" t="n">
-        <v>20.97</v>
+        <v>23.5</v>
       </c>
       <c r="P90" t="n">
-        <v>44.38</v>
+        <v>41.24</v>
       </c>
       <c r="Q90" t="n">
-        <v>65.35</v>
+        <v>64.74</v>
       </c>
       <c r="R90" t="n">
-        <v>2122.1</v>
+        <v>1999</v>
       </c>
       <c r="S90" t="n">
-        <v>12.3</v>
+        <v>13.2</v>
       </c>
       <c r="T90"/>
       <c r="U90" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="91">
@@ -5065,45 +4098,4138 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C91" t="n">
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E91" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91"/>
       <c r="O91" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="P91" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2097.5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T91"/>
+      <c r="U91" t="n">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>60</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="P92" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2097.5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T92"/>
+      <c r="U92" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="n">
+        <v>63</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="P93" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>65.6</v>
+      </c>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>16</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94" t="n">
+        <v>35</v>
+      </c>
+      <c r="K94" t="s">
+        <v>45</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="P94" t="n">
+        <v>40.46</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>63.45</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1837.6</v>
+      </c>
+      <c r="S94" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T94"/>
+      <c r="U94" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>21</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95" t="n">
+        <v>36</v>
+      </c>
+      <c r="K95" t="s">
+        <v>45</v>
+      </c>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="P95" t="n">
+        <v>40.71</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>63.66</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2008.51</v>
+      </c>
+      <c r="S95" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T95"/>
+      <c r="U95" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="n">
+        <v>21</v>
+      </c>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96" t="n">
+        <v>36</v>
+      </c>
+      <c r="K96" t="s">
+        <v>45</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="P96" t="n">
+        <v>40.71</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>63.66</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2008.51</v>
+      </c>
+      <c r="S96" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T96"/>
+      <c r="U96" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" t="n">
+        <v>21</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97" t="n">
+        <v>36</v>
+      </c>
+      <c r="K97" t="s">
+        <v>45</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="P97" t="n">
+        <v>40.71</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>63.66</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2008.51</v>
+      </c>
+      <c r="S97" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T97"/>
+      <c r="U97" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" t="n">
+        <v>21</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98" t="n">
+        <v>36</v>
+      </c>
+      <c r="K98" t="s">
+        <v>45</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="P98" t="n">
+        <v>40.71</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>63.66</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2008.51</v>
+      </c>
+      <c r="S98" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T98"/>
+      <c r="U98" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>58</v>
+      </c>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99" t="s">
+        <v>45</v>
+      </c>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="P99" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>64.54</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1829.2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T99"/>
+      <c r="U99" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4</v>
+      </c>
+      <c r="G100" t="n">
+        <v>66</v>
+      </c>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100" t="s">
+        <v>45</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="P100" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>64.29</v>
+      </c>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>6</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101" t="n">
+        <v>34</v>
+      </c>
+      <c r="K101" t="s">
+        <v>45</v>
+      </c>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="P101" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>62.22</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2153.8</v>
+      </c>
+      <c r="S101" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="T101"/>
+      <c r="U101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>27</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102" t="n">
+        <v>35</v>
+      </c>
+      <c r="K102" t="s">
+        <v>45</v>
+      </c>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="P102" t="n">
+        <v>40.73</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>63.37</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1890.2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T102"/>
+      <c r="U102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>52</v>
+      </c>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103" t="s">
+        <v>45</v>
+      </c>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="P103" t="n">
+        <v>40.72</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>63.27</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1674.21</v>
+      </c>
+      <c r="S103" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T103"/>
+      <c r="U103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G104" t="n">
+        <v>75</v>
+      </c>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104" t="s">
+        <v>45</v>
+      </c>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="P104" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4</v>
+      </c>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105" t="n">
+        <v>34</v>
+      </c>
+      <c r="K105" t="s">
+        <v>45</v>
+      </c>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="P105" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2036.9</v>
+      </c>
+      <c r="S105" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T105"/>
+      <c r="U105" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" t="n">
+        <v>22</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106" t="n">
+        <v>38</v>
+      </c>
+      <c r="K106" t="s">
+        <v>45</v>
+      </c>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P106" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2227.9</v>
+      </c>
+      <c r="S106" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="T106"/>
+      <c r="U106" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" t="n">
+        <v>50</v>
+      </c>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107" t="s">
+        <v>45</v>
+      </c>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>42.43</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>63.96</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1939.51</v>
+      </c>
+      <c r="S107" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T107"/>
+      <c r="U107" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4</v>
+      </c>
+      <c r="G108" t="n">
+        <v>65</v>
+      </c>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108" t="s">
+        <v>45</v>
+      </c>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="P108" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>7</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109" t="n">
+        <v>33</v>
+      </c>
+      <c r="K109" t="s">
+        <v>44</v>
+      </c>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="P109" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>62.65</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2119</v>
+      </c>
+      <c r="S109" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="T109"/>
+      <c r="U109" t="n">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" t="n">
+        <v>26</v>
+      </c>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110" t="n">
+        <v>34</v>
+      </c>
+      <c r="K110" t="s">
+        <v>44</v>
+      </c>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="P110" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>62.84</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2138.11</v>
+      </c>
+      <c r="S110" t="n">
+        <v>11</v>
+      </c>
+      <c r="T110"/>
+      <c r="U110" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3</v>
+      </c>
+      <c r="G111" t="n">
+        <v>49</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="P111" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>62.99</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2353</v>
+      </c>
+      <c r="S111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="T111"/>
+      <c r="U111" t="n">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4</v>
+      </c>
+      <c r="G112" t="n">
+        <v>68</v>
+      </c>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112" t="s">
+        <v>44</v>
+      </c>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="P112" t="n">
+        <v>40.31</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>62.22</v>
+      </c>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>15</v>
+      </c>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113" t="n">
+        <v>33</v>
+      </c>
+      <c r="K113" t="s">
+        <v>45</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="P113" t="n">
+        <v>40.55</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2183.91</v>
+      </c>
+      <c r="S113" t="n">
+        <v>13</v>
+      </c>
+      <c r="T113"/>
+      <c r="U113" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" t="n">
+        <v>36</v>
+      </c>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114" t="n">
+        <v>34</v>
+      </c>
+      <c r="K114" t="s">
+        <v>45</v>
+      </c>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="P114" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2182.7</v>
+      </c>
+      <c r="S114" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T114"/>
+      <c r="U114" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" t="n">
+        <v>51</v>
+      </c>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115" t="s">
+        <v>45</v>
+      </c>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="P115" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>62.95</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2147.8</v>
+      </c>
+      <c r="S115" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="T115"/>
+      <c r="U115" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4</v>
+      </c>
+      <c r="G116" t="n">
+        <v>61</v>
+      </c>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116" t="s">
+        <v>45</v>
+      </c>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="P116" t="n">
+        <v>40.68</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117" t="n">
+        <v>33</v>
+      </c>
+      <c r="K117" t="s">
+        <v>45</v>
+      </c>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="P117" t="n">
+        <v>40.62</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2087.61</v>
+      </c>
+      <c r="S117" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="T117"/>
+      <c r="U117" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D118" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>39</v>
+      </c>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118" t="n">
+        <v>34</v>
+      </c>
+      <c r="K118" t="s">
+        <v>45</v>
+      </c>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="P118" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2446.1</v>
+      </c>
+      <c r="S118" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="T118"/>
+      <c r="U118" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3</v>
+      </c>
+      <c r="G119" t="n">
+        <v>43</v>
+      </c>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119" t="s">
+        <v>45</v>
+      </c>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="P119" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1990.1</v>
+      </c>
+      <c r="S119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T119"/>
+      <c r="U119" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4</v>
+      </c>
+      <c r="G120" t="n">
+        <v>77</v>
+      </c>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120" t="s">
+        <v>45</v>
+      </c>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="P120" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" t="n">
+        <v>8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>14</v>
+      </c>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121" t="n">
+        <v>34</v>
+      </c>
+      <c r="K121" t="s">
+        <v>44</v>
+      </c>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="P121" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>65.21</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2284.4</v>
+      </c>
+      <c r="S121" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T121"/>
+      <c r="U121" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D122" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122" t="n">
+        <v>8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" t="n">
+        <v>38</v>
+      </c>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122" t="n">
+        <v>35</v>
+      </c>
+      <c r="K122" t="s">
+        <v>44</v>
+      </c>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="P122" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2176.3</v>
+      </c>
+      <c r="S122" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T122"/>
+      <c r="U122" t="n">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3</v>
+      </c>
+      <c r="G123" t="n">
+        <v>53</v>
+      </c>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123" t="s">
+        <v>44</v>
+      </c>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="P123" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2066.9</v>
+      </c>
+      <c r="S123" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T123"/>
+      <c r="U123" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" t="n">
+        <v>8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4</v>
+      </c>
+      <c r="G124" t="n">
+        <v>76</v>
+      </c>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124" t="s">
+        <v>44</v>
+      </c>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="P124" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>64.96</v>
+      </c>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D125" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125" t="n">
+        <v>35</v>
+      </c>
+      <c r="K125" t="s">
+        <v>45</v>
+      </c>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="P125" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>64.05</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2304.6</v>
+      </c>
+      <c r="S125" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T125"/>
+      <c r="U125" t="n">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D126" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" t="n">
+        <v>40</v>
+      </c>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126" t="n">
+        <v>37</v>
+      </c>
+      <c r="K126" t="s">
+        <v>45</v>
+      </c>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="P126" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2180</v>
+      </c>
+      <c r="S126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T126"/>
+      <c r="U126" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D127" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3</v>
+      </c>
+      <c r="G127" t="n">
+        <v>42</v>
+      </c>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127" t="s">
+        <v>45</v>
+      </c>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="P127" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2125.8</v>
+      </c>
+      <c r="S127" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T127"/>
+      <c r="U127" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4</v>
+      </c>
+      <c r="G128" t="n">
+        <v>80</v>
+      </c>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128" t="s">
+        <v>45</v>
+      </c>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="P128" t="n">
+        <v>41.59</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D129" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" t="n">
+        <v>10</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>13</v>
+      </c>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129" t="n">
+        <v>43</v>
+      </c>
+      <c r="K129" t="s">
+        <v>44</v>
+      </c>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="P129" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>65.32</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2176.5</v>
+      </c>
+      <c r="S129" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T129"/>
+      <c r="U129" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D130" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" t="n">
+        <v>10</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2</v>
+      </c>
+      <c r="G130" t="n">
+        <v>37</v>
+      </c>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130" t="n">
+        <v>42</v>
+      </c>
+      <c r="K130" t="s">
+        <v>44</v>
+      </c>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="P130" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>64.68</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2129.2</v>
+      </c>
+      <c r="S130" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T130"/>
+      <c r="U130" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D131" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131" t="n">
+        <v>10</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3</v>
+      </c>
+      <c r="G131" t="n">
+        <v>46</v>
+      </c>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131" t="s">
+        <v>44</v>
+      </c>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="P131" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>64.79</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2424.1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T131"/>
+      <c r="U131" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D132" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" t="n">
+        <v>10</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4</v>
+      </c>
+      <c r="G132" t="n">
+        <v>72</v>
+      </c>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132" t="s">
+        <v>44</v>
+      </c>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="P132" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D133" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133" t="n">
+        <v>37</v>
+      </c>
+      <c r="K133" t="s">
+        <v>45</v>
+      </c>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="P133" t="n">
+        <v>42.18</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>64.23</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2085.4</v>
+      </c>
+      <c r="S133" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T133"/>
+      <c r="U133" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D134" t="s">
+        <v>33</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2</v>
+      </c>
+      <c r="G134" t="n">
+        <v>23</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134" t="n">
+        <v>35</v>
+      </c>
+      <c r="K134" t="s">
+        <v>45</v>
+      </c>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="P134" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>64.16</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2007.5</v>
+      </c>
+      <c r="S134" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="T134"/>
+      <c r="U134" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D135" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3</v>
+      </c>
+      <c r="G135" t="n">
+        <v>59</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135" t="s">
+        <v>45</v>
+      </c>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="P135" t="n">
+        <v>41.38</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>63.71</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2333.3</v>
+      </c>
+      <c r="S135" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T135"/>
+      <c r="U135" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D136" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4</v>
+      </c>
+      <c r="G136" t="n">
+        <v>78</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136" t="s">
+        <v>45</v>
+      </c>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="P136" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>63.53</v>
+      </c>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D137" t="s">
+        <v>34</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>19</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137" t="n">
+        <v>49</v>
+      </c>
+      <c r="K137" t="s">
+        <v>45</v>
+      </c>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="P137" t="n">
+        <v>42.64</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>65.01</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2262.6</v>
+      </c>
+      <c r="S137" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="T137"/>
+      <c r="U137" t="n">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D138" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" t="n">
+        <v>30</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138" t="n">
+        <v>48</v>
+      </c>
+      <c r="K138" t="s">
+        <v>45</v>
+      </c>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="P138" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>64.33</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2275.7</v>
+      </c>
+      <c r="S138" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T138"/>
+      <c r="U138" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D139" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3</v>
+      </c>
+      <c r="G139" t="n">
+        <v>54</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139" t="s">
+        <v>45</v>
+      </c>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="P139" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>62.47</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2102.5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T139"/>
+      <c r="U139" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D140" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4</v>
+      </c>
+      <c r="G140" t="n">
+        <v>67</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140" t="s">
+        <v>45</v>
+      </c>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="P140" t="n">
+        <v>41.59</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>64.26</v>
+      </c>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D141" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" t="n">
+        <v>13</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>12</v>
+      </c>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141" t="n">
+        <v>44</v>
+      </c>
+      <c r="K141" t="s">
+        <v>44</v>
+      </c>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="P141" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>64.24</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2568.1</v>
+      </c>
+      <c r="S141" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T141"/>
+      <c r="U141" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" t="n">
+        <v>13</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="n">
+        <v>28</v>
+      </c>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142" t="n">
+        <v>39</v>
+      </c>
+      <c r="K142" t="s">
+        <v>44</v>
+      </c>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="P142" t="n">
+        <v>41.02</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2148.9</v>
+      </c>
+      <c r="S142" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T142"/>
+      <c r="U142" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D143" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" t="n">
+        <v>13</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" t="n">
+        <v>45</v>
+      </c>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143" t="s">
+        <v>44</v>
+      </c>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="P143" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>63.45</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2389.4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T143"/>
+      <c r="U143" t="n">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D144" t="s">
+        <v>35</v>
+      </c>
+      <c r="E144" t="n">
+        <v>13</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4</v>
+      </c>
+      <c r="G144" t="n">
+        <v>73</v>
+      </c>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144" t="s">
+        <v>44</v>
+      </c>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="P144" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>64.47</v>
+      </c>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" t="n">
+        <v>14</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>9</v>
+      </c>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145" t="n">
+        <v>46</v>
+      </c>
+      <c r="K145" t="s">
+        <v>45</v>
+      </c>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="P145" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>64.84</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2367.7</v>
+      </c>
+      <c r="S145" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T145"/>
+      <c r="U145" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D146" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" t="n">
+        <v>14</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" t="n">
+        <v>24</v>
+      </c>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146" t="n">
+        <v>47</v>
+      </c>
+      <c r="K146" t="s">
+        <v>45</v>
+      </c>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="P146" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>64.06</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2026.9</v>
+      </c>
+      <c r="S146" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T146"/>
+      <c r="U146" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D147" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" t="n">
+        <v>14</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>55</v>
+      </c>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147" t="s">
+        <v>45</v>
+      </c>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="P147" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>64.21</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2066.6</v>
+      </c>
+      <c r="S147" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="T147"/>
+      <c r="U147" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D148" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" t="n">
+        <v>14</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4</v>
+      </c>
+      <c r="G148" t="n">
+        <v>62</v>
+      </c>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148" t="s">
+        <v>45</v>
+      </c>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="P148" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D149" t="s">
+        <v>37</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>18</v>
+      </c>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149" t="n">
+        <v>47</v>
+      </c>
+      <c r="K149" t="s">
+        <v>44</v>
+      </c>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P149" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>64.26</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1966.8</v>
+      </c>
+      <c r="S149" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="T149"/>
+      <c r="U149" t="n">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D150" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" t="n">
+        <v>31</v>
+      </c>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150" t="n">
+        <v>48</v>
+      </c>
+      <c r="K150" t="s">
+        <v>44</v>
+      </c>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="P150" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2069</v>
+      </c>
+      <c r="S150" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T150"/>
+      <c r="U150" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D151" t="s">
+        <v>37</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="n">
+        <v>48</v>
+      </c>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151" t="s">
+        <v>44</v>
+      </c>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="P151" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2109.1</v>
+      </c>
+      <c r="S151" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T151"/>
+      <c r="U151" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D152" t="s">
+        <v>37</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4</v>
+      </c>
+      <c r="G152" t="n">
+        <v>70</v>
+      </c>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152" t="s">
+        <v>44</v>
+      </c>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="P152" t="n">
+        <v>40.34</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D153" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" t="n">
+        <v>16</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>10</v>
+      </c>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153" t="n">
+        <v>46</v>
+      </c>
+      <c r="K153" t="s">
+        <v>45</v>
+      </c>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="P153" t="n">
+        <v>40.98</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2190.6</v>
+      </c>
+      <c r="S153" t="n">
+        <v>16</v>
+      </c>
+      <c r="T153"/>
+      <c r="U153" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>43</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D154" t="s">
+        <v>38</v>
+      </c>
+      <c r="E154" t="n">
+        <v>16</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2</v>
+      </c>
+      <c r="G154" t="n">
+        <v>33</v>
+      </c>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154" t="n">
+        <v>44</v>
+      </c>
+      <c r="K154" t="s">
+        <v>45</v>
+      </c>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="P154" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>62.97</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1979.9</v>
+      </c>
+      <c r="S154" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T154"/>
+      <c r="U154" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D155" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" t="n">
+        <v>16</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3</v>
+      </c>
+      <c r="G155" t="n">
+        <v>41</v>
+      </c>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155" t="s">
+        <v>45</v>
+      </c>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="P155" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>64.42</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2160.7</v>
+      </c>
+      <c r="S155" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="T155"/>
+      <c r="U155" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D156" t="s">
+        <v>38</v>
+      </c>
+      <c r="E156" t="n">
+        <v>16</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" t="n">
+        <v>64</v>
+      </c>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156" t="s">
+        <v>45</v>
+      </c>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="P156" t="n">
+        <v>40.69</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D157" t="s">
+        <v>39</v>
+      </c>
+      <c r="E157" t="n">
+        <v>17</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>20</v>
+      </c>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157" t="n">
+        <v>42</v>
+      </c>
+      <c r="K157" t="s">
+        <v>44</v>
+      </c>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="P157" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>63.77</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2071.4</v>
+      </c>
+      <c r="S157" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T157"/>
+      <c r="U157" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>43</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D158" t="s">
+        <v>39</v>
+      </c>
+      <c r="E158" t="n">
+        <v>17</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" t="n">
+        <v>25</v>
+      </c>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158" t="n">
+        <v>36</v>
+      </c>
+      <c r="K158" t="s">
+        <v>44</v>
+      </c>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="P158" t="n">
+        <v>42.35</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2081.6</v>
+      </c>
+      <c r="S158" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T158"/>
+      <c r="U158" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>43</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D159" t="s">
+        <v>39</v>
+      </c>
+      <c r="E159" t="n">
+        <v>17</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>57</v>
+      </c>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159" t="s">
+        <v>44</v>
+      </c>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="P159" t="n">
+        <v>40.98</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>63</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2065.2</v>
+      </c>
+      <c r="S159" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T159"/>
+      <c r="U159" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D160" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" t="n">
+        <v>17</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4</v>
+      </c>
+      <c r="G160" t="n">
+        <v>69</v>
+      </c>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160" t="s">
+        <v>44</v>
+      </c>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160" t="n">
+        <v>22</v>
+      </c>
+      <c r="P160" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="R160"/>
+      <c r="S160"/>
+      <c r="T160"/>
+      <c r="U160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D161" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161" t="n">
+        <v>18</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5</v>
+      </c>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161" t="n">
+        <v>39</v>
+      </c>
+      <c r="K161" t="s">
+        <v>44</v>
+      </c>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="P161" t="n">
+        <v>38.95</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>62.03</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2149.6</v>
+      </c>
+      <c r="S161" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T161"/>
+      <c r="U161" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>43</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D162" t="s">
+        <v>40</v>
+      </c>
+      <c r="E162" t="n">
+        <v>18</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2</v>
+      </c>
+      <c r="G162" t="n">
+        <v>34</v>
+      </c>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162" t="n">
+        <v>37</v>
+      </c>
+      <c r="K162" t="s">
+        <v>44</v>
+      </c>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="P162" t="n">
+        <v>38.88</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2044.1</v>
+      </c>
+      <c r="S162" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T162"/>
+      <c r="U162" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>43</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D163" t="s">
+        <v>40</v>
+      </c>
+      <c r="E163" t="n">
+        <v>18</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3</v>
+      </c>
+      <c r="G163" t="n">
+        <v>47</v>
+      </c>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163" t="s">
+        <v>44</v>
+      </c>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="P163" t="n">
+        <v>39.02</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>62.23</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2022.6</v>
+      </c>
+      <c r="S163" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T163"/>
+      <c r="U163" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D164" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164" t="n">
+        <v>18</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4</v>
+      </c>
+      <c r="G164" t="n">
+        <v>71</v>
+      </c>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164" t="s">
+        <v>44</v>
+      </c>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="P164" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>62.89</v>
+      </c>
+      <c r="R164"/>
+      <c r="S164"/>
+      <c r="T164"/>
+      <c r="U164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>43</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D165" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165" t="n">
+        <v>19</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>11</v>
+      </c>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165" t="n">
+        <v>49</v>
+      </c>
+      <c r="K165" t="s">
+        <v>45</v>
+      </c>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="P165" t="n">
+        <v>42.74</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>64.58</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1858.2</v>
+      </c>
+      <c r="S165" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="T165"/>
+      <c r="U165" t="n">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D166" t="s">
+        <v>41</v>
+      </c>
+      <c r="E166" t="n">
+        <v>19</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2</v>
+      </c>
+      <c r="G166" t="n">
+        <v>35</v>
+      </c>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166" t="n">
+        <v>48</v>
+      </c>
+      <c r="K166" t="s">
+        <v>45</v>
+      </c>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
+      <c r="O166" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="P166" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>63.18</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2137.4</v>
+      </c>
+      <c r="S166" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="T166"/>
+      <c r="U166" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>43</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D167" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" t="n">
+        <v>19</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3</v>
+      </c>
+      <c r="G167" t="n">
+        <v>44</v>
+      </c>
+      <c r="H167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167" t="s">
+        <v>45</v>
+      </c>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="O167" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="P167" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>62.84</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2101.6</v>
+      </c>
+      <c r="S167" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="T167"/>
+      <c r="U167" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D168" t="s">
+        <v>41</v>
+      </c>
+      <c r="E168" t="n">
+        <v>19</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4</v>
+      </c>
+      <c r="G168" t="n">
+        <v>74</v>
+      </c>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168" t="s">
+        <v>45</v>
+      </c>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="P168" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>63.43</v>
+      </c>
+      <c r="R168"/>
+      <c r="S168"/>
+      <c r="T168"/>
+      <c r="U168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>43</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D169" t="s">
+        <v>42</v>
+      </c>
+      <c r="E169" t="n">
+        <v>20</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>8</v>
+      </c>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169" t="n">
+        <v>35</v>
+      </c>
+      <c r="K169" t="s">
+        <v>44</v>
+      </c>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="P169" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>65.33</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2061.1</v>
+      </c>
+      <c r="S169" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="T169"/>
+      <c r="U169" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D170" t="s">
+        <v>42</v>
+      </c>
+      <c r="E170" t="n">
+        <v>20</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2</v>
+      </c>
+      <c r="G170" t="n">
+        <v>29</v>
+      </c>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170" t="n">
+        <v>34</v>
+      </c>
+      <c r="K170" t="s">
+        <v>44</v>
+      </c>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="P170" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2453.3</v>
+      </c>
+      <c r="S170" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T170"/>
+      <c r="U170" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>43</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D171" t="s">
+        <v>42</v>
+      </c>
+      <c r="E171" t="n">
+        <v>20</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3</v>
+      </c>
+      <c r="G171" t="n">
+        <v>56</v>
+      </c>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171" t="s">
+        <v>44</v>
+      </c>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="P171" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>65.35</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2122.1</v>
+      </c>
+      <c r="S171" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="T171"/>
+      <c r="U171" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" t="s">
+        <v>43</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D172" t="s">
+        <v>42</v>
+      </c>
+      <c r="E172" t="n">
+        <v>20</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4</v>
+      </c>
+      <c r="G172" t="n">
+        <v>79</v>
+      </c>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172" t="s">
+        <v>44</v>
+      </c>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172" t="n">
         <v>21.27</v>
       </c>
-      <c r="P91" t="n">
+      <c r="P172" t="n">
         <v>43.89</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="Q172" t="n">
         <v>65.16</v>
       </c>
-      <c r="R91"/>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="U91"/>
+      <c r="R172"/>
+      <c r="S172"/>
+      <c r="T172"/>
+      <c r="U172"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exports/yield_files/LP HOLL 5.xlsx
+++ b/exports/yield_files/LP HOLL 5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -86,7 +86,16 @@
     <t xml:space="preserve">N19-1503</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
     <t xml:space="preserve">N19-1506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">N19-1512</t>
@@ -95,7 +104,13 @@
     <t xml:space="preserve">N19-1523</t>
   </si>
   <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
     <t xml:space="preserve">N19-1525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P/M</t>
   </si>
   <si>
     <t xml:space="preserve">N19-1538</t>
@@ -570,17 +585,33 @@
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="n">
+        <v>1842.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U2" t="n">
         <v>56.8</v>
       </c>
@@ -609,17 +640,33 @@
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>28</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="R3" t="n">
+        <v>1560.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U3" t="n">
         <v>56.5</v>
       </c>
@@ -649,15 +696,25 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="R4" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>56.4</v>
@@ -688,14 +745,20 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
+      <c r="R5" t="n">
+        <v>2094.7</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -711,7 +774,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -724,17 +787,33 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="J6" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>28</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>2154.9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U6" t="n">
         <v>56.6</v>
       </c>
@@ -750,7 +829,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -763,17 +842,33 @@
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
+      <c r="J7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>33</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="R7" t="n">
+        <v>2317.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U7" t="n">
         <v>56.1</v>
       </c>
@@ -789,7 +884,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -803,15 +898,25 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>26</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="R8" t="n">
+        <v>1774.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15.1</v>
+      </c>
       <c r="T8"/>
       <c r="U8" t="n">
         <v>56.1</v>
@@ -828,7 +933,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -842,14 +947,20 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
+      <c r="R9" t="n">
+        <v>2235.1</v>
+      </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="n">
@@ -867,7 +978,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -880,17 +991,33 @@
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+      <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>32</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+      <c r="R10" t="n">
+        <v>2073.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
       <c r="U10" t="n">
         <v>56</v>
       </c>
@@ -906,7 +1033,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -919,17 +1046,33 @@
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>34</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="R11" t="n">
+        <v>2394.9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
       <c r="U11" t="n">
         <v>55.6</v>
       </c>
@@ -945,7 +1088,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -959,15 +1102,25 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>32</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
+      <c r="R12" t="n">
+        <v>2466.2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13.1</v>
+      </c>
       <c r="T12"/>
       <c r="U12" t="n">
         <v>56</v>
@@ -984,7 +1137,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -998,14 +1151,20 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
+      <c r="R13" t="n">
+        <v>2255.1</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
@@ -1021,7 +1180,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1034,17 +1193,33 @@
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="J14" t="n">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="n">
+        <v>33</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+      <c r="R14" t="n">
+        <v>2124.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U14" t="n">
         <v>56.3</v>
       </c>
@@ -1060,7 +1235,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1073,17 +1248,33 @@
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" t="n">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="n">
+        <v>31</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+      <c r="R15" t="n">
+        <v>2279.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U15" t="n">
         <v>55.1</v>
       </c>
@@ -1099,7 +1290,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1113,15 +1304,25 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="n">
+        <v>31</v>
+      </c>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
+      <c r="R16" t="n">
+        <v>2471</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T16"/>
       <c r="U16" t="n">
         <v>54.8</v>
@@ -1138,7 +1339,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1152,14 +1353,20 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
+      <c r="R17" t="n">
+        <v>2641.6</v>
+      </c>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -1175,7 +1382,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1187,18 +1394,36 @@
         <v>12</v>
       </c>
       <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="n">
+        <v>25</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="R18" t="n">
+        <v>1888</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U18" t="n">
         <v>54.9</v>
       </c>
@@ -1214,7 +1439,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1227,17 +1452,33 @@
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="J19" t="n">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="n">
+        <v>27</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+      <c r="R19" t="n">
+        <v>1769.2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U19" t="n">
         <v>53.9</v>
       </c>
@@ -1253,7 +1494,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1265,17 +1506,29 @@
         <v>42</v>
       </c>
       <c r="H20"/>
-      <c r="I20"/>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
       <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="n">
+        <v>24</v>
+      </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
+      <c r="R20" t="n">
+        <v>1536.3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13.4</v>
+      </c>
       <c r="T20"/>
       <c r="U20" t="n">
         <v>54.1</v>
@@ -1292,7 +1545,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1304,16 +1557,24 @@
         <v>71</v>
       </c>
       <c r="H21"/>
-      <c r="I21"/>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
       <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
+      <c r="R21" t="n">
+        <v>2418.4</v>
+      </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
@@ -1329,7 +1590,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -1342,17 +1603,33 @@
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+      <c r="J22" t="n">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="n">
+        <v>23</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="R22" t="n">
+        <v>1899.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U22" t="n">
         <v>53.3</v>
       </c>
@@ -1368,7 +1645,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -1381,17 +1658,33 @@
       </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
+      <c r="J23" t="n">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="n">
+        <v>17</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="R23" t="n">
+        <v>1259.6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U23" t="n">
         <v>53.8</v>
       </c>
@@ -1407,7 +1700,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -1421,15 +1714,25 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="n">
+        <v>24</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="R24" t="n">
+        <v>2200.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>13.2</v>
+      </c>
       <c r="T24"/>
       <c r="U24" t="n">
         <v>54.2</v>
@@ -1446,7 +1749,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -1460,14 +1763,20 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
+      <c r="R25" t="n">
+        <v>2345.6</v>
+      </c>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
@@ -1483,7 +1792,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -1496,17 +1805,33 @@
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="n">
+        <v>23</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
+      <c r="R26" t="n">
+        <v>2216.7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U26" t="n">
         <v>54</v>
       </c>
@@ -1522,7 +1847,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -1535,17 +1860,33 @@
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="J27" t="n">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" t="n">
+        <v>18</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
+      <c r="R27" t="n">
+        <v>1678.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U27" t="n">
         <v>53.6</v>
       </c>
@@ -1561,7 +1902,7 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1575,15 +1916,25 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="n">
+        <v>18</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="R28" t="n">
+        <v>1672.1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>13.8</v>
+      </c>
       <c r="T28"/>
       <c r="U28" t="n">
         <v>54.1</v>
@@ -1600,7 +1951,7 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -1614,14 +1965,20 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
+      <c r="R29" t="n">
+        <v>2528.7</v>
+      </c>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -1637,7 +1994,7 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -1650,17 +2007,33 @@
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="J30" t="n">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>29</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
+      <c r="R30" t="n">
+        <v>1916.1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U30" t="n">
         <v>56.2</v>
       </c>
@@ -1676,7 +2049,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -1689,17 +2062,33 @@
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="J31" t="n">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>28</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
+      <c r="R31" t="n">
+        <v>1745.3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U31" t="n">
         <v>56.1</v>
       </c>
@@ -1715,7 +2104,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -1729,15 +2118,25 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>28</v>
+      </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="R32" t="n">
+        <v>2358.3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>18.3</v>
+      </c>
       <c r="T32"/>
       <c r="U32" t="n">
         <v>55.7</v>
@@ -1754,7 +2153,7 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -1768,14 +2167,20 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
+      <c r="R33" t="n">
+        <v>1927.2</v>
+      </c>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
@@ -1791,7 +2196,7 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -1804,17 +2209,33 @@
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="J34" t="n">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" t="n">
+        <v>30</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
+      <c r="R34" t="n">
+        <v>2109.7</v>
+      </c>
+      <c r="S34" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U34" t="n">
         <v>56.5</v>
       </c>
@@ -1830,7 +2251,7 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -1843,17 +2264,33 @@
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
+      <c r="J35" t="n">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" t="n">
+        <v>29</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="R35" t="n">
+        <v>2219.5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U35" t="n">
         <v>56.2</v>
       </c>
@@ -1869,7 +2306,7 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -1883,15 +2320,25 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" t="n">
+        <v>25</v>
+      </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="R36" t="n">
+        <v>1699.5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>12.8</v>
+      </c>
       <c r="T36"/>
       <c r="U36" t="n">
         <v>54.7</v>
@@ -1908,7 +2355,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -1922,14 +2369,20 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="n">
+        <v>1399.3</v>
+      </c>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
@@ -1945,7 +2398,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1958,17 +2411,33 @@
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
+      <c r="J38" t="n">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>31</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
+      <c r="R38" t="n">
+        <v>2206.4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U38" t="n">
         <v>55.7</v>
       </c>
@@ -1984,7 +2453,7 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -1997,17 +2466,33 @@
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+      <c r="J39" t="n">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>32</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
+      <c r="R39" t="n">
+        <v>2487.3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U39" t="n">
         <v>56.2</v>
       </c>
@@ -2023,7 +2508,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -2037,15 +2522,25 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>33</v>
+      </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="R40" t="n">
+        <v>2583.2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>16.2</v>
+      </c>
       <c r="T40"/>
       <c r="U40" t="n">
         <v>55.5</v>
@@ -2062,7 +2557,7 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -2076,14 +2571,20 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
+      <c r="R41" t="n">
+        <v>2176.9</v>
+      </c>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41"/>
@@ -2099,7 +2600,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -2112,17 +2613,33 @@
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="J42" t="n">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>27</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
+      <c r="R42" t="n">
+        <v>2192.9</v>
+      </c>
+      <c r="S42" t="n">
+        <v>16</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U42" t="n">
         <v>56</v>
       </c>
@@ -2138,7 +2655,7 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -2151,17 +2668,33 @@
       </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="J43" t="n">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>30</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
+      <c r="R43" t="n">
+        <v>2648.7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U43" t="n">
         <v>56</v>
       </c>
@@ -2177,7 +2710,7 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -2191,15 +2724,25 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>28</v>
+      </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
+      <c r="R44" t="n">
+        <v>2288.1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T44"/>
       <c r="U44" t="n">
         <v>55.9</v>
@@ -2216,7 +2759,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2230,14 +2773,20 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
+      <c r="R45" t="n">
+        <v>2671.5</v>
+      </c>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="n">
@@ -2255,7 +2804,7 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E46" t="n">
         <v>12</v>
@@ -2268,17 +2817,33 @@
       </c>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
+      <c r="J46" t="n">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="n">
+        <v>33</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
+      <c r="R46" t="n">
+        <v>2518.3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U46" t="n">
         <v>56.4</v>
       </c>
@@ -2294,7 +2859,7 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
@@ -2307,17 +2872,33 @@
       </c>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
+      <c r="J47" t="n">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" t="n">
+        <v>33</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
+      <c r="R47" t="n">
+        <v>2421.2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U47" t="n">
         <v>56.5</v>
       </c>
@@ -2333,7 +2914,7 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E48" t="n">
         <v>12</v>
@@ -2347,15 +2928,25 @@
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>32</v>
+      </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
+      <c r="R48" t="n">
+        <v>2644.8</v>
+      </c>
+      <c r="S48" t="n">
+        <v>15.3</v>
+      </c>
       <c r="T48"/>
       <c r="U48" t="n">
         <v>56.7</v>
@@ -2372,7 +2963,7 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
@@ -2386,14 +2977,20 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>25</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
+      <c r="R49" t="n">
+        <v>2573.1</v>
+      </c>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49"/>
@@ -2409,7 +3006,7 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -2422,17 +3019,33 @@
       </c>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
+      <c r="J50" t="n">
+        <v>18</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>29</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
+      <c r="R50" t="n">
+        <v>2392.7</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U50" t="n">
         <v>56</v>
       </c>
@@ -2448,7 +3061,7 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -2461,17 +3074,33 @@
       </c>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
+      <c r="J51" t="n">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" t="n">
+        <v>31</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
+      <c r="R51" t="n">
+        <v>2478.3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U51" t="n">
         <v>56.6</v>
       </c>
@@ -2487,7 +3116,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -2501,15 +3130,25 @@
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" t="n">
+        <v>24</v>
+      </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
+      <c r="R52" t="n">
+        <v>2019.4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14</v>
+      </c>
       <c r="T52"/>
       <c r="U52" t="n">
         <v>56</v>
@@ -2526,7 +3165,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -2540,14 +3179,20 @@
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>25</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
+      <c r="R53" t="n">
+        <v>2567.5</v>
+      </c>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53"/>
@@ -2563,7 +3208,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E54" t="n">
         <v>14</v>
@@ -2576,17 +3221,33 @@
       </c>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
+      <c r="J54" t="n">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" t="n">
+        <v>33</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
+      <c r="R54" t="n">
+        <v>2566.3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U54" t="n">
         <v>55.8</v>
       </c>
@@ -2602,7 +3263,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -2615,17 +3276,33 @@
       </c>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
+      <c r="J55" t="n">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" t="n">
+        <v>32</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
+      <c r="R55" t="n">
+        <v>2422.4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U55" t="n">
         <v>56.7</v>
       </c>
@@ -2641,7 +3318,7 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E56" t="n">
         <v>14</v>
@@ -2655,15 +3332,25 @@
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
+      <c r="K56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="n">
+        <v>34</v>
+      </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
+      <c r="R56" t="n">
+        <v>2404.5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>16.7</v>
+      </c>
       <c r="T56"/>
       <c r="U56" t="n">
         <v>56.5</v>
@@ -2680,7 +3367,7 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E57" t="n">
         <v>14</v>
@@ -2694,14 +3381,20 @@
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="K57" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
+      <c r="R57" t="n">
+        <v>2750</v>
+      </c>
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57"/>
@@ -2717,7 +3410,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E58" t="n">
         <v>15</v>
@@ -2730,17 +3423,33 @@
       </c>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
+      <c r="J58" t="n">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" t="n">
+        <v>31</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
+      <c r="R58" t="n">
+        <v>2413.3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>15</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U58" t="n">
         <v>56.6</v>
       </c>
@@ -2756,7 +3465,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
@@ -2769,17 +3478,33 @@
       </c>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
+      <c r="J59" t="n">
+        <v>23</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="n">
+        <v>30</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
+      <c r="R59" t="n">
+        <v>2377.4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U59" t="n">
         <v>56.6</v>
       </c>
@@ -2795,7 +3520,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
@@ -2809,15 +3534,25 @@
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="n">
+        <v>30</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
+      <c r="R60" t="n">
+        <v>2747.2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>15.9</v>
+      </c>
       <c r="T60"/>
       <c r="U60" t="n">
         <v>56.5</v>
@@ -2834,7 +3569,7 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E61" t="n">
         <v>15</v>
@@ -2848,14 +3583,20 @@
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
+      <c r="R61" t="n">
+        <v>2995.3</v>
+      </c>
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61"/>
@@ -2871,7 +3612,7 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -2884,17 +3625,33 @@
       </c>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
+      <c r="J62" t="n">
+        <v>17</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" t="n">
+        <v>32</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
+      <c r="R62" t="n">
+        <v>2470.8</v>
+      </c>
+      <c r="S62" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U62" t="n">
         <v>55.8</v>
       </c>
@@ -2910,7 +3667,7 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -2923,17 +3680,33 @@
       </c>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
+      <c r="J63" t="n">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" t="n">
+        <v>32</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
+      <c r="R63" t="n">
+        <v>2642</v>
+      </c>
+      <c r="S63" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U63" t="n">
         <v>56.5</v>
       </c>
@@ -2949,7 +3722,7 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -2963,15 +3736,25 @@
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="K64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" t="n">
+        <v>32</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
+      <c r="R64" t="n">
+        <v>2732.8</v>
+      </c>
+      <c r="S64" t="n">
+        <v>15.6</v>
+      </c>
       <c r="T64"/>
       <c r="U64" t="n">
         <v>56</v>
@@ -2988,7 +3771,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -3002,14 +3785,20 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
+      <c r="K65" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" t="s">
+        <v>25</v>
+      </c>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
+      <c r="R65" t="n">
+        <v>2396.5</v>
+      </c>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65"/>
@@ -3025,7 +3814,7 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
@@ -3038,17 +3827,33 @@
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
+      <c r="J66" t="n">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" t="n">
+        <v>27</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
+      <c r="R66" t="n">
+        <v>1636.5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U66" t="n">
         <v>54</v>
       </c>
@@ -3064,7 +3869,7 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E67" t="n">
         <v>17</v>
@@ -3077,17 +3882,33 @@
       </c>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
+      <c r="J67" t="n">
+        <v>15</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" t="n">
+        <v>30</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
+      <c r="R67" t="n">
+        <v>1921.9</v>
+      </c>
+      <c r="S67" t="n">
+        <v>15</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U67" t="n">
         <v>53.7</v>
       </c>
@@ -3103,7 +3924,7 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
@@ -3116,17 +3937,33 @@
       </c>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
+      <c r="J68" t="n">
+        <v>15</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>30</v>
+      </c>
+      <c r="M68" t="n">
+        <v>30</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
+      <c r="R68" t="n">
+        <v>1921.9</v>
+      </c>
+      <c r="S68" t="n">
+        <v>15</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U68" t="n">
         <v>54</v>
       </c>
@@ -3142,7 +3979,7 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E69" t="n">
         <v>17</v>
@@ -3156,15 +3993,25 @@
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" t="n">
+        <v>29</v>
+      </c>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
+      <c r="R69" t="n">
+        <v>1843.7</v>
+      </c>
+      <c r="S69" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T69"/>
       <c r="U69" t="n">
         <v>53.8</v>
@@ -3181,7 +4028,7 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E70" t="n">
         <v>17</v>
@@ -3195,14 +4042,20 @@
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s">
+        <v>30</v>
+      </c>
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70"/>
+      <c r="R70" t="n">
+        <v>2039.8</v>
+      </c>
       <c r="S70"/>
       <c r="T70"/>
       <c r="U70"/>
@@ -3218,7 +4071,7 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E71" t="n">
         <v>18</v>
@@ -3231,17 +4084,33 @@
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
+      <c r="J71" t="n">
+        <v>16</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" t="n">
+        <v>29</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
+      <c r="R71" t="n">
+        <v>2097.9</v>
+      </c>
+      <c r="S71" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U71" t="n">
         <v>56.5</v>
       </c>
@@ -3257,7 +4126,7 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
@@ -3270,17 +4139,33 @@
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
+      <c r="J72" t="n">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" t="n">
+        <v>28</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
+      <c r="R72" t="n">
+        <v>1753.9</v>
+      </c>
+      <c r="S72" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U72" t="n">
         <v>56.1</v>
       </c>
@@ -3296,7 +4181,7 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E73" t="n">
         <v>18</v>
@@ -3310,15 +4195,25 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>30</v>
+      </c>
+      <c r="M73" t="n">
+        <v>24</v>
+      </c>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
+      <c r="R73" t="n">
+        <v>2292.6</v>
+      </c>
+      <c r="S73" t="n">
+        <v>15.9</v>
+      </c>
       <c r="T73"/>
       <c r="U73" t="n">
         <v>56.4</v>
@@ -3335,7 +4230,7 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E74" t="n">
         <v>18</v>
@@ -3349,14 +4244,20 @@
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" t="s">
+        <v>30</v>
+      </c>
       <c r="M74"/>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74"/>
+      <c r="R74" t="n">
+        <v>2731.5</v>
+      </c>
       <c r="S74"/>
       <c r="T74"/>
       <c r="U74"/>
@@ -3372,7 +4273,7 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E75" t="n">
         <v>19</v>
@@ -3385,17 +4286,33 @@
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
+      <c r="J75" t="n">
+        <v>17</v>
+      </c>
+      <c r="K75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" t="n">
+        <v>34</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
+      <c r="R75" t="n">
+        <v>1894.7</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U75" t="n">
         <v>55.9</v>
       </c>
@@ -3411,7 +4328,7 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
@@ -3424,17 +4341,33 @@
       </c>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
+      <c r="J76" t="n">
+        <v>22</v>
+      </c>
+      <c r="K76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" t="n">
+        <v>38</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
+      <c r="R76" t="n">
+        <v>2337.6</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U76" t="n">
         <v>55.8</v>
       </c>
@@ -3450,7 +4383,7 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E77" t="n">
         <v>19</v>
@@ -3464,15 +4397,25 @@
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
+      <c r="K77" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" t="n">
+        <v>30</v>
+      </c>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
+      <c r="R77" t="n">
+        <v>2105.4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>11.6</v>
+      </c>
       <c r="T77"/>
       <c r="U77" t="n">
         <v>56.2</v>
@@ -3489,7 +4432,7 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E78" t="n">
         <v>19</v>
@@ -3503,14 +4446,20 @@
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
+      <c r="K78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" t="s">
+        <v>30</v>
+      </c>
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78"/>
+      <c r="R78" t="n">
+        <v>2572.7</v>
+      </c>
       <c r="S78"/>
       <c r="T78"/>
       <c r="U78"/>
@@ -3526,7 +4475,7 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E79" t="n">
         <v>20</v>
@@ -3539,17 +4488,33 @@
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
+      <c r="J79" t="n">
+        <v>13</v>
+      </c>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" t="n">
+        <v>28</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
+      <c r="R79" t="n">
+        <v>2255.7</v>
+      </c>
+      <c r="S79" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U79" t="n">
         <v>54.6</v>
       </c>
@@ -3565,7 +4530,7 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
@@ -3578,17 +4543,33 @@
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
+      <c r="J80" t="n">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" t="n">
+        <v>26</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
+      <c r="R80" t="n">
+        <v>2171.6</v>
+      </c>
+      <c r="S80" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U80" t="n">
         <v>54.7</v>
       </c>
@@ -3604,7 +4585,7 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
@@ -3618,15 +4599,25 @@
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" t="n">
+        <v>28</v>
+      </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
+      <c r="R81" t="n">
+        <v>2421.1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>14</v>
+      </c>
       <c r="T81"/>
       <c r="U81" t="n">
         <v>54.9</v>
@@ -3643,7 +4634,7 @@
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E82" t="n">
         <v>20</v>
@@ -3657,14 +4648,20 @@
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
+      <c r="K82" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" t="s">
+        <v>30</v>
+      </c>
       <c r="M82"/>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82"/>
+      <c r="R82" t="n">
+        <v>2615.1</v>
+      </c>
       <c r="S82"/>
       <c r="T82"/>
       <c r="U82"/>
@@ -3674,7 +4671,7 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C83" t="n">
         <v>2021</v>
@@ -3694,10 +4691,10 @@
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -3727,7 +4724,7 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C84" t="n">
         <v>2021</v>
@@ -3747,10 +4744,10 @@
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -3780,7 +4777,7 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C85" t="n">
         <v>2021</v>
@@ -3800,10 +4797,10 @@
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -3833,7 +4830,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C86" t="n">
         <v>2021</v>
@@ -3853,10 +4850,10 @@
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
@@ -3886,7 +4883,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C87" t="n">
         <v>2021</v>
@@ -3906,10 +4903,10 @@
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
@@ -3939,7 +4936,7 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C88" t="n">
         <v>2021</v>
@@ -3959,10 +4956,10 @@
       <c r="H88"/>
       <c r="I88"/>
       <c r="J88" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -3992,7 +4989,7 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C89" t="n">
         <v>2021</v>
@@ -4012,10 +5009,10 @@
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -4045,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" t="n">
         <v>2021</v>
@@ -4065,10 +5062,10 @@
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -4098,7 +5095,7 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C91" t="n">
         <v>2021</v>
@@ -4119,7 +5116,7 @@
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -4149,7 +5146,7 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C92" t="n">
         <v>2021</v>
@@ -4170,7 +5167,7 @@
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -4200,7 +5197,7 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C93" t="n">
         <v>2021</v>
@@ -4221,7 +5218,7 @@
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -4245,13 +5242,13 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C94" t="n">
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -4265,10 +5262,10 @@
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K94" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -4298,13 +5295,13 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C95" t="n">
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E95" t="n">
         <v>2</v>
@@ -4318,10 +5315,10 @@
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K95" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -4351,13 +5348,13 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C96" t="n">
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -4371,10 +5368,10 @@
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K96" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -4404,13 +5401,13 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C97" t="n">
         <v>2021</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -4424,10 +5421,10 @@
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K97" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -4457,13 +5454,13 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C98" t="n">
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -4477,10 +5474,10 @@
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K98" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -4510,13 +5507,13 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C99" t="n">
         <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
@@ -4531,7 +5528,7 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -4561,13 +5558,13 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C100" t="n">
         <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -4582,7 +5579,7 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -4606,13 +5603,13 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C101" t="n">
         <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
@@ -4626,10 +5623,10 @@
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K101" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -4657,13 +5654,13 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C102" t="n">
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E102" t="n">
         <v>3</v>
@@ -4677,10 +5674,10 @@
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K102" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -4708,13 +5705,13 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C103" t="n">
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
@@ -4729,7 +5726,7 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -4757,13 +5754,13 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C104" t="n">
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -4778,7 +5775,7 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -4802,13 +5799,13 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C105" t="n">
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -4822,10 +5819,10 @@
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K105" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
@@ -4855,13 +5852,13 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C106" t="n">
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -4875,10 +5872,10 @@
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K106" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
@@ -4908,13 +5905,13 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C107" t="n">
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -4929,7 +5926,7 @@
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
@@ -4959,13 +5956,13 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C108" t="n">
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -4980,7 +5977,7 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -5004,13 +6001,13 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C109" t="n">
         <v>2021</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -5024,10 +6021,10 @@
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K109" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
@@ -5057,13 +6054,13 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C110" t="n">
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -5077,10 +6074,10 @@
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K110" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
@@ -5110,13 +6107,13 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C111" t="n">
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -5131,7 +6128,7 @@
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -5161,13 +6158,13 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C112" t="n">
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -5182,7 +6179,7 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
@@ -5206,13 +6203,13 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C113" t="n">
         <v>2021</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E113" t="n">
         <v>6</v>
@@ -5226,10 +6223,10 @@
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K113" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
@@ -5259,13 +6256,13 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C114" t="n">
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E114" t="n">
         <v>6</v>
@@ -5279,10 +6276,10 @@
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K114" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
@@ -5312,13 +6309,13 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C115" t="n">
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E115" t="n">
         <v>6</v>
@@ -5333,7 +6330,7 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L115"/>
       <c r="M115"/>
@@ -5363,13 +6360,13 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C116" t="n">
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E116" t="n">
         <v>6</v>
@@ -5384,7 +6381,7 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L116"/>
       <c r="M116"/>
@@ -5408,13 +6405,13 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
         <v>2021</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -5428,10 +6425,10 @@
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K117" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L117"/>
       <c r="M117"/>
@@ -5461,13 +6458,13 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C118" t="n">
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -5481,10 +6478,10 @@
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K118" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L118"/>
       <c r="M118"/>
@@ -5514,13 +6511,13 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C119" t="n">
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -5535,7 +6532,7 @@
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L119"/>
       <c r="M119"/>
@@ -5565,13 +6562,13 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C120" t="n">
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -5586,7 +6583,7 @@
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L120"/>
       <c r="M120"/>
@@ -5610,13 +6607,13 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C121" t="n">
         <v>2021</v>
       </c>
       <c r="D121" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -5630,10 +6627,10 @@
       <c r="H121"/>
       <c r="I121"/>
       <c r="J121" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K121" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L121"/>
       <c r="M121"/>
@@ -5663,13 +6660,13 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C122" t="n">
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -5683,10 +6680,10 @@
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K122" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L122"/>
       <c r="M122"/>
@@ -5716,13 +6713,13 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C123" t="n">
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -5737,7 +6734,7 @@
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L123"/>
       <c r="M123"/>
@@ -5767,13 +6764,13 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C124" t="n">
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -5788,7 +6785,7 @@
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L124"/>
       <c r="M124"/>
@@ -5812,13 +6809,13 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C125" t="n">
         <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -5832,10 +6829,10 @@
       <c r="H125"/>
       <c r="I125"/>
       <c r="J125" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K125" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L125"/>
       <c r="M125"/>
@@ -5865,13 +6862,13 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C126" t="n">
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -5885,10 +6882,10 @@
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K126" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L126"/>
       <c r="M126"/>
@@ -5918,13 +6915,13 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C127" t="n">
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -5939,7 +6936,7 @@
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L127"/>
       <c r="M127"/>
@@ -5969,13 +6966,13 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C128" t="n">
         <v>2021</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -5990,7 +6987,7 @@
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L128"/>
       <c r="M128"/>
@@ -6014,13 +7011,13 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C129" t="n">
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -6034,10 +7031,10 @@
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K129" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L129"/>
       <c r="M129"/>
@@ -6067,13 +7064,13 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C130" t="n">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -6087,10 +7084,10 @@
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K130" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L130"/>
       <c r="M130"/>
@@ -6120,13 +7117,13 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C131" t="n">
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -6141,7 +7138,7 @@
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L131"/>
       <c r="M131"/>
@@ -6171,13 +7168,13 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C132" t="n">
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -6192,7 +7189,7 @@
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L132"/>
       <c r="M132"/>
@@ -6216,13 +7213,13 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C133" t="n">
         <v>2021</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E133" t="n">
         <v>11</v>
@@ -6236,10 +7233,10 @@
       <c r="H133"/>
       <c r="I133"/>
       <c r="J133" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K133" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L133"/>
       <c r="M133"/>
@@ -6269,13 +7266,13 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C134" t="n">
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E134" t="n">
         <v>11</v>
@@ -6289,10 +7286,10 @@
       <c r="H134"/>
       <c r="I134"/>
       <c r="J134" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K134" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L134"/>
       <c r="M134"/>
@@ -6322,13 +7319,13 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C135" t="n">
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E135" t="n">
         <v>11</v>
@@ -6343,7 +7340,7 @@
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L135"/>
       <c r="M135"/>
@@ -6373,13 +7370,13 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C136" t="n">
         <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E136" t="n">
         <v>11</v>
@@ -6394,7 +7391,7 @@
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L136"/>
       <c r="M136"/>
@@ -6418,13 +7415,13 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C137" t="n">
         <v>2021</v>
       </c>
       <c r="D137" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E137" t="n">
         <v>12</v>
@@ -6438,10 +7435,10 @@
       <c r="H137"/>
       <c r="I137"/>
       <c r="J137" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K137" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L137"/>
       <c r="M137"/>
@@ -6471,13 +7468,13 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C138" t="n">
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E138" t="n">
         <v>12</v>
@@ -6491,10 +7488,10 @@
       <c r="H138"/>
       <c r="I138"/>
       <c r="J138" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K138" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L138"/>
       <c r="M138"/>
@@ -6524,13 +7521,13 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C139" t="n">
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E139" t="n">
         <v>12</v>
@@ -6545,7 +7542,7 @@
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L139"/>
       <c r="M139"/>
@@ -6575,13 +7572,13 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C140" t="n">
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E140" t="n">
         <v>12</v>
@@ -6596,7 +7593,7 @@
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L140"/>
       <c r="M140"/>
@@ -6620,13 +7617,13 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C141" t="n">
         <v>2021</v>
       </c>
       <c r="D141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -6640,10 +7637,10 @@
       <c r="H141"/>
       <c r="I141"/>
       <c r="J141" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K141" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L141"/>
       <c r="M141"/>
@@ -6673,13 +7670,13 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C142" t="n">
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -6693,10 +7690,10 @@
       <c r="H142"/>
       <c r="I142"/>
       <c r="J142" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K142" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L142"/>
       <c r="M142"/>
@@ -6726,13 +7723,13 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C143" t="n">
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -6747,7 +7744,7 @@
       <c r="I143"/>
       <c r="J143"/>
       <c r="K143" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L143"/>
       <c r="M143"/>
@@ -6777,13 +7774,13 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C144" t="n">
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -6798,7 +7795,7 @@
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L144"/>
       <c r="M144"/>
@@ -6822,13 +7819,13 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C145" t="n">
         <v>2021</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E145" t="n">
         <v>14</v>
@@ -6842,10 +7839,10 @@
       <c r="H145"/>
       <c r="I145"/>
       <c r="J145" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K145" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L145"/>
       <c r="M145"/>
@@ -6875,13 +7872,13 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C146" t="n">
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E146" t="n">
         <v>14</v>
@@ -6895,10 +7892,10 @@
       <c r="H146"/>
       <c r="I146"/>
       <c r="J146" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L146"/>
       <c r="M146"/>
@@ -6928,13 +7925,13 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C147" t="n">
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E147" t="n">
         <v>14</v>
@@ -6949,7 +7946,7 @@
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L147"/>
       <c r="M147"/>
@@ -6979,13 +7976,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C148" t="n">
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E148" t="n">
         <v>14</v>
@@ -7000,7 +7997,7 @@
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L148"/>
       <c r="M148"/>
@@ -7024,13 +8021,13 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C149" t="n">
         <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E149" t="n">
         <v>15</v>
@@ -7044,10 +8041,10 @@
       <c r="H149"/>
       <c r="I149"/>
       <c r="J149" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K149" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L149"/>
       <c r="M149"/>
@@ -7077,13 +8074,13 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C150" t="n">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E150" t="n">
         <v>15</v>
@@ -7097,10 +8094,10 @@
       <c r="H150"/>
       <c r="I150"/>
       <c r="J150" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K150" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L150"/>
       <c r="M150"/>
@@ -7130,13 +8127,13 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C151" t="n">
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E151" t="n">
         <v>15</v>
@@ -7151,7 +8148,7 @@
       <c r="I151"/>
       <c r="J151"/>
       <c r="K151" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L151"/>
       <c r="M151"/>
@@ -7181,13 +8178,13 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C152" t="n">
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E152" t="n">
         <v>15</v>
@@ -7202,7 +8199,7 @@
       <c r="I152"/>
       <c r="J152"/>
       <c r="K152" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L152"/>
       <c r="M152"/>
@@ -7226,13 +8223,13 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D153" t="s">
         <v>43</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D153" t="s">
-        <v>38</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -7246,10 +8243,10 @@
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K153" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L153"/>
       <c r="M153"/>
@@ -7279,13 +8276,13 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D154" t="s">
         <v>43</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D154" t="s">
-        <v>38</v>
       </c>
       <c r="E154" t="n">
         <v>16</v>
@@ -7299,10 +8296,10 @@
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K154" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L154"/>
       <c r="M154"/>
@@ -7332,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D155" t="s">
         <v>43</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D155" t="s">
-        <v>38</v>
       </c>
       <c r="E155" t="n">
         <v>16</v>
@@ -7353,7 +8350,7 @@
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L155"/>
       <c r="M155"/>
@@ -7383,13 +8380,13 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D156" t="s">
         <v>43</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D156" t="s">
-        <v>38</v>
       </c>
       <c r="E156" t="n">
         <v>16</v>
@@ -7404,7 +8401,7 @@
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L156"/>
       <c r="M156"/>
@@ -7428,13 +8425,13 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C157" t="n">
         <v>2021</v>
       </c>
       <c r="D157" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E157" t="n">
         <v>17</v>
@@ -7448,10 +8445,10 @@
       <c r="H157"/>
       <c r="I157"/>
       <c r="J157" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K157" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L157"/>
       <c r="M157"/>
@@ -7481,13 +8478,13 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C158" t="n">
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E158" t="n">
         <v>17</v>
@@ -7501,10 +8498,10 @@
       <c r="H158"/>
       <c r="I158"/>
       <c r="J158" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K158" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L158"/>
       <c r="M158"/>
@@ -7534,13 +8531,13 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C159" t="n">
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E159" t="n">
         <v>17</v>
@@ -7555,7 +8552,7 @@
       <c r="I159"/>
       <c r="J159"/>
       <c r="K159" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L159"/>
       <c r="M159"/>
@@ -7585,13 +8582,13 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C160" t="n">
         <v>2021</v>
       </c>
       <c r="D160" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E160" t="n">
         <v>17</v>
@@ -7606,7 +8603,7 @@
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L160"/>
       <c r="M160"/>
@@ -7630,13 +8627,13 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C161" t="n">
         <v>2021</v>
       </c>
       <c r="D161" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E161" t="n">
         <v>18</v>
@@ -7650,10 +8647,10 @@
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K161" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L161"/>
       <c r="M161"/>
@@ -7683,13 +8680,13 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C162" t="n">
         <v>2021</v>
       </c>
       <c r="D162" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E162" t="n">
         <v>18</v>
@@ -7703,10 +8700,10 @@
       <c r="H162"/>
       <c r="I162"/>
       <c r="J162" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K162" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L162"/>
       <c r="M162"/>
@@ -7736,13 +8733,13 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C163" t="n">
         <v>2021</v>
       </c>
       <c r="D163" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E163" t="n">
         <v>18</v>
@@ -7757,7 +8754,7 @@
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L163"/>
       <c r="M163"/>
@@ -7787,13 +8784,13 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C164" t="n">
         <v>2021</v>
       </c>
       <c r="D164" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E164" t="n">
         <v>18</v>
@@ -7808,7 +8805,7 @@
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L164"/>
       <c r="M164"/>
@@ -7832,13 +8829,13 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C165" t="n">
         <v>2021</v>
       </c>
       <c r="D165" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E165" t="n">
         <v>19</v>
@@ -7852,10 +8849,10 @@
       <c r="H165"/>
       <c r="I165"/>
       <c r="J165" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K165" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L165"/>
       <c r="M165"/>
@@ -7885,13 +8882,13 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C166" t="n">
         <v>2021</v>
       </c>
       <c r="D166" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E166" t="n">
         <v>19</v>
@@ -7905,10 +8902,10 @@
       <c r="H166"/>
       <c r="I166"/>
       <c r="J166" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K166" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L166"/>
       <c r="M166"/>
@@ -7938,13 +8935,13 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C167" t="n">
         <v>2021</v>
       </c>
       <c r="D167" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E167" t="n">
         <v>19</v>
@@ -7959,7 +8956,7 @@
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L167"/>
       <c r="M167"/>
@@ -7989,13 +8986,13 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C168" t="n">
         <v>2021</v>
       </c>
       <c r="D168" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E168" t="n">
         <v>19</v>
@@ -8010,7 +9007,7 @@
       <c r="I168"/>
       <c r="J168"/>
       <c r="K168" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L168"/>
       <c r="M168"/>
@@ -8034,13 +9031,13 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C169" t="n">
         <v>2021</v>
       </c>
       <c r="D169" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E169" t="n">
         <v>20</v>
@@ -8054,10 +9051,10 @@
       <c r="H169"/>
       <c r="I169"/>
       <c r="J169" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K169" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L169"/>
       <c r="M169"/>
@@ -8087,13 +9084,13 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C170" t="n">
         <v>2021</v>
       </c>
       <c r="D170" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E170" t="n">
         <v>20</v>
@@ -8107,10 +9104,10 @@
       <c r="H170"/>
       <c r="I170"/>
       <c r="J170" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K170" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L170"/>
       <c r="M170"/>
@@ -8140,13 +9137,13 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C171" t="n">
         <v>2021</v>
       </c>
       <c r="D171" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E171" t="n">
         <v>20</v>
@@ -8161,7 +9158,7 @@
       <c r="I171"/>
       <c r="J171"/>
       <c r="K171" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L171"/>
       <c r="M171"/>
@@ -8191,13 +9188,13 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C172" t="n">
         <v>2021</v>
       </c>
       <c r="D172" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E172" t="n">
         <v>20</v>
@@ -8212,7 +9209,7 @@
       <c r="I172"/>
       <c r="J172"/>
       <c r="K172" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L172"/>
       <c r="M172"/>

--- a/exports/yield_files/LP HOLL 5.xlsx
+++ b/exports/yield_files/LP HOLL 5.xlsx
@@ -600,9 +600,15 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40.79</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>64.47</v>
+      </c>
       <c r="R2" t="n">
         <v>1842.3</v>
       </c>
@@ -655,9 +661,15 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="P3" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>64.97</v>
+      </c>
       <c r="R3" t="n">
         <v>1560.5</v>
       </c>
@@ -706,9 +718,15 @@
         <v>16</v>
       </c>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="O4" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="P4" t="n">
+        <v>40.49</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>65.37</v>
+      </c>
       <c r="R4" t="n">
         <v>997.5</v>
       </c>
@@ -753,9 +771,15 @@
       </c>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
+      <c r="O5" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>65.54</v>
+      </c>
       <c r="R5" t="n">
         <v>2094.7</v>
       </c>
@@ -802,9 +826,15 @@
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>64.6</v>
+      </c>
       <c r="R6" t="n">
         <v>2154.9</v>
       </c>
@@ -857,9 +887,15 @@
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="P7" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>63.87</v>
+      </c>
       <c r="R7" t="n">
         <v>2317.2</v>
       </c>
@@ -908,9 +944,15 @@
         <v>26</v>
       </c>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="O8" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="P8" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>62.62</v>
+      </c>
       <c r="R8" t="n">
         <v>1774.2</v>
       </c>
@@ -955,9 +997,15 @@
       </c>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
+      <c r="O9" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>63.36</v>
+      </c>
       <c r="R9" t="n">
         <v>2235.1</v>
       </c>
@@ -1006,9 +1054,15 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="P10" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>63.38</v>
+      </c>
       <c r="R10" t="n">
         <v>2073.6</v>
       </c>
@@ -1061,9 +1115,15 @@
       <c r="N11" t="n">
         <v>1.5</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="P11" t="n">
+        <v>39.28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>63.63</v>
+      </c>
       <c r="R11" t="n">
         <v>2394.9</v>
       </c>
@@ -1112,9 +1172,15 @@
         <v>32</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="O12" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="P12" t="n">
+        <v>39.28</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>63.19</v>
+      </c>
       <c r="R12" t="n">
         <v>2466.2</v>
       </c>
@@ -1159,9 +1225,15 @@
       </c>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
+      <c r="O13" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="P13" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>62.53</v>
+      </c>
       <c r="R13" t="n">
         <v>2255.1</v>
       </c>
@@ -1208,9 +1280,15 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="P14" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>66.04</v>
+      </c>
       <c r="R14" t="n">
         <v>2124.4</v>
       </c>
@@ -1263,9 +1341,15 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="P15" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>64.25</v>
+      </c>
       <c r="R15" t="n">
         <v>2279.7</v>
       </c>
@@ -1314,9 +1398,15 @@
         <v>31</v>
       </c>
       <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
+      <c r="O16" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="P16" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>64.08</v>
+      </c>
       <c r="R16" t="n">
         <v>2471</v>
       </c>
@@ -1361,9 +1451,15 @@
       </c>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
+      <c r="O17" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="P17" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>63.31</v>
+      </c>
       <c r="R17" t="n">
         <v>2641.6</v>
       </c>
@@ -1412,9 +1508,15 @@
       <c r="N18" t="n">
         <v>1.5</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>60.69</v>
+      </c>
       <c r="R18" t="n">
         <v>1888</v>
       </c>
@@ -1467,9 +1569,15 @@
       <c r="N19" t="n">
         <v>1.5</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="P19" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>61.98</v>
+      </c>
       <c r="R19" t="n">
         <v>1769.2</v>
       </c>
@@ -1520,9 +1628,15 @@
         <v>24</v>
       </c>
       <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
+      <c r="O20" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="P20" t="n">
+        <v>38.21</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>61.08</v>
+      </c>
       <c r="R20" t="n">
         <v>1536.3</v>
       </c>
@@ -1569,9 +1683,15 @@
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
+      <c r="O21" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="P21" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>61.09</v>
+      </c>
       <c r="R21" t="n">
         <v>2418.4</v>
       </c>
@@ -1618,9 +1738,15 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>63.69</v>
+      </c>
       <c r="R22" t="n">
         <v>1899.4</v>
       </c>
@@ -1673,9 +1799,15 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="P23" t="n">
+        <v>38.88</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>62.3</v>
+      </c>
       <c r="R23" t="n">
         <v>1259.6</v>
       </c>
@@ -1724,9 +1856,15 @@
         <v>24</v>
       </c>
       <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="O24" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="P24" t="n">
+        <v>39.18</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>61.96</v>
+      </c>
       <c r="R24" t="n">
         <v>2200.8</v>
       </c>
@@ -1771,9 +1909,15 @@
       </c>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
+      <c r="O25" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="P25" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>62.09</v>
+      </c>
       <c r="R25" t="n">
         <v>2345.6</v>
       </c>
@@ -1820,9 +1964,15 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="P26" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>62.93</v>
+      </c>
       <c r="R26" t="n">
         <v>2216.7</v>
       </c>
@@ -1875,9 +2025,15 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="P27" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>62.19</v>
+      </c>
       <c r="R27" t="n">
         <v>1678.2</v>
       </c>
@@ -1926,9 +2082,15 @@
         <v>18</v>
       </c>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="O28" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="P28" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>62.72</v>
+      </c>
       <c r="R28" t="n">
         <v>1672.1</v>
       </c>
@@ -1973,9 +2135,15 @@
       </c>
       <c r="M29"/>
       <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
+      <c r="O29" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="P29" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>62.2</v>
+      </c>
       <c r="R29" t="n">
         <v>2528.7</v>
       </c>
@@ -2022,9 +2190,15 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="P30" t="n">
+        <v>43.54</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>67.36</v>
+      </c>
       <c r="R30" t="n">
         <v>1916.1</v>
       </c>
@@ -2077,9 +2251,15 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="P31" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>65.58</v>
+      </c>
       <c r="R31" t="n">
         <v>1745.3</v>
       </c>
@@ -2128,9 +2308,15 @@
         <v>28</v>
       </c>
       <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="O32" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="P32" t="n">
+        <v>42.43</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>66.07</v>
+      </c>
       <c r="R32" t="n">
         <v>2358.3</v>
       </c>
@@ -2175,9 +2361,15 @@
       </c>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
+      <c r="O33" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>65.63</v>
+      </c>
       <c r="R33" t="n">
         <v>1927.2</v>
       </c>
@@ -2224,9 +2416,15 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="O34" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="P34" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>64.57</v>
+      </c>
       <c r="R34" t="n">
         <v>2109.7</v>
       </c>
@@ -2279,9 +2477,15 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="P35" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>65.51</v>
+      </c>
       <c r="R35" t="n">
         <v>2219.5</v>
       </c>
@@ -2330,9 +2534,15 @@
         <v>25</v>
       </c>
       <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
+      <c r="O36" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="P36" t="n">
+        <v>40.64</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>63.15</v>
+      </c>
       <c r="R36" t="n">
         <v>1699.5</v>
       </c>
@@ -2377,9 +2587,15 @@
       </c>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
+      <c r="O37" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="P37" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>61.94</v>
+      </c>
       <c r="R37" t="n">
         <v>1399.3</v>
       </c>
@@ -2426,9 +2642,15 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="P38" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>65.35</v>
+      </c>
       <c r="R38" t="n">
         <v>2206.4</v>
       </c>
@@ -2481,9 +2703,15 @@
       <c r="N39" t="n">
         <v>1.5</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="O39" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="P39" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>66.03</v>
+      </c>
       <c r="R39" t="n">
         <v>2487.3</v>
       </c>
@@ -2532,9 +2760,15 @@
         <v>33</v>
       </c>
       <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
+      <c r="O40" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="P40" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>65.23</v>
+      </c>
       <c r="R40" t="n">
         <v>2583.2</v>
       </c>
@@ -2579,9 +2813,15 @@
       </c>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
+      <c r="O41" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="P41" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>64.85</v>
+      </c>
       <c r="R41" t="n">
         <v>2176.9</v>
       </c>
@@ -2628,9 +2868,15 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="P42" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>65.6</v>
+      </c>
       <c r="R42" t="n">
         <v>2192.9</v>
       </c>
@@ -2683,9 +2929,15 @@
       <c r="N43" t="n">
         <v>1.5</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
+      <c r="O43" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>64.73</v>
+      </c>
       <c r="R43" t="n">
         <v>2648.7</v>
       </c>
@@ -2734,9 +2986,15 @@
         <v>28</v>
       </c>
       <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
+      <c r="O44" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>63.61</v>
+      </c>
       <c r="R44" t="n">
         <v>2288.1</v>
       </c>
@@ -2781,9 +3039,15 @@
       </c>
       <c r="M45"/>
       <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
+      <c r="O45" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="P45" t="n">
+        <v>41.95</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>65.24</v>
+      </c>
       <c r="R45" t="n">
         <v>2671.5</v>
       </c>
@@ -2832,9 +3096,15 @@
       <c r="N46" t="n">
         <v>1.5</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="O46" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="P46" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>64.5</v>
+      </c>
       <c r="R46" t="n">
         <v>2518.3</v>
       </c>
@@ -2887,9 +3157,15 @@
       <c r="N47" t="n">
         <v>1.5</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="O47" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="P47" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>63.79</v>
+      </c>
       <c r="R47" t="n">
         <v>2421.2</v>
       </c>
@@ -2938,9 +3214,15 @@
         <v>32</v>
       </c>
       <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
+      <c r="O48" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="P48" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>63.11</v>
+      </c>
       <c r="R48" t="n">
         <v>2644.8</v>
       </c>
@@ -2985,9 +3267,15 @@
       </c>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
+      <c r="O49" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>63.02</v>
+      </c>
       <c r="R49" t="n">
         <v>2573.1</v>
       </c>
@@ -3034,9 +3322,15 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="O50" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>65.03</v>
+      </c>
       <c r="R50" t="n">
         <v>2392.7</v>
       </c>
@@ -3089,9 +3383,15 @@
       <c r="N51" t="n">
         <v>1.5</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
+      <c r="O51" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="P51" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>64.91</v>
+      </c>
       <c r="R51" t="n">
         <v>2478.3</v>
       </c>
@@ -3140,9 +3440,15 @@
         <v>24</v>
       </c>
       <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
+      <c r="O52" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="P52" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>63.47</v>
+      </c>
       <c r="R52" t="n">
         <v>2019.4</v>
       </c>
@@ -3187,9 +3493,15 @@
       </c>
       <c r="M53"/>
       <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
+      <c r="O53" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="P53" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>63.51</v>
+      </c>
       <c r="R53" t="n">
         <v>2567.5</v>
       </c>
@@ -3236,9 +3548,15 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="P54" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>64.19</v>
+      </c>
       <c r="R54" t="n">
         <v>2566.3</v>
       </c>
@@ -3291,9 +3609,15 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
+      <c r="O55" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="P55" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>64.35</v>
+      </c>
       <c r="R55" t="n">
         <v>2422.4</v>
       </c>
@@ -3342,9 +3666,15 @@
         <v>34</v>
       </c>
       <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
+      <c r="O56" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="P56" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>64.21</v>
+      </c>
       <c r="R56" t="n">
         <v>2404.5</v>
       </c>
@@ -3389,9 +3719,15 @@
       </c>
       <c r="M57"/>
       <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
+      <c r="O57" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P57" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>63.69</v>
+      </c>
       <c r="R57" t="n">
         <v>2750</v>
       </c>
@@ -3438,9 +3774,15 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="O58" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>63.66</v>
+      </c>
       <c r="R58" t="n">
         <v>2413.3</v>
       </c>
@@ -3493,9 +3835,15 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="O59" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="P59" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>63.38</v>
+      </c>
       <c r="R59" t="n">
         <v>2377.4</v>
       </c>
@@ -3544,9 +3892,15 @@
         <v>30</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
+      <c r="O60" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="P60" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>62.52</v>
+      </c>
       <c r="R60" t="n">
         <v>2747.2</v>
       </c>
@@ -3591,9 +3945,15 @@
       </c>
       <c r="M61"/>
       <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
+      <c r="O61" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>63.12</v>
+      </c>
       <c r="R61" t="n">
         <v>2995.3</v>
       </c>
@@ -3640,9 +4000,15 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>64.58</v>
+      </c>
       <c r="R62" t="n">
         <v>2470.8</v>
       </c>
@@ -3695,9 +4061,15 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
+      <c r="O63" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="P63" t="n">
+        <v>41.07</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>64.26</v>
+      </c>
       <c r="R63" t="n">
         <v>2642</v>
       </c>
@@ -3746,9 +4118,15 @@
         <v>32</v>
       </c>
       <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
+      <c r="O64" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="P64" t="n">
+        <v>39.59</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>62.6</v>
+      </c>
       <c r="R64" t="n">
         <v>2732.8</v>
       </c>
@@ -3793,9 +4171,15 @@
       </c>
       <c r="M65"/>
       <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
+      <c r="O65" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="P65" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>63.21</v>
+      </c>
       <c r="R65" t="n">
         <v>2396.5</v>
       </c>
@@ -3842,9 +4226,15 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="P66" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>64.08</v>
+      </c>
       <c r="R66" t="n">
         <v>1636.5</v>
       </c>
@@ -3897,9 +4287,15 @@
       <c r="N67" t="n">
         <v>1.5</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
+      <c r="O67" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="P67" t="n">
+        <v>39.55</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>63.12</v>
+      </c>
       <c r="R67" t="n">
         <v>1921.9</v>
       </c>
@@ -3952,9 +4348,15 @@
       <c r="N68" t="n">
         <v>1.5</v>
       </c>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
+      <c r="O68" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="P68" t="n">
+        <v>39.55</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>63.12</v>
+      </c>
       <c r="R68" t="n">
         <v>1921.9</v>
       </c>
@@ -4003,9 +4405,15 @@
         <v>29</v>
       </c>
       <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
+      <c r="O69" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="P69" t="n">
+        <v>39.12</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>61.96</v>
+      </c>
       <c r="R69" t="n">
         <v>1843.7</v>
       </c>
@@ -4050,9 +4458,15 @@
       </c>
       <c r="M70"/>
       <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="O70" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="P70" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>63.16</v>
+      </c>
       <c r="R70" t="n">
         <v>2039.8</v>
       </c>
@@ -4099,9 +4513,15 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="O71" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="P71" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>64.34</v>
+      </c>
       <c r="R71" t="n">
         <v>2097.9</v>
       </c>
@@ -4154,9 +4574,15 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
+      <c r="O72" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="P72" t="n">
+        <v>38.32</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>62.81</v>
+      </c>
       <c r="R72" t="n">
         <v>1753.9</v>
       </c>
@@ -4205,9 +4631,15 @@
         <v>24</v>
       </c>
       <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
+      <c r="O73" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="P73" t="n">
+        <v>38.41</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>62.96</v>
+      </c>
       <c r="R73" t="n">
         <v>2292.6</v>
       </c>
@@ -4252,9 +4684,15 @@
       </c>
       <c r="M74"/>
       <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="P74" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>63.06</v>
+      </c>
       <c r="R74" t="n">
         <v>2731.5</v>
       </c>
@@ -4301,9 +4739,15 @@
       <c r="N75" t="n">
         <v>1.5</v>
       </c>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
+      <c r="O75" t="n">
+        <v>22</v>
+      </c>
+      <c r="P75" t="n">
+        <v>42.52</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>64.52</v>
+      </c>
       <c r="R75" t="n">
         <v>1894.7</v>
       </c>
@@ -4356,9 +4800,15 @@
       <c r="N76" t="n">
         <v>1.5</v>
       </c>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
+      <c r="O76" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="P76" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>63.05</v>
+      </c>
       <c r="R76" t="n">
         <v>2337.6</v>
       </c>
@@ -4407,9 +4857,15 @@
         <v>30</v>
       </c>
       <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
+      <c r="O77" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="P77" t="n">
+        <v>40.49</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>62.67</v>
+      </c>
       <c r="R77" t="n">
         <v>2105.4</v>
       </c>
@@ -4454,9 +4910,15 @@
       </c>
       <c r="M78"/>
       <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="P78" t="n">
+        <v>40.81</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>62.66</v>
+      </c>
       <c r="R78" t="n">
         <v>2572.7</v>
       </c>
@@ -4503,9 +4965,15 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+      <c r="O79" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="P79" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>65.51</v>
+      </c>
       <c r="R79" t="n">
         <v>2255.7</v>
       </c>
@@ -4558,9 +5026,15 @@
       <c r="N80" t="n">
         <v>1</v>
       </c>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
+      <c r="O80" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="P80" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>65.09</v>
+      </c>
       <c r="R80" t="n">
         <v>2171.6</v>
       </c>
@@ -4609,9 +5083,15 @@
         <v>28</v>
       </c>
       <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="O81" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>65.07</v>
+      </c>
       <c r="R81" t="n">
         <v>2421.1</v>
       </c>
@@ -4656,9 +5136,15 @@
       </c>
       <c r="M82"/>
       <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+      <c r="O82" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="P82" t="n">
+        <v>42.73</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>64.84</v>
+      </c>
       <c r="R82" t="n">
         <v>2615.1</v>
       </c>
@@ -4699,15 +5185,9 @@
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
-      <c r="O83" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P83" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>68.02</v>
-      </c>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
       <c r="R83" t="n">
         <v>1495.4</v>
       </c>
@@ -4752,15 +5232,9 @@
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
-      <c r="O84" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P84" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>68.02</v>
-      </c>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
       <c r="R84" t="n">
         <v>1495.4</v>
       </c>
@@ -4805,15 +5279,9 @@
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
-      <c r="O85" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P85" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>68.02</v>
-      </c>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
       <c r="R85" t="n">
         <v>1495.4</v>
       </c>
@@ -4858,15 +5326,9 @@
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86"/>
-      <c r="O86" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P86" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>68.02</v>
-      </c>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
       <c r="R86" t="n">
         <v>1495.4</v>
       </c>
@@ -4911,15 +5373,9 @@
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87"/>
-      <c r="O87" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="P87" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>68.02</v>
-      </c>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
       <c r="R87" t="n">
         <v>1495.4</v>
       </c>
@@ -5232,7 +5688,9 @@
       <c r="Q93" t="n">
         <v>65.6</v>
       </c>
-      <c r="R93"/>
+      <c r="R93" t="n">
+        <v>1439.5</v>
+      </c>
       <c r="S93"/>
       <c r="T93"/>
       <c r="U93"/>
@@ -5593,7 +6051,9 @@
       <c r="Q100" t="n">
         <v>64.29</v>
       </c>
-      <c r="R100"/>
+      <c r="R100" t="n">
+        <v>1954.2</v>
+      </c>
       <c r="S100"/>
       <c r="T100"/>
       <c r="U100"/>
@@ -5647,7 +6107,9 @@
         <v>11.8</v>
       </c>
       <c r="T101"/>
-      <c r="U101"/>
+      <c r="U101" t="n">
+        <v>57.4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -5698,7 +6160,9 @@
         <v>12.7</v>
       </c>
       <c r="T102"/>
-      <c r="U102"/>
+      <c r="U102" t="n">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -5747,7 +6211,9 @@
         <v>13.4</v>
       </c>
       <c r="T103"/>
-      <c r="U103"/>
+      <c r="U103" t="n">
+        <v>55.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -5789,7 +6255,9 @@
       <c r="Q104" t="n">
         <v>63.82</v>
       </c>
-      <c r="R104"/>
+      <c r="R104" t="n">
+        <v>2047.7</v>
+      </c>
       <c r="S104"/>
       <c r="T104"/>
       <c r="U104"/>
@@ -5991,7 +6459,9 @@
       <c r="Q108" t="n">
         <v>63.69</v>
       </c>
-      <c r="R108"/>
+      <c r="R108" t="n">
+        <v>1885.9</v>
+      </c>
       <c r="S108"/>
       <c r="T108"/>
       <c r="U108"/>
@@ -6193,7 +6663,9 @@
       <c r="Q112" t="n">
         <v>62.22</v>
       </c>
-      <c r="R112"/>
+      <c r="R112" t="n">
+        <v>1715.5</v>
+      </c>
       <c r="S112"/>
       <c r="T112"/>
       <c r="U112"/>
@@ -6395,7 +6867,9 @@
       <c r="Q116" t="n">
         <v>62.78</v>
       </c>
-      <c r="R116"/>
+      <c r="R116" t="n">
+        <v>2259.3</v>
+      </c>
       <c r="S116"/>
       <c r="T116"/>
       <c r="U116"/>
@@ -6597,7 +7071,9 @@
       <c r="Q120" t="n">
         <v>62.92</v>
       </c>
-      <c r="R120"/>
+      <c r="R120" t="n">
+        <v>1868.4</v>
+      </c>
       <c r="S120"/>
       <c r="T120"/>
       <c r="U120"/>
@@ -6799,7 +7275,9 @@
       <c r="Q124" t="n">
         <v>64.96</v>
       </c>
-      <c r="R124"/>
+      <c r="R124" t="n">
+        <v>2130</v>
+      </c>
       <c r="S124"/>
       <c r="T124"/>
       <c r="U124"/>
@@ -7001,7 +7479,9 @@
       <c r="Q128" t="n">
         <v>63.81</v>
       </c>
-      <c r="R128"/>
+      <c r="R128" t="n">
+        <v>1965.9</v>
+      </c>
       <c r="S128"/>
       <c r="T128"/>
       <c r="U128"/>
@@ -7203,7 +7683,9 @@
       <c r="Q132" t="n">
         <v>64.98</v>
       </c>
-      <c r="R132"/>
+      <c r="R132" t="n">
+        <v>2009.4</v>
+      </c>
       <c r="S132"/>
       <c r="T132"/>
       <c r="U132"/>
@@ -7405,7 +7887,9 @@
       <c r="Q136" t="n">
         <v>63.53</v>
       </c>
-      <c r="R136"/>
+      <c r="R136" t="n">
+        <v>1966.8</v>
+      </c>
       <c r="S136"/>
       <c r="T136"/>
       <c r="U136"/>
@@ -7607,7 +8091,9 @@
       <c r="Q140" t="n">
         <v>64.26</v>
       </c>
-      <c r="R140"/>
+      <c r="R140" t="n">
+        <v>1947.7</v>
+      </c>
       <c r="S140"/>
       <c r="T140"/>
       <c r="U140"/>
@@ -7809,7 +8295,9 @@
       <c r="Q144" t="n">
         <v>64.47</v>
       </c>
-      <c r="R144"/>
+      <c r="R144" t="n">
+        <v>1862.6</v>
+      </c>
       <c r="S144"/>
       <c r="T144"/>
       <c r="U144"/>
@@ -8011,7 +8499,9 @@
       <c r="Q148" t="n">
         <v>65.03</v>
       </c>
-      <c r="R148"/>
+      <c r="R148" t="n">
+        <v>1760</v>
+      </c>
       <c r="S148"/>
       <c r="T148"/>
       <c r="U148"/>
@@ -8213,7 +8703,9 @@
       <c r="Q152" t="n">
         <v>63.76</v>
       </c>
-      <c r="R152"/>
+      <c r="R152" t="n">
+        <v>1784.3</v>
+      </c>
       <c r="S152"/>
       <c r="T152"/>
       <c r="U152"/>
@@ -8415,7 +8907,9 @@
       <c r="Q156" t="n">
         <v>63.09</v>
       </c>
-      <c r="R156"/>
+      <c r="R156" t="n">
+        <v>2140.7</v>
+      </c>
       <c r="S156"/>
       <c r="T156"/>
       <c r="U156"/>
@@ -8617,7 +9111,9 @@
       <c r="Q160" t="n">
         <v>63.79</v>
       </c>
-      <c r="R160"/>
+      <c r="R160" t="n">
+        <v>1993.6</v>
+      </c>
       <c r="S160"/>
       <c r="T160"/>
       <c r="U160"/>
@@ -8819,7 +9315,9 @@
       <c r="Q164" t="n">
         <v>62.89</v>
       </c>
-      <c r="R164"/>
+      <c r="R164" t="n">
+        <v>2256</v>
+      </c>
       <c r="S164"/>
       <c r="T164"/>
       <c r="U164"/>
@@ -9021,7 +9519,9 @@
       <c r="Q168" t="n">
         <v>63.43</v>
       </c>
-      <c r="R168"/>
+      <c r="R168" t="n">
+        <v>1291.4</v>
+      </c>
       <c r="S168"/>
       <c r="T168"/>
       <c r="U168"/>
@@ -9223,7 +9723,9 @@
       <c r="Q172" t="n">
         <v>65.16</v>
       </c>
-      <c r="R172"/>
+      <c r="R172" t="n">
+        <v>2057.2</v>
+      </c>
       <c r="S172"/>
       <c r="T172"/>
       <c r="U172"/>

--- a/exports/yield_files/LP HOLL 5.xlsx
+++ b/exports/yield_files/LP HOLL 5.xlsx
@@ -4326,16 +4326,14 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68" t="n">
-        <v>15</v>
-      </c>
+      <c r="J68"/>
       <c r="K68" t="s">
         <v>24</v>
       </c>
@@ -4343,31 +4341,27 @@
         <v>30</v>
       </c>
       <c r="M68" t="n">
-        <v>30</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="N68"/>
       <c r="O68" t="n">
-        <v>23.57</v>
+        <v>22.84</v>
       </c>
       <c r="P68" t="n">
-        <v>39.55</v>
+        <v>39.12</v>
       </c>
       <c r="Q68" t="n">
-        <v>63.12</v>
+        <v>61.96</v>
       </c>
       <c r="R68" t="n">
-        <v>1921.9</v>
+        <v>1843.7</v>
       </c>
       <c r="S68" t="n">
-        <v>15</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1.5</v>
-      </c>
+        <v>14.2</v>
+      </c>
+      <c r="T68"/>
       <c r="U68" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="69">
@@ -4387,10 +4381,10 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
@@ -4401,29 +4395,23 @@
       <c r="L69" t="s">
         <v>30</v>
       </c>
-      <c r="M69" t="n">
-        <v>29</v>
-      </c>
+      <c r="M69"/>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>22.84</v>
+        <v>23.25</v>
       </c>
       <c r="P69" t="n">
-        <v>39.12</v>
+        <v>39.91</v>
       </c>
       <c r="Q69" t="n">
-        <v>61.96</v>
+        <v>63.16</v>
       </c>
       <c r="R69" t="n">
-        <v>1843.7</v>
-      </c>
-      <c r="S69" t="n">
-        <v>14.2</v>
-      </c>
+        <v>2039.8</v>
+      </c>
+      <c r="S69"/>
       <c r="T69"/>
-      <c r="U69" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="U69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -4436,43 +4424,55 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E70" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70"/>
+      <c r="J70" t="n">
+        <v>16</v>
+      </c>
       <c r="K70" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="s">
         <v>30</v>
       </c>
-      <c r="M70"/>
-      <c r="N70"/>
+      <c r="M70" t="n">
+        <v>29</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
       <c r="O70" t="n">
-        <v>23.25</v>
+        <v>24.62</v>
       </c>
       <c r="P70" t="n">
-        <v>39.91</v>
+        <v>39.72</v>
       </c>
       <c r="Q70" t="n">
-        <v>63.16</v>
+        <v>64.34</v>
       </c>
       <c r="R70" t="n">
-        <v>2039.8</v>
-      </c>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
+        <v>2097.9</v>
+      </c>
+      <c r="S70" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U70" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -4491,15 +4491,15 @@
         <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s">
         <v>24</v>
@@ -4508,31 +4508,31 @@
         <v>30</v>
       </c>
       <c r="M71" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N71" t="n">
         <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>24.62</v>
+        <v>24.49</v>
       </c>
       <c r="P71" t="n">
-        <v>39.72</v>
+        <v>38.32</v>
       </c>
       <c r="Q71" t="n">
-        <v>64.34</v>
+        <v>62.81</v>
       </c>
       <c r="R71" t="n">
-        <v>2097.9</v>
+        <v>1753.9</v>
       </c>
       <c r="S71" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="T71" t="n">
         <v>1.5</v>
       </c>
       <c r="U71" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="72">
@@ -4552,16 +4552,14 @@
         <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" t="n">
-        <v>20</v>
-      </c>
+      <c r="J72"/>
       <c r="K72" t="s">
         <v>24</v>
       </c>
@@ -4569,31 +4567,27 @@
         <v>30</v>
       </c>
       <c r="M72" t="n">
-        <v>28</v>
-      </c>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N72"/>
       <c r="O72" t="n">
-        <v>24.49</v>
+        <v>24.55</v>
       </c>
       <c r="P72" t="n">
-        <v>38.32</v>
+        <v>38.41</v>
       </c>
       <c r="Q72" t="n">
-        <v>62.81</v>
+        <v>62.96</v>
       </c>
       <c r="R72" t="n">
-        <v>1753.9</v>
+        <v>2292.6</v>
       </c>
       <c r="S72" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1.5</v>
-      </c>
+        <v>15.9</v>
+      </c>
+      <c r="T72"/>
       <c r="U72" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="73">
@@ -4613,10 +4607,10 @@
         <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
@@ -4627,29 +4621,23 @@
       <c r="L73" t="s">
         <v>30</v>
       </c>
-      <c r="M73" t="n">
-        <v>24</v>
-      </c>
+      <c r="M73"/>
       <c r="N73"/>
       <c r="O73" t="n">
-        <v>24.55</v>
+        <v>24.39</v>
       </c>
       <c r="P73" t="n">
-        <v>38.41</v>
+        <v>38.67</v>
       </c>
       <c r="Q73" t="n">
-        <v>62.96</v>
+        <v>63.06</v>
       </c>
       <c r="R73" t="n">
-        <v>2292.6</v>
-      </c>
-      <c r="S73" t="n">
-        <v>15.9</v>
-      </c>
+        <v>2731.5</v>
+      </c>
+      <c r="S73"/>
       <c r="T73"/>
-      <c r="U73" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="U73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -4662,43 +4650,55 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
         <v>4</v>
-      </c>
-      <c r="G74" t="n">
-        <v>78</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74"/>
+      <c r="J74" t="n">
+        <v>17</v>
+      </c>
       <c r="K74" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L74" t="s">
         <v>30</v>
       </c>
-      <c r="M74"/>
-      <c r="N74"/>
+      <c r="M74" t="n">
+        <v>34</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O74" t="n">
-        <v>24.39</v>
+        <v>22</v>
       </c>
       <c r="P74" t="n">
-        <v>38.67</v>
+        <v>42.52</v>
       </c>
       <c r="Q74" t="n">
-        <v>63.06</v>
+        <v>64.52</v>
       </c>
       <c r="R74" t="n">
-        <v>2731.5</v>
-      </c>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
+        <v>1894.7</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U74" t="n">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -4717,15 +4717,15 @@
         <v>19</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K75" t="s">
         <v>27</v>
@@ -4734,31 +4734,31 @@
         <v>30</v>
       </c>
       <c r="M75" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N75" t="n">
         <v>1.5</v>
       </c>
       <c r="O75" t="n">
-        <v>22</v>
+        <v>21.92</v>
       </c>
       <c r="P75" t="n">
-        <v>42.52</v>
+        <v>41.13</v>
       </c>
       <c r="Q75" t="n">
-        <v>64.52</v>
+        <v>63.05</v>
       </c>
       <c r="R75" t="n">
-        <v>1894.7</v>
+        <v>2337.6</v>
       </c>
       <c r="S75" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="T75" t="n">
         <v>1.5</v>
       </c>
       <c r="U75" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="76">
@@ -4778,16 +4778,14 @@
         <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76" t="n">
-        <v>22</v>
-      </c>
+      <c r="J76"/>
       <c r="K76" t="s">
         <v>27</v>
       </c>
@@ -4795,31 +4793,27 @@
         <v>30</v>
       </c>
       <c r="M76" t="n">
-        <v>38</v>
-      </c>
-      <c r="N76" t="n">
-        <v>1.5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N76"/>
       <c r="O76" t="n">
-        <v>21.92</v>
+        <v>22.18</v>
       </c>
       <c r="P76" t="n">
-        <v>41.13</v>
+        <v>40.49</v>
       </c>
       <c r="Q76" t="n">
-        <v>63.05</v>
+        <v>62.67</v>
       </c>
       <c r="R76" t="n">
-        <v>2337.6</v>
+        <v>2105.4</v>
       </c>
       <c r="S76" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.5</v>
-      </c>
+        <v>11.6</v>
+      </c>
+      <c r="T76"/>
       <c r="U76" t="n">
-        <v>55.8</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="77">
@@ -4839,10 +4833,10 @@
         <v>19</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
@@ -4853,29 +4847,23 @@
       <c r="L77" t="s">
         <v>30</v>
       </c>
-      <c r="M77" t="n">
-        <v>30</v>
-      </c>
+      <c r="M77"/>
       <c r="N77"/>
       <c r="O77" t="n">
-        <v>22.18</v>
+        <v>21.85</v>
       </c>
       <c r="P77" t="n">
-        <v>40.49</v>
+        <v>40.81</v>
       </c>
       <c r="Q77" t="n">
-        <v>62.67</v>
+        <v>62.66</v>
       </c>
       <c r="R77" t="n">
-        <v>2105.4</v>
-      </c>
-      <c r="S77" t="n">
-        <v>11.6</v>
-      </c>
+        <v>2572.7</v>
+      </c>
+      <c r="S77"/>
       <c r="T77"/>
-      <c r="U77" t="n">
-        <v>56.2</v>
-      </c>
+      <c r="U77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -4888,43 +4876,55 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
+      <c r="J78" t="n">
+        <v>13</v>
+      </c>
       <c r="K78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L78" t="s">
         <v>30</v>
       </c>
-      <c r="M78"/>
-      <c r="N78"/>
+      <c r="M78" t="n">
+        <v>28</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
       <c r="O78" t="n">
-        <v>21.85</v>
+        <v>22.04</v>
       </c>
       <c r="P78" t="n">
-        <v>40.81</v>
+        <v>43.47</v>
       </c>
       <c r="Q78" t="n">
-        <v>62.66</v>
+        <v>65.51</v>
       </c>
       <c r="R78" t="n">
-        <v>2572.7</v>
-      </c>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
+        <v>2255.7</v>
+      </c>
+      <c r="S78" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U78" t="n">
+        <v>54.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -4943,15 +4943,15 @@
         <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K79" t="s">
         <v>24</v>
@@ -4960,31 +4960,31 @@
         <v>30</v>
       </c>
       <c r="M79" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N79" t="n">
         <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>22.04</v>
+        <v>22.89</v>
       </c>
       <c r="P79" t="n">
-        <v>43.47</v>
+        <v>42.2</v>
       </c>
       <c r="Q79" t="n">
-        <v>65.51</v>
+        <v>65.09</v>
       </c>
       <c r="R79" t="n">
-        <v>2255.7</v>
+        <v>2171.6</v>
       </c>
       <c r="S79" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="T79" t="n">
         <v>1.5</v>
       </c>
       <c r="U79" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="80">
@@ -5004,16 +5004,14 @@
         <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80" t="n">
-        <v>14</v>
-      </c>
+      <c r="J80"/>
       <c r="K80" t="s">
         <v>24</v>
       </c>
@@ -5021,31 +5019,27 @@
         <v>30</v>
       </c>
       <c r="M80" t="n">
-        <v>26</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N80"/>
       <c r="O80" t="n">
-        <v>22.89</v>
+        <v>22.59</v>
       </c>
       <c r="P80" t="n">
-        <v>42.2</v>
+        <v>42.48</v>
       </c>
       <c r="Q80" t="n">
-        <v>65.09</v>
+        <v>65.07</v>
       </c>
       <c r="R80" t="n">
-        <v>2171.6</v>
+        <v>2421.1</v>
       </c>
       <c r="S80" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="T80"/>
       <c r="U80" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="81">
@@ -5065,10 +5059,10 @@
         <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
@@ -5079,78 +5073,70 @@
       <c r="L81" t="s">
         <v>30</v>
       </c>
-      <c r="M81" t="n">
-        <v>28</v>
-      </c>
+      <c r="M81"/>
       <c r="N81"/>
       <c r="O81" t="n">
-        <v>22.59</v>
+        <v>22.11</v>
       </c>
       <c r="P81" t="n">
-        <v>42.48</v>
+        <v>42.73</v>
       </c>
       <c r="Q81" t="n">
-        <v>65.07</v>
+        <v>64.84</v>
       </c>
       <c r="R81" t="n">
-        <v>2421.1</v>
-      </c>
-      <c r="S81" t="n">
-        <v>14</v>
-      </c>
+        <v>2615.1</v>
+      </c>
+      <c r="S81"/>
       <c r="T81"/>
-      <c r="U81" t="n">
-        <v>54.9</v>
-      </c>
+      <c r="U81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C82" t="n">
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
-      <c r="J82"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="s">
-        <v>24</v>
-      </c>
-      <c r="L82" t="s">
-        <v>30</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L82"/>
       <c r="M82"/>
       <c r="N82"/>
-      <c r="O82" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="P82" t="n">
-        <v>42.73</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>64.84</v>
-      </c>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
       <c r="R82" t="n">
-        <v>2615.1</v>
-      </c>
-      <c r="S82"/>
+        <v>1495.4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T82"/>
-      <c r="U82"/>
+      <c r="U82" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -5169,10 +5155,10 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -5185,18 +5171,24 @@
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
+      <c r="O83" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="P83" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>64.74</v>
+      </c>
       <c r="R83" t="n">
-        <v>1495.4</v>
+        <v>1999</v>
       </c>
       <c r="S83" t="n">
-        <v>11.9</v>
+        <v>13.2</v>
       </c>
       <c r="T83"/>
       <c r="U83" t="n">
-        <v>56.5</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="84">
@@ -5216,34 +5208,38 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84"/>
       <c r="K84" t="s">
         <v>49</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
+      <c r="O84" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="P84" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>66.19</v>
+      </c>
       <c r="R84" t="n">
-        <v>1495.4</v>
+        <v>2097.5</v>
       </c>
       <c r="S84" t="n">
-        <v>11.9</v>
+        <v>13.6</v>
       </c>
       <c r="T84"/>
       <c r="U84" t="n">
-        <v>56.7</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="85">
@@ -5263,35 +5259,35 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85"/>
       <c r="K85" t="s">
         <v>49</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
+      <c r="O85" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="P85" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>65.6</v>
+      </c>
       <c r="R85" t="n">
-        <v>1495.4</v>
-      </c>
-      <c r="S85" t="n">
-        <v>11.9</v>
-      </c>
+        <v>1439.5</v>
+      </c>
+      <c r="S85"/>
       <c r="T85"/>
-      <c r="U85" t="n">
-        <v>56.1</v>
-      </c>
+      <c r="U85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -5304,40 +5300,46 @@
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
+      <c r="O86" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="P86" t="n">
+        <v>40.46</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>63.45</v>
+      </c>
       <c r="R86" t="n">
-        <v>1495.4</v>
+        <v>1837.6</v>
       </c>
       <c r="S86" t="n">
-        <v>11.9</v>
+        <v>13.4</v>
       </c>
       <c r="T86"/>
       <c r="U86" t="n">
-        <v>56.8</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="87">
@@ -5351,40 +5353,46 @@
         <v>2021</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87"/>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
+      <c r="O87" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="P87" t="n">
+        <v>40.71</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>63.66</v>
+      </c>
       <c r="R87" t="n">
-        <v>1495.4</v>
+        <v>2008.51</v>
       </c>
       <c r="S87" t="n">
-        <v>11.9</v>
+        <v>13.3</v>
       </c>
       <c r="T87"/>
       <c r="U87" t="n">
-        <v>56</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="88">
@@ -5398,46 +5406,44 @@
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88"/>
       <c r="K88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
       <c r="O88" t="n">
-        <v>23.5</v>
+        <v>23.38</v>
       </c>
       <c r="P88" t="n">
-        <v>41.24</v>
+        <v>41.16</v>
       </c>
       <c r="Q88" t="n">
-        <v>64.74</v>
+        <v>64.54</v>
       </c>
       <c r="R88" t="n">
-        <v>1999</v>
+        <v>1829.2</v>
       </c>
       <c r="S88" t="n">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="T88"/>
       <c r="U88" t="n">
-        <v>56.8</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="89">
@@ -5451,47 +5457,41 @@
         <v>2021</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89"/>
       <c r="K89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
       <c r="O89" t="n">
-        <v>23.5</v>
+        <v>23.18</v>
       </c>
       <c r="P89" t="n">
-        <v>41.24</v>
+        <v>41.11</v>
       </c>
       <c r="Q89" t="n">
-        <v>64.74</v>
+        <v>64.29</v>
       </c>
       <c r="R89" t="n">
-        <v>1999</v>
-      </c>
-      <c r="S89" t="n">
-        <v>13.2</v>
-      </c>
+        <v>1954.2</v>
+      </c>
+      <c r="S89"/>
       <c r="T89"/>
-      <c r="U89" t="n">
-        <v>57.1</v>
-      </c>
+      <c r="U89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -5504,46 +5504,46 @@
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" t="n">
         <v>1</v>
       </c>
-      <c r="F90" t="n">
-        <v>2</v>
-      </c>
       <c r="G90" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90"/>
       <c r="O90" t="n">
-        <v>23.5</v>
+        <v>23.03</v>
       </c>
       <c r="P90" t="n">
-        <v>41.24</v>
+        <v>39.19</v>
       </c>
       <c r="Q90" t="n">
-        <v>64.74</v>
+        <v>62.22</v>
       </c>
       <c r="R90" t="n">
-        <v>1999</v>
+        <v>2153.8</v>
       </c>
       <c r="S90" t="n">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="T90"/>
       <c r="U90" t="n">
-        <v>55.5</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="91">
@@ -5557,44 +5557,46 @@
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
-      <c r="J91"/>
+      <c r="J91" t="n">
+        <v>5</v>
+      </c>
       <c r="K91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>23.33</v>
+        <v>22.64</v>
       </c>
       <c r="P91" t="n">
-        <v>42.86</v>
+        <v>40.73</v>
       </c>
       <c r="Q91" t="n">
-        <v>66.19</v>
+        <v>63.37</v>
       </c>
       <c r="R91" t="n">
-        <v>2097.5</v>
+        <v>1890.2</v>
       </c>
       <c r="S91" t="n">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="T91"/>
       <c r="U91" t="n">
-        <v>55.3</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="92">
@@ -5608,44 +5610,44 @@
         <v>2021</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
       <c r="N92"/>
       <c r="O92" t="n">
-        <v>23.33</v>
+        <v>22.55</v>
       </c>
       <c r="P92" t="n">
-        <v>42.86</v>
+        <v>40.72</v>
       </c>
       <c r="Q92" t="n">
-        <v>66.19</v>
+        <v>63.27</v>
       </c>
       <c r="R92" t="n">
-        <v>2097.5</v>
+        <v>1674.21</v>
       </c>
       <c r="S92" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="T92"/>
       <c r="U92" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="93">
@@ -5659,37 +5661,37 @@
         <v>2021</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
       <c r="N93"/>
       <c r="O93" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="P93" t="n">
-        <v>41.9</v>
+        <v>40.52</v>
       </c>
       <c r="Q93" t="n">
-        <v>65.6</v>
+        <v>63.82</v>
       </c>
       <c r="R93" t="n">
-        <v>1439.5</v>
+        <v>2047.7</v>
       </c>
       <c r="S93"/>
       <c r="T93"/>
@@ -5706,21 +5708,21 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K94" t="s">
         <v>50</v>
@@ -5729,23 +5731,23 @@
       <c r="M94"/>
       <c r="N94"/>
       <c r="O94" t="n">
-        <v>22.99</v>
+        <v>21.62</v>
       </c>
       <c r="P94" t="n">
-        <v>40.46</v>
+        <v>41.98</v>
       </c>
       <c r="Q94" t="n">
-        <v>63.45</v>
+        <v>63.6</v>
       </c>
       <c r="R94" t="n">
-        <v>1837.6</v>
+        <v>2036.9</v>
       </c>
       <c r="S94" t="n">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="T94"/>
       <c r="U94" t="n">
-        <v>57.8</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="95">
@@ -5759,21 +5761,21 @@
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K95" t="s">
         <v>50</v>
@@ -5782,19 +5784,19 @@
       <c r="M95"/>
       <c r="N95"/>
       <c r="O95" t="n">
-        <v>22.95</v>
+        <v>21.7</v>
       </c>
       <c r="P95" t="n">
-        <v>40.71</v>
+        <v>41.99</v>
       </c>
       <c r="Q95" t="n">
-        <v>63.66</v>
+        <v>63.69</v>
       </c>
       <c r="R95" t="n">
-        <v>2008.51</v>
+        <v>2227.9</v>
       </c>
       <c r="S95" t="n">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="T95"/>
       <c r="U95" t="n">
@@ -5812,22 +5814,20 @@
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
-      <c r="J96" t="n">
-        <v>6</v>
-      </c>
+      <c r="J96"/>
       <c r="K96" t="s">
         <v>50</v>
       </c>
@@ -5835,23 +5835,23 @@
       <c r="M96"/>
       <c r="N96"/>
       <c r="O96" t="n">
-        <v>22.95</v>
+        <v>21.53</v>
       </c>
       <c r="P96" t="n">
-        <v>40.71</v>
+        <v>42.43</v>
       </c>
       <c r="Q96" t="n">
-        <v>63.66</v>
+        <v>63.96</v>
       </c>
       <c r="R96" t="n">
-        <v>2008.51</v>
+        <v>1939.51</v>
       </c>
       <c r="S96" t="n">
-        <v>13.3</v>
+        <v>11.4</v>
       </c>
       <c r="T96"/>
       <c r="U96" t="n">
-        <v>58.2</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="97">
@@ -5865,22 +5865,20 @@
         <v>2021</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
-      <c r="J97" t="n">
-        <v>6</v>
-      </c>
+      <c r="J97"/>
       <c r="K97" t="s">
         <v>50</v>
       </c>
@@ -5888,24 +5886,20 @@
       <c r="M97"/>
       <c r="N97"/>
       <c r="O97" t="n">
-        <v>22.95</v>
+        <v>21.02</v>
       </c>
       <c r="P97" t="n">
-        <v>40.71</v>
+        <v>42.67</v>
       </c>
       <c r="Q97" t="n">
-        <v>63.66</v>
+        <v>63.69</v>
       </c>
       <c r="R97" t="n">
-        <v>2008.51</v>
-      </c>
-      <c r="S97" t="n">
-        <v>13.3</v>
-      </c>
+        <v>1885.9</v>
+      </c>
+      <c r="S97"/>
       <c r="T97"/>
-      <c r="U97" t="n">
-        <v>56.9</v>
-      </c>
+      <c r="U97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -5918,46 +5912,46 @@
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
       <c r="O98" t="n">
-        <v>22.95</v>
+        <v>22.09</v>
       </c>
       <c r="P98" t="n">
-        <v>40.71</v>
+        <v>40.56</v>
       </c>
       <c r="Q98" t="n">
-        <v>63.66</v>
+        <v>62.65</v>
       </c>
       <c r="R98" t="n">
-        <v>2008.51</v>
+        <v>2119</v>
       </c>
       <c r="S98" t="n">
-        <v>13.3</v>
+        <v>10.9</v>
       </c>
       <c r="T98"/>
       <c r="U98" t="n">
-        <v>57.9</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="99">
@@ -5971,44 +5965,46 @@
         <v>2021</v>
       </c>
       <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" t="n">
         <v>26</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" t="n">
-        <v>58</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
-      <c r="J99"/>
+      <c r="J99" t="n">
+        <v>4</v>
+      </c>
       <c r="K99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
       <c r="O99" t="n">
-        <v>23.38</v>
+        <v>21.41</v>
       </c>
       <c r="P99" t="n">
-        <v>41.16</v>
+        <v>41.43</v>
       </c>
       <c r="Q99" t="n">
-        <v>64.54</v>
+        <v>62.84</v>
       </c>
       <c r="R99" t="n">
-        <v>1829.2</v>
+        <v>2138.11</v>
       </c>
       <c r="S99" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="T99"/>
       <c r="U99" t="n">
-        <v>58.2</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="100">
@@ -6022,41 +6018,45 @@
         <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100"/>
       <c r="O100" t="n">
-        <v>23.18</v>
+        <v>22.41</v>
       </c>
       <c r="P100" t="n">
-        <v>41.11</v>
+        <v>40.58</v>
       </c>
       <c r="Q100" t="n">
-        <v>64.29</v>
+        <v>62.99</v>
       </c>
       <c r="R100" t="n">
-        <v>1954.2</v>
-      </c>
-      <c r="S100"/>
+        <v>2353</v>
+      </c>
+      <c r="S100" t="n">
+        <v>11.7</v>
+      </c>
       <c r="T100"/>
-      <c r="U100"/>
+      <c r="U100" t="n">
+        <v>57.4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -6069,47 +6069,41 @@
         <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G101" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
-      <c r="J101" t="n">
-        <v>4</v>
-      </c>
+      <c r="J101"/>
       <c r="K101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
       <c r="O101" t="n">
-        <v>23.03</v>
+        <v>21.91</v>
       </c>
       <c r="P101" t="n">
-        <v>39.19</v>
+        <v>40.31</v>
       </c>
       <c r="Q101" t="n">
         <v>62.22</v>
       </c>
       <c r="R101" t="n">
-        <v>2153.8</v>
-      </c>
-      <c r="S101" t="n">
-        <v>11.8</v>
-      </c>
+        <v>1715.5</v>
+      </c>
+      <c r="S101"/>
       <c r="T101"/>
-      <c r="U101" t="n">
-        <v>57.4</v>
-      </c>
+      <c r="U101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -6122,21 +6116,21 @@
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K102" t="s">
         <v>50</v>
@@ -6145,19 +6139,19 @@
       <c r="M102"/>
       <c r="N102"/>
       <c r="O102" t="n">
-        <v>22.64</v>
+        <v>22.34</v>
       </c>
       <c r="P102" t="n">
-        <v>40.73</v>
+        <v>40.55</v>
       </c>
       <c r="Q102" t="n">
-        <v>63.37</v>
+        <v>62.89</v>
       </c>
       <c r="R102" t="n">
-        <v>1890.2</v>
+        <v>2183.91</v>
       </c>
       <c r="S102" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="T102"/>
       <c r="U102" t="n">
@@ -6175,20 +6169,22 @@
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
-      <c r="J103"/>
+      <c r="J103" t="n">
+        <v>4</v>
+      </c>
       <c r="K103" t="s">
         <v>50</v>
       </c>
@@ -6196,23 +6192,23 @@
       <c r="M103"/>
       <c r="N103"/>
       <c r="O103" t="n">
-        <v>22.55</v>
+        <v>22.43</v>
       </c>
       <c r="P103" t="n">
-        <v>40.72</v>
+        <v>41.09</v>
       </c>
       <c r="Q103" t="n">
-        <v>63.27</v>
+        <v>63.52</v>
       </c>
       <c r="R103" t="n">
-        <v>1674.21</v>
+        <v>2182.7</v>
       </c>
       <c r="S103" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="T103"/>
       <c r="U103" t="n">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="104">
@@ -6226,16 +6222,16 @@
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="n">
         <v>3</v>
       </c>
-      <c r="F104" t="n">
-        <v>4</v>
-      </c>
       <c r="G104" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
@@ -6247,20 +6243,24 @@
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104" t="n">
-        <v>23.3</v>
+        <v>22.54</v>
       </c>
       <c r="P104" t="n">
-        <v>40.52</v>
+        <v>40.41</v>
       </c>
       <c r="Q104" t="n">
-        <v>63.82</v>
+        <v>62.95</v>
       </c>
       <c r="R104" t="n">
-        <v>2047.7</v>
-      </c>
-      <c r="S104"/>
+        <v>2147.8</v>
+      </c>
+      <c r="S104" t="n">
+        <v>11.8</v>
+      </c>
       <c r="T104"/>
-      <c r="U104"/>
+      <c r="U104" t="n">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -6273,22 +6273,20 @@
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E105" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" t="n">
         <v>4</v>
       </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
-      <c r="J105" t="n">
-        <v>4</v>
-      </c>
+      <c r="J105"/>
       <c r="K105" t="s">
         <v>50</v>
       </c>
@@ -6296,24 +6294,20 @@
       <c r="M105"/>
       <c r="N105"/>
       <c r="O105" t="n">
-        <v>21.62</v>
+        <v>22.1</v>
       </c>
       <c r="P105" t="n">
-        <v>41.98</v>
+        <v>40.68</v>
       </c>
       <c r="Q105" t="n">
-        <v>63.6</v>
+        <v>62.78</v>
       </c>
       <c r="R105" t="n">
-        <v>2036.9</v>
-      </c>
-      <c r="S105" t="n">
-        <v>11.4</v>
-      </c>
+        <v>2259.3</v>
+      </c>
+      <c r="S105"/>
       <c r="T105"/>
-      <c r="U105" t="n">
-        <v>57.9</v>
-      </c>
+      <c r="U105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -6326,21 +6320,21 @@
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K106" t="s">
         <v>50</v>
@@ -6349,23 +6343,23 @@
       <c r="M106"/>
       <c r="N106"/>
       <c r="O106" t="n">
-        <v>21.7</v>
+        <v>22.86</v>
       </c>
       <c r="P106" t="n">
-        <v>41.99</v>
+        <v>40.62</v>
       </c>
       <c r="Q106" t="n">
-        <v>63.69</v>
+        <v>63.48</v>
       </c>
       <c r="R106" t="n">
-        <v>2227.9</v>
+        <v>2087.61</v>
       </c>
       <c r="S106" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="T106"/>
       <c r="U106" t="n">
-        <v>57.5</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="107">
@@ -6379,20 +6373,22 @@
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
-      <c r="J107"/>
+      <c r="J107" t="n">
+        <v>4</v>
+      </c>
       <c r="K107" t="s">
         <v>50</v>
       </c>
@@ -6400,23 +6396,23 @@
       <c r="M107"/>
       <c r="N107"/>
       <c r="O107" t="n">
-        <v>21.53</v>
+        <v>21.9</v>
       </c>
       <c r="P107" t="n">
-        <v>42.43</v>
+        <v>39.98</v>
       </c>
       <c r="Q107" t="n">
-        <v>63.96</v>
+        <v>61.88</v>
       </c>
       <c r="R107" t="n">
-        <v>1939.51</v>
+        <v>2446.1</v>
       </c>
       <c r="S107" t="n">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="T107"/>
       <c r="U107" t="n">
-        <v>57.2</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="108">
@@ -6430,16 +6426,16 @@
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
@@ -6451,20 +6447,24 @@
       <c r="M108"/>
       <c r="N108"/>
       <c r="O108" t="n">
-        <v>21.02</v>
+        <v>22.25</v>
       </c>
       <c r="P108" t="n">
-        <v>42.67</v>
+        <v>40.01</v>
       </c>
       <c r="Q108" t="n">
-        <v>63.69</v>
+        <v>62.26</v>
       </c>
       <c r="R108" t="n">
-        <v>1885.9</v>
-      </c>
-      <c r="S108"/>
+        <v>1990.1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T108"/>
-      <c r="U108"/>
+      <c r="U108" t="n">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -6477,47 +6477,41 @@
         <v>2021</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
-      <c r="J109" t="n">
-        <v>3</v>
-      </c>
+      <c r="J109"/>
       <c r="K109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
       <c r="O109" t="n">
-        <v>22.09</v>
+        <v>22.42</v>
       </c>
       <c r="P109" t="n">
-        <v>40.56</v>
+        <v>40.5</v>
       </c>
       <c r="Q109" t="n">
-        <v>62.65</v>
+        <v>62.92</v>
       </c>
       <c r="R109" t="n">
-        <v>2119</v>
-      </c>
-      <c r="S109" t="n">
-        <v>10.9</v>
-      </c>
+        <v>1868.4</v>
+      </c>
+      <c r="S109"/>
       <c r="T109"/>
-      <c r="U109" t="n">
-        <v>57.1</v>
-      </c>
+      <c r="U109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -6530,16 +6524,16 @@
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H110"/>
       <c r="I110"/>
@@ -6553,23 +6547,23 @@
       <c r="M110"/>
       <c r="N110"/>
       <c r="O110" t="n">
-        <v>21.41</v>
+        <v>22.85</v>
       </c>
       <c r="P110" t="n">
-        <v>41.43</v>
+        <v>42.36</v>
       </c>
       <c r="Q110" t="n">
-        <v>62.84</v>
+        <v>65.21</v>
       </c>
       <c r="R110" t="n">
-        <v>2138.11</v>
+        <v>2284.4</v>
       </c>
       <c r="S110" t="n">
-        <v>11</v>
+        <v>14.8</v>
       </c>
       <c r="T110"/>
       <c r="U110" t="n">
-        <v>56.7</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="111">
@@ -6583,20 +6577,22 @@
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
-      <c r="J111"/>
+      <c r="J111" t="n">
+        <v>5</v>
+      </c>
       <c r="K111" t="s">
         <v>49</v>
       </c>
@@ -6604,23 +6600,23 @@
       <c r="M111"/>
       <c r="N111"/>
       <c r="O111" t="n">
-        <v>22.41</v>
+        <v>23.42</v>
       </c>
       <c r="P111" t="n">
-        <v>40.58</v>
+        <v>41.7</v>
       </c>
       <c r="Q111" t="n">
-        <v>62.99</v>
+        <v>65.12</v>
       </c>
       <c r="R111" t="n">
-        <v>2353</v>
+        <v>2176.3</v>
       </c>
       <c r="S111" t="n">
-        <v>11.7</v>
+        <v>14.9</v>
       </c>
       <c r="T111"/>
       <c r="U111" t="n">
-        <v>57.4</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="112">
@@ -6634,16 +6630,16 @@
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
@@ -6655,20 +6651,24 @@
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112" t="n">
-        <v>21.91</v>
+        <v>23.34</v>
       </c>
       <c r="P112" t="n">
-        <v>40.31</v>
+        <v>42.6</v>
       </c>
       <c r="Q112" t="n">
-        <v>62.22</v>
+        <v>65.94</v>
       </c>
       <c r="R112" t="n">
-        <v>1715.5</v>
-      </c>
-      <c r="S112"/>
+        <v>2066.9</v>
+      </c>
+      <c r="S112" t="n">
+        <v>15.4</v>
+      </c>
       <c r="T112"/>
-      <c r="U112"/>
+      <c r="U112" t="n">
+        <v>58.1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -6681,47 +6681,41 @@
         <v>2021</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E113" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
-      <c r="J113" t="n">
-        <v>3</v>
-      </c>
+      <c r="J113"/>
       <c r="K113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113" t="n">
-        <v>22.34</v>
+        <v>22.96</v>
       </c>
       <c r="P113" t="n">
-        <v>40.55</v>
+        <v>42</v>
       </c>
       <c r="Q113" t="n">
-        <v>62.89</v>
+        <v>64.96</v>
       </c>
       <c r="R113" t="n">
-        <v>2183.91</v>
-      </c>
-      <c r="S113" t="n">
-        <v>13</v>
-      </c>
+        <v>2130</v>
+      </c>
+      <c r="S113"/>
       <c r="T113"/>
-      <c r="U113" t="n">
-        <v>56.3</v>
-      </c>
+      <c r="U113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -6734,21 +6728,21 @@
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E114" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K114" t="s">
         <v>50</v>
@@ -6757,23 +6751,23 @@
       <c r="M114"/>
       <c r="N114"/>
       <c r="O114" t="n">
-        <v>22.43</v>
+        <v>21.71</v>
       </c>
       <c r="P114" t="n">
-        <v>41.09</v>
+        <v>42.34</v>
       </c>
       <c r="Q114" t="n">
-        <v>63.52</v>
+        <v>64.05</v>
       </c>
       <c r="R114" t="n">
-        <v>2182.7</v>
+        <v>2304.6</v>
       </c>
       <c r="S114" t="n">
-        <v>13.7</v>
+        <v>12.7</v>
       </c>
       <c r="T114"/>
       <c r="U114" t="n">
-        <v>55.8</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="115">
@@ -6787,20 +6781,22 @@
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
-      <c r="J115"/>
+      <c r="J115" t="n">
+        <v>7</v>
+      </c>
       <c r="K115" t="s">
         <v>50</v>
       </c>
@@ -6808,23 +6804,23 @@
       <c r="M115"/>
       <c r="N115"/>
       <c r="O115" t="n">
-        <v>22.54</v>
+        <v>22.19</v>
       </c>
       <c r="P115" t="n">
-        <v>40.41</v>
+        <v>42.51</v>
       </c>
       <c r="Q115" t="n">
-        <v>62.95</v>
+        <v>64.7</v>
       </c>
       <c r="R115" t="n">
-        <v>2147.8</v>
+        <v>2180</v>
       </c>
       <c r="S115" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="T115"/>
       <c r="U115" t="n">
-        <v>55.7</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="116">
@@ -6838,16 +6834,16 @@
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
@@ -6859,20 +6855,24 @@
       <c r="M116"/>
       <c r="N116"/>
       <c r="O116" t="n">
-        <v>22.1</v>
+        <v>22.46</v>
       </c>
       <c r="P116" t="n">
-        <v>40.68</v>
+        <v>41.65</v>
       </c>
       <c r="Q116" t="n">
-        <v>62.78</v>
+        <v>64.11</v>
       </c>
       <c r="R116" t="n">
-        <v>2259.3</v>
-      </c>
-      <c r="S116"/>
+        <v>2125.8</v>
+      </c>
+      <c r="S116" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T116"/>
-      <c r="U116"/>
+      <c r="U116" t="n">
+        <v>57.7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -6885,22 +6885,20 @@
         <v>2021</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E117" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
-      <c r="J117" t="n">
-        <v>3</v>
-      </c>
+      <c r="J117"/>
       <c r="K117" t="s">
         <v>50</v>
       </c>
@@ -6908,24 +6906,20 @@
       <c r="M117"/>
       <c r="N117"/>
       <c r="O117" t="n">
-        <v>22.86</v>
+        <v>22.22</v>
       </c>
       <c r="P117" t="n">
-        <v>40.62</v>
+        <v>41.59</v>
       </c>
       <c r="Q117" t="n">
-        <v>63.48</v>
+        <v>63.81</v>
       </c>
       <c r="R117" t="n">
-        <v>2087.61</v>
-      </c>
-      <c r="S117" t="n">
-        <v>12.1</v>
-      </c>
+        <v>1965.9</v>
+      </c>
+      <c r="S117"/>
       <c r="T117"/>
-      <c r="U117" t="n">
-        <v>55.9</v>
-      </c>
+      <c r="U117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -6938,46 +6932,46 @@
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E118" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L118"/>
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118" t="n">
-        <v>21.9</v>
+        <v>23.21</v>
       </c>
       <c r="P118" t="n">
-        <v>39.98</v>
+        <v>42.11</v>
       </c>
       <c r="Q118" t="n">
-        <v>61.88</v>
+        <v>65.32</v>
       </c>
       <c r="R118" t="n">
-        <v>2446.1</v>
+        <v>2176.5</v>
       </c>
       <c r="S118" t="n">
-        <v>12.4</v>
+        <v>14.2</v>
       </c>
       <c r="T118"/>
       <c r="U118" t="n">
-        <v>55.9</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="119">
@@ -6991,44 +6985,46 @@
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E119" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
-      <c r="J119"/>
+      <c r="J119" t="n">
+        <v>12</v>
+      </c>
       <c r="K119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L119"/>
       <c r="M119"/>
       <c r="N119"/>
       <c r="O119" t="n">
-        <v>22.25</v>
+        <v>23.25</v>
       </c>
       <c r="P119" t="n">
-        <v>40.01</v>
+        <v>41.43</v>
       </c>
       <c r="Q119" t="n">
-        <v>62.26</v>
+        <v>64.68</v>
       </c>
       <c r="R119" t="n">
-        <v>1990.1</v>
+        <v>2129.2</v>
       </c>
       <c r="S119" t="n">
-        <v>12.5</v>
+        <v>14.1</v>
       </c>
       <c r="T119"/>
       <c r="U119" t="n">
-        <v>55.9</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="120">
@@ -7042,41 +7038,45 @@
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E120" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L120"/>
       <c r="M120"/>
       <c r="N120"/>
       <c r="O120" t="n">
-        <v>22.42</v>
+        <v>23.37</v>
       </c>
       <c r="P120" t="n">
-        <v>40.5</v>
+        <v>41.42</v>
       </c>
       <c r="Q120" t="n">
-        <v>62.92</v>
+        <v>64.79</v>
       </c>
       <c r="R120" t="n">
-        <v>1868.4</v>
-      </c>
-      <c r="S120"/>
+        <v>2424.1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T120"/>
-      <c r="U120"/>
+      <c r="U120" t="n">
+        <v>57.7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -7089,22 +7089,20 @@
         <v>2021</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E121" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H121"/>
       <c r="I121"/>
-      <c r="J121" t="n">
-        <v>4</v>
-      </c>
+      <c r="J121"/>
       <c r="K121" t="s">
         <v>49</v>
       </c>
@@ -7112,24 +7110,20 @@
       <c r="M121"/>
       <c r="N121"/>
       <c r="O121" t="n">
-        <v>22.85</v>
+        <v>22.82</v>
       </c>
       <c r="P121" t="n">
-        <v>42.36</v>
+        <v>42.16</v>
       </c>
       <c r="Q121" t="n">
-        <v>65.21</v>
+        <v>64.98</v>
       </c>
       <c r="R121" t="n">
-        <v>2284.4</v>
-      </c>
-      <c r="S121" t="n">
-        <v>14.8</v>
-      </c>
+        <v>2009.4</v>
+      </c>
+      <c r="S121"/>
       <c r="T121"/>
-      <c r="U121" t="n">
-        <v>57.8</v>
-      </c>
+      <c r="U121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -7142,46 +7136,46 @@
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E122" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
         <v>2</v>
-      </c>
-      <c r="G122" t="n">
-        <v>38</v>
       </c>
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L122"/>
       <c r="M122"/>
       <c r="N122"/>
       <c r="O122" t="n">
-        <v>23.42</v>
+        <v>22.05</v>
       </c>
       <c r="P122" t="n">
-        <v>41.7</v>
+        <v>42.18</v>
       </c>
       <c r="Q122" t="n">
-        <v>65.12</v>
+        <v>64.23</v>
       </c>
       <c r="R122" t="n">
-        <v>2176.3</v>
+        <v>2085.4</v>
       </c>
       <c r="S122" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="T122"/>
       <c r="U122" t="n">
-        <v>57.3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123">
@@ -7195,44 +7189,46 @@
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E123" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
-      <c r="J123"/>
+      <c r="J123" t="n">
+        <v>5</v>
+      </c>
       <c r="K123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L123"/>
       <c r="M123"/>
       <c r="N123"/>
       <c r="O123" t="n">
-        <v>23.34</v>
+        <v>22.23</v>
       </c>
       <c r="P123" t="n">
-        <v>42.6</v>
+        <v>41.93</v>
       </c>
       <c r="Q123" t="n">
-        <v>65.94</v>
+        <v>64.16</v>
       </c>
       <c r="R123" t="n">
-        <v>2066.9</v>
+        <v>2007.5</v>
       </c>
       <c r="S123" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="T123"/>
       <c r="U123" t="n">
-        <v>58.1</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="124">
@@ -7246,41 +7242,45 @@
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E124" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124"/>
       <c r="O124" t="n">
-        <v>22.96</v>
+        <v>22.33</v>
       </c>
       <c r="P124" t="n">
-        <v>42</v>
+        <v>41.38</v>
       </c>
       <c r="Q124" t="n">
-        <v>64.96</v>
+        <v>63.71</v>
       </c>
       <c r="R124" t="n">
-        <v>2130</v>
-      </c>
-      <c r="S124"/>
+        <v>2333.3</v>
+      </c>
+      <c r="S124" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T124"/>
-      <c r="U124"/>
+      <c r="U124" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -7293,22 +7293,20 @@
         <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E125" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
-      <c r="J125" t="n">
-        <v>5</v>
-      </c>
+      <c r="J125"/>
       <c r="K125" t="s">
         <v>50</v>
       </c>
@@ -7316,24 +7314,20 @@
       <c r="M125"/>
       <c r="N125"/>
       <c r="O125" t="n">
-        <v>21.71</v>
+        <v>22.23</v>
       </c>
       <c r="P125" t="n">
-        <v>42.34</v>
+        <v>41.3</v>
       </c>
       <c r="Q125" t="n">
-        <v>64.05</v>
+        <v>63.53</v>
       </c>
       <c r="R125" t="n">
-        <v>2304.6</v>
-      </c>
-      <c r="S125" t="n">
-        <v>12.7</v>
-      </c>
+        <v>1966.8</v>
+      </c>
+      <c r="S125"/>
       <c r="T125"/>
-      <c r="U125" t="n">
-        <v>57.3</v>
-      </c>
+      <c r="U125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -7346,21 +7340,21 @@
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E126" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K126" t="s">
         <v>50</v>
@@ -7369,23 +7363,23 @@
       <c r="M126"/>
       <c r="N126"/>
       <c r="O126" t="n">
-        <v>22.19</v>
+        <v>22.37</v>
       </c>
       <c r="P126" t="n">
-        <v>42.51</v>
+        <v>42.64</v>
       </c>
       <c r="Q126" t="n">
-        <v>64.7</v>
+        <v>65.01</v>
       </c>
       <c r="R126" t="n">
-        <v>2180</v>
+        <v>2262.6</v>
       </c>
       <c r="S126" t="n">
-        <v>12.5</v>
+        <v>17.3</v>
       </c>
       <c r="T126"/>
       <c r="U126" t="n">
-        <v>56.7</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="127">
@@ -7399,20 +7393,22 @@
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E127" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H127"/>
       <c r="I127"/>
-      <c r="J127"/>
+      <c r="J127" t="n">
+        <v>18</v>
+      </c>
       <c r="K127" t="s">
         <v>50</v>
       </c>
@@ -7420,23 +7416,23 @@
       <c r="M127"/>
       <c r="N127"/>
       <c r="O127" t="n">
-        <v>22.46</v>
+        <v>22.42</v>
       </c>
       <c r="P127" t="n">
-        <v>41.65</v>
+        <v>41.91</v>
       </c>
       <c r="Q127" t="n">
-        <v>64.11</v>
+        <v>64.33</v>
       </c>
       <c r="R127" t="n">
-        <v>2125.8</v>
+        <v>2275.7</v>
       </c>
       <c r="S127" t="n">
-        <v>12.5</v>
+        <v>15.8</v>
       </c>
       <c r="T127"/>
       <c r="U127" t="n">
-        <v>57.7</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="128">
@@ -7450,16 +7446,16 @@
         <v>2021</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E128" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
@@ -7471,20 +7467,24 @@
       <c r="M128"/>
       <c r="N128"/>
       <c r="O128" t="n">
-        <v>22.22</v>
+        <v>23.33</v>
       </c>
       <c r="P128" t="n">
-        <v>41.59</v>
+        <v>39.14</v>
       </c>
       <c r="Q128" t="n">
-        <v>63.81</v>
+        <v>62.47</v>
       </c>
       <c r="R128" t="n">
-        <v>1965.9</v>
-      </c>
-      <c r="S128"/>
+        <v>2102.5</v>
+      </c>
+      <c r="S128" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T128"/>
-      <c r="U128"/>
+      <c r="U128" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -7497,47 +7497,41 @@
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H129"/>
       <c r="I129"/>
-      <c r="J129" t="n">
-        <v>13</v>
-      </c>
+      <c r="J129"/>
       <c r="K129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
       <c r="O129" t="n">
-        <v>23.21</v>
+        <v>22.67</v>
       </c>
       <c r="P129" t="n">
-        <v>42.11</v>
+        <v>41.59</v>
       </c>
       <c r="Q129" t="n">
-        <v>65.32</v>
+        <v>64.26</v>
       </c>
       <c r="R129" t="n">
-        <v>2176.5</v>
-      </c>
-      <c r="S129" t="n">
-        <v>14.2</v>
-      </c>
+        <v>1947.7</v>
+      </c>
+      <c r="S129"/>
       <c r="T129"/>
-      <c r="U129" t="n">
-        <v>57.6</v>
-      </c>
+      <c r="U129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -7550,21 +7544,21 @@
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E130" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K130" t="s">
         <v>49</v>
@@ -7576,20 +7570,20 @@
         <v>23.25</v>
       </c>
       <c r="P130" t="n">
-        <v>41.43</v>
+        <v>40.99</v>
       </c>
       <c r="Q130" t="n">
-        <v>64.68</v>
+        <v>64.24</v>
       </c>
       <c r="R130" t="n">
-        <v>2129.2</v>
+        <v>2568.1</v>
       </c>
       <c r="S130" t="n">
-        <v>14.1</v>
+        <v>13.2</v>
       </c>
       <c r="T130"/>
       <c r="U130" t="n">
-        <v>56.9</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="131">
@@ -7603,20 +7597,22 @@
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E131" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H131"/>
       <c r="I131"/>
-      <c r="J131"/>
+      <c r="J131" t="n">
+        <v>9</v>
+      </c>
       <c r="K131" t="s">
         <v>49</v>
       </c>
@@ -7624,23 +7620,23 @@
       <c r="M131"/>
       <c r="N131"/>
       <c r="O131" t="n">
-        <v>23.37</v>
+        <v>22.57</v>
       </c>
       <c r="P131" t="n">
-        <v>41.42</v>
+        <v>41.02</v>
       </c>
       <c r="Q131" t="n">
-        <v>64.79</v>
+        <v>63.59</v>
       </c>
       <c r="R131" t="n">
-        <v>2424.1</v>
+        <v>2148.9</v>
       </c>
       <c r="S131" t="n">
-        <v>14.7</v>
+        <v>11.9</v>
       </c>
       <c r="T131"/>
       <c r="U131" t="n">
-        <v>57.7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132">
@@ -7654,16 +7650,16 @@
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E132" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
@@ -7675,20 +7671,24 @@
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132" t="n">
-        <v>22.82</v>
+        <v>22.63</v>
       </c>
       <c r="P132" t="n">
-        <v>42.16</v>
+        <v>40.82</v>
       </c>
       <c r="Q132" t="n">
-        <v>64.98</v>
+        <v>63.45</v>
       </c>
       <c r="R132" t="n">
-        <v>2009.4</v>
-      </c>
-      <c r="S132"/>
+        <v>2389.4</v>
+      </c>
+      <c r="S132" t="n">
+        <v>12.6</v>
+      </c>
       <c r="T132"/>
-      <c r="U132"/>
+      <c r="U132" t="n">
+        <v>57.3</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -7701,47 +7701,41 @@
         <v>2021</v>
       </c>
       <c r="D133" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E133" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="H133"/>
       <c r="I133"/>
-      <c r="J133" t="n">
-        <v>7</v>
-      </c>
+      <c r="J133"/>
       <c r="K133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
       <c r="O133" t="n">
-        <v>22.05</v>
+        <v>22.87</v>
       </c>
       <c r="P133" t="n">
-        <v>42.18</v>
+        <v>41.6</v>
       </c>
       <c r="Q133" t="n">
-        <v>64.23</v>
+        <v>64.47</v>
       </c>
       <c r="R133" t="n">
-        <v>2085.4</v>
-      </c>
-      <c r="S133" t="n">
-        <v>14.3</v>
-      </c>
+        <v>1862.6</v>
+      </c>
+      <c r="S133"/>
       <c r="T133"/>
-      <c r="U133" t="n">
-        <v>58</v>
-      </c>
+      <c r="U133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -7754,21 +7748,21 @@
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E134" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
       <c r="J134" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K134" t="s">
         <v>50</v>
@@ -7777,23 +7771,23 @@
       <c r="M134"/>
       <c r="N134"/>
       <c r="O134" t="n">
-        <v>22.23</v>
+        <v>22.93</v>
       </c>
       <c r="P134" t="n">
-        <v>41.93</v>
+        <v>41.91</v>
       </c>
       <c r="Q134" t="n">
-        <v>64.16</v>
+        <v>64.84</v>
       </c>
       <c r="R134" t="n">
-        <v>2007.5</v>
+        <v>2367.7</v>
       </c>
       <c r="S134" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="T134"/>
       <c r="U134" t="n">
-        <v>57.5</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="135">
@@ -7807,20 +7801,22 @@
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E135" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H135"/>
       <c r="I135"/>
-      <c r="J135"/>
+      <c r="J135" t="n">
+        <v>17</v>
+      </c>
       <c r="K135" t="s">
         <v>50</v>
       </c>
@@ -7828,23 +7824,23 @@
       <c r="M135"/>
       <c r="N135"/>
       <c r="O135" t="n">
-        <v>22.33</v>
+        <v>22.56</v>
       </c>
       <c r="P135" t="n">
-        <v>41.38</v>
+        <v>41.5</v>
       </c>
       <c r="Q135" t="n">
-        <v>63.71</v>
+        <v>64.06</v>
       </c>
       <c r="R135" t="n">
-        <v>2333.3</v>
+        <v>2026.9</v>
       </c>
       <c r="S135" t="n">
-        <v>14.2</v>
+        <v>16.3</v>
       </c>
       <c r="T135"/>
       <c r="U135" t="n">
-        <v>58</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="136">
@@ -7858,16 +7854,16 @@
         <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E136" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H136"/>
       <c r="I136"/>
@@ -7879,20 +7875,24 @@
       <c r="M136"/>
       <c r="N136"/>
       <c r="O136" t="n">
-        <v>22.23</v>
+        <v>23.05</v>
       </c>
       <c r="P136" t="n">
-        <v>41.3</v>
+        <v>41.16</v>
       </c>
       <c r="Q136" t="n">
-        <v>63.53</v>
+        <v>64.21</v>
       </c>
       <c r="R136" t="n">
-        <v>1966.8</v>
-      </c>
-      <c r="S136"/>
+        <v>2066.6</v>
+      </c>
+      <c r="S136" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T136"/>
-      <c r="U136"/>
+      <c r="U136" t="n">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -7905,22 +7905,20 @@
         <v>2021</v>
       </c>
       <c r="D137" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E137" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G137" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H137"/>
       <c r="I137"/>
-      <c r="J137" t="n">
-        <v>19</v>
-      </c>
+      <c r="J137"/>
       <c r="K137" t="s">
         <v>50</v>
       </c>
@@ -7928,24 +7926,20 @@
       <c r="M137"/>
       <c r="N137"/>
       <c r="O137" t="n">
-        <v>22.37</v>
+        <v>23.1</v>
       </c>
       <c r="P137" t="n">
-        <v>42.64</v>
+        <v>41.93</v>
       </c>
       <c r="Q137" t="n">
-        <v>65.01</v>
+        <v>65.03</v>
       </c>
       <c r="R137" t="n">
-        <v>2262.6</v>
-      </c>
-      <c r="S137" t="n">
-        <v>17.3</v>
-      </c>
+        <v>1760</v>
+      </c>
+      <c r="S137"/>
       <c r="T137"/>
-      <c r="U137" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="U137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -7958,46 +7952,46 @@
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E138" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H138"/>
       <c r="I138"/>
       <c r="J138" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L138"/>
       <c r="M138"/>
       <c r="N138"/>
       <c r="O138" t="n">
-        <v>22.42</v>
+        <v>22.6</v>
       </c>
       <c r="P138" t="n">
-        <v>41.91</v>
+        <v>41.66</v>
       </c>
       <c r="Q138" t="n">
-        <v>64.33</v>
+        <v>64.26</v>
       </c>
       <c r="R138" t="n">
-        <v>2275.7</v>
+        <v>1966.8</v>
       </c>
       <c r="S138" t="n">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="T138"/>
       <c r="U138" t="n">
-        <v>55.9</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="139">
@@ -8011,44 +8005,46 @@
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E139" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H139"/>
       <c r="I139"/>
-      <c r="J139"/>
+      <c r="J139" t="n">
+        <v>18</v>
+      </c>
       <c r="K139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L139"/>
       <c r="M139"/>
       <c r="N139"/>
       <c r="O139" t="n">
-        <v>23.33</v>
+        <v>23.19</v>
       </c>
       <c r="P139" t="n">
-        <v>39.14</v>
+        <v>39.91</v>
       </c>
       <c r="Q139" t="n">
-        <v>62.47</v>
+        <v>63.1</v>
       </c>
       <c r="R139" t="n">
-        <v>2102.5</v>
+        <v>2069</v>
       </c>
       <c r="S139" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="T139"/>
       <c r="U139" t="n">
-        <v>56</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="140">
@@ -8062,41 +8058,45 @@
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E140" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H140"/>
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L140"/>
       <c r="M140"/>
       <c r="N140"/>
       <c r="O140" t="n">
-        <v>22.67</v>
+        <v>23.23</v>
       </c>
       <c r="P140" t="n">
-        <v>41.59</v>
+        <v>40.52</v>
       </c>
       <c r="Q140" t="n">
-        <v>64.26</v>
+        <v>63.75</v>
       </c>
       <c r="R140" t="n">
-        <v>1947.7</v>
-      </c>
-      <c r="S140"/>
+        <v>2109.1</v>
+      </c>
+      <c r="S140" t="n">
+        <v>15.6</v>
+      </c>
       <c r="T140"/>
-      <c r="U140"/>
+      <c r="U140" t="n">
+        <v>57.2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -8109,22 +8109,20 @@
         <v>2021</v>
       </c>
       <c r="D141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E141" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G141" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="H141"/>
       <c r="I141"/>
-      <c r="J141" t="n">
-        <v>14</v>
-      </c>
+      <c r="J141"/>
       <c r="K141" t="s">
         <v>49</v>
       </c>
@@ -8132,24 +8130,20 @@
       <c r="M141"/>
       <c r="N141"/>
       <c r="O141" t="n">
-        <v>23.25</v>
+        <v>23.42</v>
       </c>
       <c r="P141" t="n">
-        <v>40.99</v>
+        <v>40.34</v>
       </c>
       <c r="Q141" t="n">
-        <v>64.24</v>
+        <v>63.76</v>
       </c>
       <c r="R141" t="n">
-        <v>2568.1</v>
-      </c>
-      <c r="S141" t="n">
-        <v>13.2</v>
-      </c>
+        <v>1784.3</v>
+      </c>
+      <c r="S141"/>
       <c r="T141"/>
-      <c r="U141" t="n">
-        <v>57.5</v>
-      </c>
+      <c r="U141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -8162,46 +8156,46 @@
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E142" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
       <c r="J142" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L142"/>
       <c r="M142"/>
       <c r="N142"/>
       <c r="O142" t="n">
-        <v>22.57</v>
+        <v>22.83</v>
       </c>
       <c r="P142" t="n">
-        <v>41.02</v>
+        <v>40.98</v>
       </c>
       <c r="Q142" t="n">
-        <v>63.59</v>
+        <v>63.81</v>
       </c>
       <c r="R142" t="n">
-        <v>2148.9</v>
+        <v>2190.6</v>
       </c>
       <c r="S142" t="n">
-        <v>11.9</v>
+        <v>16</v>
       </c>
       <c r="T142"/>
       <c r="U142" t="n">
-        <v>58</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="143">
@@ -8215,44 +8209,46 @@
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E143" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H143"/>
       <c r="I143"/>
-      <c r="J143"/>
+      <c r="J143" t="n">
+        <v>14</v>
+      </c>
       <c r="K143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L143"/>
       <c r="M143"/>
       <c r="N143"/>
       <c r="O143" t="n">
-        <v>22.63</v>
+        <v>22.41</v>
       </c>
       <c r="P143" t="n">
-        <v>40.82</v>
+        <v>40.56</v>
       </c>
       <c r="Q143" t="n">
-        <v>63.45</v>
+        <v>62.97</v>
       </c>
       <c r="R143" t="n">
-        <v>2389.4</v>
+        <v>1979.9</v>
       </c>
       <c r="S143" t="n">
-        <v>12.6</v>
+        <v>13.6</v>
       </c>
       <c r="T143"/>
       <c r="U143" t="n">
-        <v>57.3</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="144">
@@ -8266,41 +8262,45 @@
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E144" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L144"/>
       <c r="M144"/>
       <c r="N144"/>
       <c r="O144" t="n">
-        <v>22.87</v>
+        <v>22.53</v>
       </c>
       <c r="P144" t="n">
-        <v>41.6</v>
+        <v>41.89</v>
       </c>
       <c r="Q144" t="n">
-        <v>64.47</v>
+        <v>64.42</v>
       </c>
       <c r="R144" t="n">
-        <v>1862.6</v>
-      </c>
-      <c r="S144"/>
+        <v>2160.7</v>
+      </c>
+      <c r="S144" t="n">
+        <v>16.1</v>
+      </c>
       <c r="T144"/>
-      <c r="U144"/>
+      <c r="U144" t="n">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -8313,22 +8313,20 @@
         <v>2021</v>
       </c>
       <c r="D145" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E145" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="H145"/>
       <c r="I145"/>
-      <c r="J145" t="n">
-        <v>16</v>
-      </c>
+      <c r="J145"/>
       <c r="K145" t="s">
         <v>50</v>
       </c>
@@ -8336,24 +8334,20 @@
       <c r="M145"/>
       <c r="N145"/>
       <c r="O145" t="n">
-        <v>22.93</v>
+        <v>22.4</v>
       </c>
       <c r="P145" t="n">
-        <v>41.91</v>
+        <v>40.69</v>
       </c>
       <c r="Q145" t="n">
-        <v>64.84</v>
+        <v>63.09</v>
       </c>
       <c r="R145" t="n">
-        <v>2367.7</v>
-      </c>
-      <c r="S145" t="n">
-        <v>15.6</v>
-      </c>
+        <v>2140.7</v>
+      </c>
+      <c r="S145"/>
       <c r="T145"/>
-      <c r="U145" t="n">
-        <v>57.9</v>
-      </c>
+      <c r="U145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -8366,46 +8360,46 @@
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E146" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H146"/>
       <c r="I146"/>
       <c r="J146" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L146"/>
       <c r="M146"/>
       <c r="N146"/>
       <c r="O146" t="n">
-        <v>22.56</v>
+        <v>22.23</v>
       </c>
       <c r="P146" t="n">
-        <v>41.5</v>
+        <v>41.54</v>
       </c>
       <c r="Q146" t="n">
-        <v>64.06</v>
+        <v>63.77</v>
       </c>
       <c r="R146" t="n">
-        <v>2026.9</v>
+        <v>2071.4</v>
       </c>
       <c r="S146" t="n">
-        <v>16.3</v>
+        <v>15.1</v>
       </c>
       <c r="T146"/>
       <c r="U146" t="n">
-        <v>56.9</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="147">
@@ -8419,44 +8413,46 @@
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E147" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H147"/>
       <c r="I147"/>
-      <c r="J147"/>
+      <c r="J147" t="n">
+        <v>6</v>
+      </c>
       <c r="K147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L147"/>
       <c r="M147"/>
       <c r="N147"/>
       <c r="O147" t="n">
-        <v>23.05</v>
+        <v>21.73</v>
       </c>
       <c r="P147" t="n">
-        <v>41.16</v>
+        <v>42.35</v>
       </c>
       <c r="Q147" t="n">
-        <v>64.21</v>
+        <v>64.08</v>
       </c>
       <c r="R147" t="n">
-        <v>2066.6</v>
+        <v>2081.6</v>
       </c>
       <c r="S147" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="T147"/>
       <c r="U147" t="n">
-        <v>58.2</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="148">
@@ -8470,41 +8466,45 @@
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E148" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L148"/>
       <c r="M148"/>
       <c r="N148"/>
       <c r="O148" t="n">
-        <v>23.1</v>
+        <v>22.02</v>
       </c>
       <c r="P148" t="n">
-        <v>41.93</v>
+        <v>40.98</v>
       </c>
       <c r="Q148" t="n">
-        <v>65.03</v>
+        <v>63</v>
       </c>
       <c r="R148" t="n">
-        <v>1760</v>
-      </c>
-      <c r="S148"/>
+        <v>2065.2</v>
+      </c>
+      <c r="S148" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T148"/>
-      <c r="U148"/>
+      <c r="U148" t="n">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -8517,22 +8517,20 @@
         <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E149" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G149" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H149"/>
       <c r="I149"/>
-      <c r="J149" t="n">
-        <v>17</v>
-      </c>
+      <c r="J149"/>
       <c r="K149" t="s">
         <v>49</v>
       </c>
@@ -8540,24 +8538,20 @@
       <c r="M149"/>
       <c r="N149"/>
       <c r="O149" t="n">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="P149" t="n">
-        <v>41.66</v>
+        <v>41.79</v>
       </c>
       <c r="Q149" t="n">
-        <v>64.26</v>
+        <v>63.79</v>
       </c>
       <c r="R149" t="n">
-        <v>1966.8</v>
-      </c>
-      <c r="S149" t="n">
-        <v>15.2</v>
-      </c>
+        <v>1993.6</v>
+      </c>
+      <c r="S149"/>
       <c r="T149"/>
-      <c r="U149" t="n">
-        <v>57.1</v>
-      </c>
+      <c r="U149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -8570,21 +8564,21 @@
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E150" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H150"/>
       <c r="I150"/>
       <c r="J150" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K150" t="s">
         <v>49</v>
@@ -8593,23 +8587,23 @@
       <c r="M150"/>
       <c r="N150"/>
       <c r="O150" t="n">
-        <v>23.19</v>
+        <v>23.08</v>
       </c>
       <c r="P150" t="n">
-        <v>39.91</v>
+        <v>38.95</v>
       </c>
       <c r="Q150" t="n">
-        <v>63.1</v>
+        <v>62.03</v>
       </c>
       <c r="R150" t="n">
-        <v>2069</v>
+        <v>2149.6</v>
       </c>
       <c r="S150" t="n">
-        <v>15.3</v>
+        <v>13.8</v>
       </c>
       <c r="T150"/>
       <c r="U150" t="n">
-        <v>55.6</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="151">
@@ -8623,20 +8617,22 @@
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E151" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H151"/>
       <c r="I151"/>
-      <c r="J151"/>
+      <c r="J151" t="n">
+        <v>7</v>
+      </c>
       <c r="K151" t="s">
         <v>49</v>
       </c>
@@ -8644,23 +8640,23 @@
       <c r="M151"/>
       <c r="N151"/>
       <c r="O151" t="n">
-        <v>23.23</v>
+        <v>23.33</v>
       </c>
       <c r="P151" t="n">
-        <v>40.52</v>
+        <v>38.88</v>
       </c>
       <c r="Q151" t="n">
-        <v>63.75</v>
+        <v>62.21</v>
       </c>
       <c r="R151" t="n">
-        <v>2109.1</v>
+        <v>2044.1</v>
       </c>
       <c r="S151" t="n">
-        <v>15.6</v>
+        <v>13.8</v>
       </c>
       <c r="T151"/>
       <c r="U151" t="n">
-        <v>57.2</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="152">
@@ -8674,16 +8670,16 @@
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E152" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G152" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H152"/>
       <c r="I152"/>
@@ -8695,20 +8691,24 @@
       <c r="M152"/>
       <c r="N152"/>
       <c r="O152" t="n">
-        <v>23.42</v>
+        <v>23.21</v>
       </c>
       <c r="P152" t="n">
-        <v>40.34</v>
+        <v>39.02</v>
       </c>
       <c r="Q152" t="n">
-        <v>63.76</v>
+        <v>62.23</v>
       </c>
       <c r="R152" t="n">
-        <v>1784.3</v>
-      </c>
-      <c r="S152"/>
+        <v>2022.6</v>
+      </c>
+      <c r="S152" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T152"/>
-      <c r="U152"/>
+      <c r="U152" t="n">
+        <v>57.9</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -8721,47 +8721,41 @@
         <v>2021</v>
       </c>
       <c r="D153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E153" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G153" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="H153"/>
       <c r="I153"/>
-      <c r="J153" t="n">
-        <v>16</v>
-      </c>
+      <c r="J153"/>
       <c r="K153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L153"/>
       <c r="M153"/>
       <c r="N153"/>
       <c r="O153" t="n">
-        <v>22.83</v>
+        <v>23.13</v>
       </c>
       <c r="P153" t="n">
-        <v>40.98</v>
+        <v>39.76</v>
       </c>
       <c r="Q153" t="n">
-        <v>63.81</v>
+        <v>62.89</v>
       </c>
       <c r="R153" t="n">
-        <v>2190.6</v>
-      </c>
-      <c r="S153" t="n">
-        <v>16</v>
-      </c>
+        <v>2256</v>
+      </c>
+      <c r="S153"/>
       <c r="T153"/>
-      <c r="U153" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="U153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -8774,21 +8768,21 @@
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E154" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K154" t="s">
         <v>50</v>
@@ -8797,23 +8791,23 @@
       <c r="M154"/>
       <c r="N154"/>
       <c r="O154" t="n">
-        <v>22.41</v>
+        <v>21.84</v>
       </c>
       <c r="P154" t="n">
-        <v>40.56</v>
+        <v>42.74</v>
       </c>
       <c r="Q154" t="n">
-        <v>62.97</v>
+        <v>64.58</v>
       </c>
       <c r="R154" t="n">
-        <v>1979.9</v>
+        <v>1858.2</v>
       </c>
       <c r="S154" t="n">
-        <v>13.6</v>
+        <v>10.8</v>
       </c>
       <c r="T154"/>
       <c r="U154" t="n">
-        <v>56.9</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="155">
@@ -8827,20 +8821,22 @@
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E155" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H155"/>
       <c r="I155"/>
-      <c r="J155"/>
+      <c r="J155" t="n">
+        <v>18</v>
+      </c>
       <c r="K155" t="s">
         <v>50</v>
       </c>
@@ -8848,23 +8844,23 @@
       <c r="M155"/>
       <c r="N155"/>
       <c r="O155" t="n">
-        <v>22.53</v>
+        <v>21.5</v>
       </c>
       <c r="P155" t="n">
-        <v>41.89</v>
+        <v>41.68</v>
       </c>
       <c r="Q155" t="n">
-        <v>64.42</v>
+        <v>63.18</v>
       </c>
       <c r="R155" t="n">
-        <v>2160.7</v>
+        <v>2137.4</v>
       </c>
       <c r="S155" t="n">
-        <v>16.1</v>
+        <v>10.6</v>
       </c>
       <c r="T155"/>
       <c r="U155" t="n">
-        <v>56.6</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="156">
@@ -8878,16 +8874,16 @@
         <v>2021</v>
       </c>
       <c r="D156" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E156" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F156" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H156"/>
       <c r="I156"/>
@@ -8899,20 +8895,24 @@
       <c r="M156"/>
       <c r="N156"/>
       <c r="O156" t="n">
-        <v>22.4</v>
+        <v>21.71</v>
       </c>
       <c r="P156" t="n">
-        <v>40.69</v>
+        <v>41.13</v>
       </c>
       <c r="Q156" t="n">
-        <v>63.09</v>
+        <v>62.84</v>
       </c>
       <c r="R156" t="n">
-        <v>2140.7</v>
-      </c>
-      <c r="S156"/>
+        <v>2101.6</v>
+      </c>
+      <c r="S156" t="n">
+        <v>10.9</v>
+      </c>
       <c r="T156"/>
-      <c r="U156"/>
+      <c r="U156" t="n">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -8925,47 +8925,41 @@
         <v>2021</v>
       </c>
       <c r="D157" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E157" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G157" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="H157"/>
       <c r="I157"/>
-      <c r="J157" t="n">
-        <v>12</v>
-      </c>
+      <c r="J157"/>
       <c r="K157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157"/>
       <c r="O157" t="n">
-        <v>22.23</v>
+        <v>21.65</v>
       </c>
       <c r="P157" t="n">
-        <v>41.54</v>
+        <v>41.78</v>
       </c>
       <c r="Q157" t="n">
-        <v>63.77</v>
+        <v>63.43</v>
       </c>
       <c r="R157" t="n">
-        <v>2071.4</v>
-      </c>
-      <c r="S157" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1291.4</v>
+      </c>
+      <c r="S157"/>
       <c r="T157"/>
-      <c r="U157" t="n">
-        <v>55.8</v>
-      </c>
+      <c r="U157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -8978,21 +8972,21 @@
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E158" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
       <c r="J158" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K158" t="s">
         <v>49</v>
@@ -9001,23 +8995,23 @@
       <c r="M158"/>
       <c r="N158"/>
       <c r="O158" t="n">
-        <v>21.73</v>
+        <v>21.15</v>
       </c>
       <c r="P158" t="n">
-        <v>42.35</v>
+        <v>44.18</v>
       </c>
       <c r="Q158" t="n">
-        <v>64.08</v>
+        <v>65.33</v>
       </c>
       <c r="R158" t="n">
-        <v>2081.6</v>
+        <v>2061.1</v>
       </c>
       <c r="S158" t="n">
-        <v>14.5</v>
+        <v>11.8</v>
       </c>
       <c r="T158"/>
       <c r="U158" t="n">
-        <v>55.7</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="159">
@@ -9031,20 +9025,22 @@
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E159" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H159"/>
       <c r="I159"/>
-      <c r="J159"/>
+      <c r="J159" t="n">
+        <v>4</v>
+      </c>
       <c r="K159" t="s">
         <v>49</v>
       </c>
@@ -9052,23 +9048,23 @@
       <c r="M159"/>
       <c r="N159"/>
       <c r="O159" t="n">
-        <v>22.02</v>
+        <v>20.88</v>
       </c>
       <c r="P159" t="n">
-        <v>40.98</v>
+        <v>44.29</v>
       </c>
       <c r="Q159" t="n">
-        <v>63</v>
+        <v>65.17</v>
       </c>
       <c r="R159" t="n">
-        <v>2065.2</v>
+        <v>2453.3</v>
       </c>
       <c r="S159" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="T159"/>
       <c r="U159" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="160">
@@ -9082,16 +9078,16 @@
         <v>2021</v>
       </c>
       <c r="D160" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E160" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
@@ -9103,20 +9099,24 @@
       <c r="M160"/>
       <c r="N160"/>
       <c r="O160" t="n">
-        <v>22</v>
+        <v>20.97</v>
       </c>
       <c r="P160" t="n">
-        <v>41.79</v>
+        <v>44.38</v>
       </c>
       <c r="Q160" t="n">
-        <v>63.79</v>
+        <v>65.35</v>
       </c>
       <c r="R160" t="n">
-        <v>1993.6</v>
-      </c>
-      <c r="S160"/>
+        <v>2122.1</v>
+      </c>
+      <c r="S160" t="n">
+        <v>12.3</v>
+      </c>
       <c r="T160"/>
-      <c r="U160"/>
+      <c r="U160" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -9129,22 +9129,20 @@
         <v>2021</v>
       </c>
       <c r="D161" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E161" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="H161"/>
       <c r="I161"/>
-      <c r="J161" t="n">
-        <v>9</v>
-      </c>
+      <c r="J161"/>
       <c r="K161" t="s">
         <v>49</v>
       </c>
@@ -9152,583 +9150,20 @@
       <c r="M161"/>
       <c r="N161"/>
       <c r="O161" t="n">
-        <v>23.08</v>
+        <v>21.27</v>
       </c>
       <c r="P161" t="n">
-        <v>38.95</v>
+        <v>43.89</v>
       </c>
       <c r="Q161" t="n">
-        <v>62.03</v>
+        <v>65.16</v>
       </c>
       <c r="R161" t="n">
-        <v>2149.6</v>
-      </c>
-      <c r="S161" t="n">
-        <v>13.8</v>
-      </c>
+        <v>2057.2</v>
+      </c>
+      <c r="S161"/>
       <c r="T161"/>
-      <c r="U161" t="n">
-        <v>58.1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" t="s">
-        <v>48</v>
-      </c>
-      <c r="C162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D162" t="s">
-        <v>45</v>
-      </c>
-      <c r="E162" t="n">
-        <v>18</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2</v>
-      </c>
-      <c r="G162" t="n">
-        <v>34</v>
-      </c>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162" t="n">
-        <v>7</v>
-      </c>
-      <c r="K162" t="s">
-        <v>49</v>
-      </c>
-      <c r="L162"/>
-      <c r="M162"/>
-      <c r="N162"/>
-      <c r="O162" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="P162" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="R162" t="n">
-        <v>2044.1</v>
-      </c>
-      <c r="S162" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="T162"/>
-      <c r="U162" t="n">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>21</v>
-      </c>
-      <c r="B163" t="s">
-        <v>48</v>
-      </c>
-      <c r="C163" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D163" t="s">
-        <v>45</v>
-      </c>
-      <c r="E163" t="n">
-        <v>18</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3</v>
-      </c>
-      <c r="G163" t="n">
-        <v>47</v>
-      </c>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="J163"/>
-      <c r="K163" t="s">
-        <v>49</v>
-      </c>
-      <c r="L163"/>
-      <c r="M163"/>
-      <c r="N163"/>
-      <c r="O163" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="P163" t="n">
-        <v>39.02</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>62.23</v>
-      </c>
-      <c r="R163" t="n">
-        <v>2022.6</v>
-      </c>
-      <c r="S163" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T163"/>
-      <c r="U163" t="n">
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164" t="s">
-        <v>48</v>
-      </c>
-      <c r="C164" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D164" t="s">
-        <v>45</v>
-      </c>
-      <c r="E164" t="n">
-        <v>18</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4</v>
-      </c>
-      <c r="G164" t="n">
-        <v>71</v>
-      </c>
-      <c r="H164"/>
-      <c r="I164"/>
-      <c r="J164"/>
-      <c r="K164" t="s">
-        <v>49</v>
-      </c>
-      <c r="L164"/>
-      <c r="M164"/>
-      <c r="N164"/>
-      <c r="O164" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="P164" t="n">
-        <v>39.76</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="R164" t="n">
-        <v>2256</v>
-      </c>
-      <c r="S164"/>
-      <c r="T164"/>
-      <c r="U164"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>21</v>
-      </c>
-      <c r="B165" t="s">
-        <v>48</v>
-      </c>
-      <c r="C165" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D165" t="s">
-        <v>46</v>
-      </c>
-      <c r="E165" t="n">
-        <v>19</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" t="n">
-        <v>11</v>
-      </c>
-      <c r="H165"/>
-      <c r="I165"/>
-      <c r="J165" t="n">
-        <v>19</v>
-      </c>
-      <c r="K165" t="s">
-        <v>50</v>
-      </c>
-      <c r="L165"/>
-      <c r="M165"/>
-      <c r="N165"/>
-      <c r="O165" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="P165" t="n">
-        <v>42.74</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>64.58</v>
-      </c>
-      <c r="R165" t="n">
-        <v>1858.2</v>
-      </c>
-      <c r="S165" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="T165"/>
-      <c r="U165" t="n">
-        <v>55.4</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>21</v>
-      </c>
-      <c r="B166" t="s">
-        <v>48</v>
-      </c>
-      <c r="C166" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D166" t="s">
-        <v>46</v>
-      </c>
-      <c r="E166" t="n">
-        <v>19</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2</v>
-      </c>
-      <c r="G166" t="n">
-        <v>35</v>
-      </c>
-      <c r="H166"/>
-      <c r="I166"/>
-      <c r="J166" t="n">
-        <v>18</v>
-      </c>
-      <c r="K166" t="s">
-        <v>50</v>
-      </c>
-      <c r="L166"/>
-      <c r="M166"/>
-      <c r="N166"/>
-      <c r="O166" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="P166" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>63.18</v>
-      </c>
-      <c r="R166" t="n">
-        <v>2137.4</v>
-      </c>
-      <c r="S166" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="T166"/>
-      <c r="U166" t="n">
-        <v>56.4</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>21</v>
-      </c>
-      <c r="B167" t="s">
-        <v>48</v>
-      </c>
-      <c r="C167" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D167" t="s">
-        <v>46</v>
-      </c>
-      <c r="E167" t="n">
-        <v>19</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3</v>
-      </c>
-      <c r="G167" t="n">
-        <v>44</v>
-      </c>
-      <c r="H167"/>
-      <c r="I167"/>
-      <c r="J167"/>
-      <c r="K167" t="s">
-        <v>50</v>
-      </c>
-      <c r="L167"/>
-      <c r="M167"/>
-      <c r="N167"/>
-      <c r="O167" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="P167" t="n">
-        <v>41.13</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>62.84</v>
-      </c>
-      <c r="R167" t="n">
-        <v>2101.6</v>
-      </c>
-      <c r="S167" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="T167"/>
-      <c r="U167" t="n">
-        <v>55.7</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>21</v>
-      </c>
-      <c r="B168" t="s">
-        <v>48</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D168" t="s">
-        <v>46</v>
-      </c>
-      <c r="E168" t="n">
-        <v>19</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4</v>
-      </c>
-      <c r="G168" t="n">
-        <v>74</v>
-      </c>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="J168"/>
-      <c r="K168" t="s">
-        <v>50</v>
-      </c>
-      <c r="L168"/>
-      <c r="M168"/>
-      <c r="N168"/>
-      <c r="O168" t="n">
-        <v>21.65</v>
-      </c>
-      <c r="P168" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>63.43</v>
-      </c>
-      <c r="R168" t="n">
-        <v>1291.4</v>
-      </c>
-      <c r="S168"/>
-      <c r="T168"/>
-      <c r="U168"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" t="s">
-        <v>48</v>
-      </c>
-      <c r="C169" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D169" t="s">
-        <v>47</v>
-      </c>
-      <c r="E169" t="n">
-        <v>20</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" t="n">
-        <v>8</v>
-      </c>
-      <c r="H169"/>
-      <c r="I169"/>
-      <c r="J169" t="n">
-        <v>5</v>
-      </c>
-      <c r="K169" t="s">
-        <v>49</v>
-      </c>
-      <c r="L169"/>
-      <c r="M169"/>
-      <c r="N169"/>
-      <c r="O169" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="P169" t="n">
-        <v>44.18</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>65.33</v>
-      </c>
-      <c r="R169" t="n">
-        <v>2061.1</v>
-      </c>
-      <c r="S169" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="T169"/>
-      <c r="U169" t="n">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>21</v>
-      </c>
-      <c r="B170" t="s">
-        <v>48</v>
-      </c>
-      <c r="C170" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D170" t="s">
-        <v>47</v>
-      </c>
-      <c r="E170" t="n">
-        <v>20</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2</v>
-      </c>
-      <c r="G170" t="n">
-        <v>29</v>
-      </c>
-      <c r="H170"/>
-      <c r="I170"/>
-      <c r="J170" t="n">
-        <v>4</v>
-      </c>
-      <c r="K170" t="s">
-        <v>49</v>
-      </c>
-      <c r="L170"/>
-      <c r="M170"/>
-      <c r="N170"/>
-      <c r="O170" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="P170" t="n">
-        <v>44.29</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="R170" t="n">
-        <v>2453.3</v>
-      </c>
-      <c r="S170" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T170"/>
-      <c r="U170" t="n">
-        <v>56.2</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>21</v>
-      </c>
-      <c r="B171" t="s">
-        <v>48</v>
-      </c>
-      <c r="C171" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D171" t="s">
-        <v>47</v>
-      </c>
-      <c r="E171" t="n">
-        <v>20</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3</v>
-      </c>
-      <c r="G171" t="n">
-        <v>56</v>
-      </c>
-      <c r="H171"/>
-      <c r="I171"/>
-      <c r="J171"/>
-      <c r="K171" t="s">
-        <v>49</v>
-      </c>
-      <c r="L171"/>
-      <c r="M171"/>
-      <c r="N171"/>
-      <c r="O171" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="P171" t="n">
-        <v>44.38</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>65.35</v>
-      </c>
-      <c r="R171" t="n">
-        <v>2122.1</v>
-      </c>
-      <c r="S171" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="T171"/>
-      <c r="U171" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>21</v>
-      </c>
-      <c r="B172" t="s">
-        <v>48</v>
-      </c>
-      <c r="C172" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D172" t="s">
-        <v>47</v>
-      </c>
-      <c r="E172" t="n">
-        <v>20</v>
-      </c>
-      <c r="F172" t="n">
-        <v>4</v>
-      </c>
-      <c r="G172" t="n">
-        <v>79</v>
-      </c>
-      <c r="H172"/>
-      <c r="I172"/>
-      <c r="J172"/>
-      <c r="K172" t="s">
-        <v>49</v>
-      </c>
-      <c r="L172"/>
-      <c r="M172"/>
-      <c r="N172"/>
-      <c r="O172" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="P172" t="n">
-        <v>43.89</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>65.16</v>
-      </c>
-      <c r="R172" t="n">
-        <v>2057.2</v>
-      </c>
-      <c r="S172"/>
-      <c r="T172"/>
-      <c r="U172"/>
+      <c r="U161"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
